--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V86"/>
+  <dimension ref="A1:V88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Nowe Skalmierzyce</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>2.12</v>
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1164,11 +1164,11 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.96</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
         </is>
       </c>
     </row>
@@ -1217,19 +1217,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>3</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Blekitni Stargard</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>2.12</v>
@@ -1240,11 +1240,11 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1256,11 +1256,11 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.96</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.09</v>
+        <v>1.74</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:59</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.49</v>
+        <v>3.86</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:47</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.91</v>
+        <v>3.39</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.61</v>
+        <v>3.96</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:59</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swinoujscie/bqdM2Q3s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-gedania-gdansk/Momsb2IC/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:59</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.86</v>
+        <v>3.49</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:47</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>3.39</v>
+        <v>2.91</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>3.96</v>
+        <v>2.61</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:59</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-gedania-gdansk/Momsb2IC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swinoujscie/bqdM2Q3s/</t>
         </is>
       </c>
     </row>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J13" t="n">
-        <v>3.51</v>
+        <v>1.95</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.51</v>
+        <v>3.28</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.7</v>
+        <v>3.86</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>1.76</v>
+        <v>3.02</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.89</v>
+        <v>2.61</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-pogon-szczecin/QiupME42/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-unia-solec-kujawski/h6eQ1pJm/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.28</v>
+        <v>3.51</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.86</v>
+        <v>3.7</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>3.02</v>
+        <v>1.76</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-unia-solec-kujawski/h6eQ1pJm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-pogon-szczecin/QiupME42/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:03</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.37</v>
+        <v>2.79</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.42</v>
+        <v>2.6</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:19</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:03</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.79</v>
+        <v>3.37</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>4.42</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:19</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 14:32</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.41</v>
+        <v>2.64</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.67</v>
+        <v>2.66</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 14:32</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.64</v>
+        <v>3.41</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.66</v>
+        <v>3.67</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>2.23</v>
+        <v>2.37</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.53</v>
+        <v>3.36</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.34</v>
+        <v>3.69</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.56</v>
+        <v>2.39</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.44</v>
+        <v>1.86</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J75" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.88</v>
+        <v>3.34</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
         </is>
       </c>
     </row>
@@ -7381,7 +7381,7 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G76" t="n">
@@ -7389,14 +7389,14 @@
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.41</v>
+        <v>3.88</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.35</v>
+        <v>2.69</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.73</v>
+        <v>2.39</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.37</v>
+        <v>1.75</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.36</v>
+        <v>1.84</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>23/09/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>23/09/2023 15:53</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>22/09/2023 05:53</t>
-        </is>
-      </c>
-      <c r="P77" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:53</t>
-        </is>
-      </c>
       <c r="R77" t="n">
-        <v>2.39</v>
+        <v>3.35</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.86</v>
+        <v>3.73</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
         </is>
       </c>
     </row>
@@ -8366,6 +8366,190 @@
       <c r="V86" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-unia-solec-kujawski/ITOYVqZJ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45205.66666666666</v>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="G87" t="n">
+        <v>0</v>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Zawisza</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="K87" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L87" t="n">
+        <v>3.14</v>
+      </c>
+      <c r="M87" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="N87" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P87" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="Q87" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="R87" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S87" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T87" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="U87" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:58</t>
+        </is>
+      </c>
+      <c r="V87" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-zawisza/zRxc3ieo/</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45205.66666666666</v>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Starogard Gdanski</t>
+        </is>
+      </c>
+      <c r="G88" t="n">
+        <v>0</v>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Swit Skolwin</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>1</v>
+      </c>
+      <c r="J88" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="K88" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L88" t="n">
+        <v>5.7</v>
+      </c>
+      <c r="M88" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="N88" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P88" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="Q88" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="R88" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="S88" t="inlineStr">
+        <is>
+          <t>05/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T88" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="U88" t="inlineStr">
+        <is>
+          <t>06/10/2023 15:59</t>
+        </is>
+      </c>
+      <c r="V88" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swit-skolwin/jyCLMud6/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V88"/>
+  <dimension ref="A1:V95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1585,7 +1585,7 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G13" t="n">
@@ -1593,14 +1593,14 @@
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J13" t="n">
-        <v>1.95</v>
+        <v>3.51</v>
       </c>
       <c r="K13" t="inlineStr">
         <is>
@@ -1608,15 +1608,15 @@
         </is>
       </c>
       <c r="L13" t="n">
-        <v>2.16</v>
+        <v>1.99</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>3.28</v>
+        <v>3.51</v>
       </c>
       <c r="O13" t="inlineStr">
         <is>
@@ -1624,15 +1624,15 @@
         </is>
       </c>
       <c r="P13" t="n">
-        <v>3.86</v>
+        <v>3.7</v>
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="R13" t="n">
-        <v>3.02</v>
+        <v>1.76</v>
       </c>
       <c r="S13" t="inlineStr">
         <is>
@@ -1640,16 +1640,16 @@
         </is>
       </c>
       <c r="T13" t="n">
-        <v>2.61</v>
+        <v>2.89</v>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>12/08/2023 14:59</t>
+          <t>12/08/2023 14:58</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-unia-solec-kujawski/h6eQ1pJm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-pogon-szczecin/QiupME42/</t>
         </is>
       </c>
     </row>
@@ -1677,7 +1677,7 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="G14" t="n">
@@ -1685,14 +1685,14 @@
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>3.51</v>
+        <v>1.95</v>
       </c>
       <c r="K14" t="inlineStr">
         <is>
@@ -1700,15 +1700,15 @@
         </is>
       </c>
       <c r="L14" t="n">
-        <v>1.99</v>
+        <v>2.16</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>3.51</v>
+        <v>3.28</v>
       </c>
       <c r="O14" t="inlineStr">
         <is>
@@ -1716,15 +1716,15 @@
         </is>
       </c>
       <c r="P14" t="n">
-        <v>3.7</v>
+        <v>3.86</v>
       </c>
       <c r="Q14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="R14" t="n">
-        <v>1.76</v>
+        <v>3.02</v>
       </c>
       <c r="S14" t="inlineStr">
         <is>
@@ -1732,16 +1732,16 @@
         </is>
       </c>
       <c r="T14" t="n">
-        <v>2.89</v>
+        <v>2.61</v>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>12/08/2023 14:58</t>
+          <t>12/08/2023 14:59</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-pogon-szczecin/QiupME42/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-unia-solec-kujawski/h6eQ1pJm/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:03</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.79</v>
+        <v>3.37</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.6</v>
+        <v>4.42</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:19</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:03</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.37</v>
+        <v>2.79</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.42</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:19</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
         </is>
       </c>
     </row>
@@ -3241,7 +3241,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G31" t="n">
@@ -3249,63 +3249,63 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.76</v>
+        <v>1.21</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.74</v>
+        <v>1.31</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.54</v>
+        <v>5.94</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.85</v>
+        <v>6.41</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>3.34</v>
+        <v>8.15</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>3.68</v>
+        <v>5.43</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1.2</v>
+        <v>1.76</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.28</v>
+        <v>1.74</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>6.33</v>
+        <v>3.54</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>5.76</v>
+        <v>3.85</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>7.73</v>
+        <v>3.34</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>6.55</v>
+        <v>3.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>2.62</v>
+        <v>1.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.64</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.11</v>
+        <v>6.33</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.56</v>
+        <v>5.76</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.26</v>
+        <v>7.73</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.25</v>
+        <v>6.55</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.95</v>
+        <v>2.64</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.21</v>
+        <v>2.6</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.95</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>5.94</v>
+        <v>3.2</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>6.41</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>8.15</v>
+        <v>2.22</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.43</v>
+        <v>2.9</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
         </is>
       </c>
     </row>
@@ -7197,71 +7197,71 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I74" t="n">
         <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="L74" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M74" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N74" t="n">
         <v>3.36</v>
       </c>
-      <c r="M74" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:53</t>
-        </is>
-      </c>
-      <c r="N74" t="n">
-        <v>3.45</v>
-      </c>
       <c r="O74" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R74" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S74" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T74" t="n">
         <v>2.39</v>
       </c>
-      <c r="S74" t="inlineStr">
-        <is>
-          <t>22/09/2023 05:53</t>
-        </is>
-      </c>
-      <c r="T74" t="n">
-        <v>1.86</v>
-      </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I76" t="n">
         <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.3</v>
+        <v>3.36</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.88</v>
+        <v>3.69</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.69</v>
+        <v>2.39</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.39</v>
+        <v>1.86</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.12</v>
+        <v>2.53</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.95</v>
+        <v>2.57</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-cartusia-kartuzy/8bsr9MR6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-nowe-skalmierzyce/MsuWBOsl/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.53</v>
+        <v>2.12</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.57</v>
+        <v>2.95</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.39</v>
+        <v>2.73</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-nowe-skalmierzyce/MsuWBOsl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-cartusia-kartuzy/8bsr9MR6/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.92</v>
+        <v>1.3</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.03</v>
+        <v>1.28</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.53</v>
+        <v>4.74</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.65</v>
+        <v>5.32</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:10</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.91</v>
+        <v>5.77</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.95</v>
+        <v>7.09</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.28</v>
+        <v>2.03</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.74</v>
+        <v>3.53</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>5.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:10</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5.77</v>
+        <v>2.91</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>7.09</v>
+        <v>2.95</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
         </is>
       </c>
     </row>
@@ -8550,6 +8550,650 @@
       <c r="V88" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swit-skolwin/jyCLMud6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45206.5</v>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin II</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>5</v>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Gedania Gdansk</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>2</v>
+      </c>
+      <c r="J89" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K89" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L89" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="M89" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:40</t>
+        </is>
+      </c>
+      <c r="N89" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P89" t="n">
+        <v>4.25</v>
+      </c>
+      <c r="Q89" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:40</t>
+        </is>
+      </c>
+      <c r="R89" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S89" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T89" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="U89" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:40</t>
+        </is>
+      </c>
+      <c r="V89" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45206.5</v>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Solec Kujawski</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>1</v>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Kleczew</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K90" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L90" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M90" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="N90" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P90" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="Q90" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="R90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S90" t="inlineStr">
+        <is>
+          <t>05/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T90" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="U90" t="inlineStr">
+        <is>
+          <t>07/10/2023 11:54</t>
+        </is>
+      </c>
+      <c r="V90" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Cartusia Kartuzy</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>4</v>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Notec Czarnkow</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="K91" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L91" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="M91" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N91" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P91" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="Q91" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V91" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45206.54166666666</v>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Unia Swarzedz</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>2</v>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Luzino</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>1</v>
+      </c>
+      <c r="J92" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="K92" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M92" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N92" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P92" t="n">
+        <v>4.38</v>
+      </c>
+      <c r="Q92" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
+          <t>07/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V92" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45206.58333333334</v>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="G93" t="n">
+        <v>3</v>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Sroda</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>3</v>
+      </c>
+      <c r="J93" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="K93" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L93" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="M93" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="N93" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P93" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q93" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:54</t>
+        </is>
+      </c>
+      <c r="R93" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="S93" t="inlineStr">
+        <is>
+          <t>06/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T93" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U93" t="inlineStr">
+        <is>
+          <t>07/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V93" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-polonia-sroda-wielkopol/4vGPLaBC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>3</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K94" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L94" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="M94" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:05</t>
+        </is>
+      </c>
+      <c r="N94" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P94" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q94" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:05</t>
+        </is>
+      </c>
+      <c r="R94" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S94" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T94" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U94" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:05</t>
+        </is>
+      </c>
+      <c r="V94" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45206.625</v>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Swinoujscie</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>3</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Elana Torun</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>0</v>
+      </c>
+      <c r="J95" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:07</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:07</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:07</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V95"/>
+  <dimension ref="A1:V103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2965,7 +2965,7 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -2973,14 +2973,14 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J28" t="n">
-        <v>1.48</v>
+        <v>1.79</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
@@ -2988,7 +2988,7 @@
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="N28" t="n">
-        <v>4.18</v>
+        <v>3.67</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
@@ -3004,7 +3004,7 @@
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
@@ -3012,7 +3012,7 @@
         </is>
       </c>
       <c r="R28" t="n">
-        <v>4.77</v>
+        <v>3.43</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
@@ -3020,7 +3020,7 @@
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
@@ -3029,7 +3029,7 @@
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-elana-torun/Ee0rR0na/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.79</v>
+        <v>1.48</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.8</v>
+        <v>1.72</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.67</v>
+        <v>4.18</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.83</v>
+        <v>3.8</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.43</v>
+        <v>4.77</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.45</v>
+        <v>3.23</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-elana-torun/Ee0rR0na/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J31" t="n">
-        <v>1.21</v>
+        <v>2.6</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.31</v>
+        <v>1.95</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5.94</v>
+        <v>3.2</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>6.41</v>
+        <v>3.4</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>8.15</v>
+        <v>2.22</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>5.43</v>
+        <v>2.9</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.74</v>
+        <v>1.28</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.54</v>
+        <v>6.33</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.85</v>
+        <v>5.76</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.34</v>
+        <v>7.73</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.68</v>
+        <v>6.55</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>1.2</v>
+        <v>1.76</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.28</v>
+        <v>1.74</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>6.33</v>
+        <v>3.54</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>5.76</v>
+        <v>3.85</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>7.73</v>
+        <v>3.34</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>6.55</v>
+        <v>3.68</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G35" t="n">
+        <v>2</v>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Swinoujscie</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>Pogon Szczecin II</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
-        <v>5</v>
-      </c>
       <c r="J35" t="n">
-        <v>2.6</v>
+        <v>1.21</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.95</v>
+        <v>1.31</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.2</v>
+        <v>5.94</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.4</v>
+        <v>6.41</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.22</v>
+        <v>8.15</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.9</v>
+        <v>5.43</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J74" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.3</v>
+        <v>1.84</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.88</v>
+        <v>3.41</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.69</v>
+        <v>3.35</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.39</v>
+        <v>3.73</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.23</v>
+        <v>2.37</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.53</v>
+        <v>3.36</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.34</v>
+        <v>3.69</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.56</v>
+        <v>2.39</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.44</v>
+        <v>1.86</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
-        <v>2.37</v>
+        <v>2.23</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3.36</v>
+        <v>2.53</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.69</v>
+        <v>3.34</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.39</v>
+        <v>2.56</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.86</v>
+        <v>2.44</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.41</v>
+        <v>3.88</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.35</v>
+        <v>2.69</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.73</v>
+        <v>2.39</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.28</v>
+        <v>2.03</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.74</v>
+        <v>3.53</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>5.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:10</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>5.77</v>
+        <v>2.91</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>7.09</v>
+        <v>2.95</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.92</v>
+        <v>1.3</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.03</v>
+        <v>1.28</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.53</v>
+        <v>4.74</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.65</v>
+        <v>5.32</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:10</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.91</v>
+        <v>5.77</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.95</v>
+        <v>7.09</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.6</v>
+        <v>3.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.94</v>
+        <v>4.38</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:57</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.52</v>
+        <v>4.11</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.6</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,32 +8892,32 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4.38</v>
+        <v>3.94</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
+          <t>07/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
           <t>07/10/2023 12:57</t>
         </is>
       </c>
-      <c r="R92" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>06/10/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>07/10/2023 12:57</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.75</v>
+        <v>3.06</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.82</v>
+        <v>4.52</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.8</v>
+        <v>3.77</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
         </is>
       </c>
     </row>
@@ -9129,71 +9129,807 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>3</v>
+      </c>
+      <c r="J95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K95" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L95" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="M95" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:05</t>
+        </is>
+      </c>
+      <c r="N95" t="n">
+        <v>3.31</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P95" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q95" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:05</t>
+        </is>
+      </c>
+      <c r="R95" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="S95" t="inlineStr">
+        <is>
+          <t>06/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T95" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="U95" t="inlineStr">
+        <is>
+          <t>07/10/2023 14:05</t>
+        </is>
+      </c>
+      <c r="V95" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45213.5</v>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Gedania Gdansk</t>
+        </is>
+      </c>
+      <c r="G96" t="n">
+        <v>3</v>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Starogard Gdanski</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="K96" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L96" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="M96" t="inlineStr">
+        <is>
+          <t>14/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="N96" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P96" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="Q96" t="inlineStr">
+        <is>
+          <t>14/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="R96" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="S96" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T96" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="U96" t="inlineStr">
+        <is>
+          <t>14/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V96" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-starogard-gdanski/6RMn81bA/</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45213.5</v>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Solec Kujawski</t>
+        </is>
+      </c>
+      <c r="G97" t="n">
+        <v>0</v>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
           <t>Swinoujscie</t>
         </is>
       </c>
-      <c r="G95" t="n">
+      <c r="I97" t="n">
+        <v>1</v>
+      </c>
+      <c r="J97" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="K97" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L97" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="M97" t="inlineStr">
+        <is>
+          <t>14/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N97" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P97" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q97" t="inlineStr">
+        <is>
+          <t>14/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R97" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="S97" t="inlineStr">
+        <is>
+          <t>12/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T97" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U97" t="inlineStr">
+        <is>
+          <t>14/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V97" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-swinoujscie/bP1R0Jjp/</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45213.54166666666</v>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Unia Swarzedz</t>
+        </is>
+      </c>
+      <c r="G98" t="n">
+        <v>0</v>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Elana Torun</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="K98" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L98" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M98" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N98" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P98" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="Q98" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R98" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="S98" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T98" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="U98" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V98" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45213.54166666666</v>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Luzino</t>
+        </is>
+      </c>
+      <c r="G99" t="n">
         <v>3</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Elana Torun</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Cartusia Kartuzy</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="K99" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="L99" t="n">
+        <v>5.93</v>
+      </c>
+      <c r="M99" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N99" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="P99" t="n">
+        <v>4.42</v>
+      </c>
+      <c r="Q99" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R99" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="S99" t="inlineStr">
+        <is>
+          <t>13/10/2023 00:13</t>
+        </is>
+      </c>
+      <c r="T99" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U99" t="inlineStr">
+        <is>
+          <t>14/10/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V99" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45213.58333333334</v>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Kleczew</t>
+        </is>
+      </c>
+      <c r="G100" t="n">
+        <v>4</v>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Zawisza</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U100" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="V100" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45213.58333333334</v>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="G101" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>3.06</v>
-      </c>
-      <c r="K95" t="inlineStr">
-        <is>
-          <t>06/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="L95" t="n">
-        <v>4.52</v>
-      </c>
-      <c r="M95" t="inlineStr">
-        <is>
-          <t>07/10/2023 14:07</t>
-        </is>
-      </c>
-      <c r="N95" t="n">
-        <v>3.42</v>
-      </c>
-      <c r="O95" t="inlineStr">
-        <is>
-          <t>06/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="P95" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="Q95" t="inlineStr">
-        <is>
-          <t>07/10/2023 14:07</t>
-        </is>
-      </c>
-      <c r="R95" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="S95" t="inlineStr">
-        <is>
-          <t>06/10/2023 02:12</t>
-        </is>
-      </c>
-      <c r="T95" t="n">
-        <v>1.61</v>
-      </c>
-      <c r="U95" t="inlineStr">
-        <is>
-          <t>07/10/2023 14:07</t>
-        </is>
-      </c>
-      <c r="V95" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.47</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>4.11</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="U101" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:59</t>
+        </is>
+      </c>
+      <c r="V101" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>Notec Czarnkow</t>
+        </is>
+      </c>
+      <c r="G102" t="n">
+        <v>5</v>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin II</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>0</v>
+      </c>
+      <c r="J102" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="K102" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L102" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="M102" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="N102" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P102" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q102" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="R102" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="S102" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T102" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="U102" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:43</t>
+        </is>
+      </c>
+      <c r="V102" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-pogon-szczecin/pILj7LDG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45213.625</v>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Swit Skolwin</t>
+        </is>
+      </c>
+      <c r="G103" t="n">
+        <v>2</v>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K103" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L103" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M103" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="N103" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P103" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q103" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="R103" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="S103" t="inlineStr">
+        <is>
+          <t>13/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T103" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="U103" t="inlineStr">
+        <is>
+          <t>14/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="V103" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-nowe-skalmierzyce/O2Xs9sq4/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V103"/>
+  <dimension ref="A1:V104"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:03</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.37</v>
+        <v>2.79</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.42</v>
+        <v>2.6</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:19</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:03</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.79</v>
+        <v>3.37</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>4.42</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:19</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.69</v>
+        <v>4.48</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.16</v>
+        <v>5.93</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.23</v>
+        <v>3.92</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.28</v>
+        <v>4.42</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>4.48</v>
+        <v>2.69</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>5.93</v>
+        <v>2.16</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.42</v>
+        <v>3.28</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.41</v>
+        <v>2.97</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.94</v>
+        <v>1.89</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.16</v>
+        <v>2.32</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.81</v>
+        <v>4.11</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:56</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>1.94</v>
+        <v>3.01</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
         <v>1.89</v>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:56</t>
-        </is>
-      </c>
-      <c r="R101" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>2.32</v>
-      </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:57</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
         </is>
       </c>
     </row>
@@ -9930,6 +9930,98 @@
       <c r="V103" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-nowe-skalmierzyce/O2Xs9sq4/</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45214.625</v>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sroda</t>
+        </is>
+      </c>
+      <c r="G104" t="n">
+        <v>2</v>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>0</v>
+      </c>
+      <c r="J104" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K104" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L104" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M104" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="N104" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P104" t="n">
+        <v>3.99</v>
+      </c>
+      <c r="Q104" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="R104" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="S104" t="inlineStr">
+        <is>
+          <t>14/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T104" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="U104" t="inlineStr">
+        <is>
+          <t>15/10/2023 14:55</t>
+        </is>
+      </c>
+      <c r="V104" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-stolem-gniewino/AaTwANTc/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V104"/>
+  <dimension ref="A1:V105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.53</v>
+        <v>2.12</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.57</v>
+        <v>2.95</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.39</v>
+        <v>2.73</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-nowe-skalmierzyce/MsuWBOsl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-cartusia-kartuzy/8bsr9MR6/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.12</v>
+        <v>2.53</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.95</v>
+        <v>2.57</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-cartusia-kartuzy/8bsr9MR6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-nowe-skalmierzyce/MsuWBOsl/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.92</v>
+        <v>1.3</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.03</v>
+        <v>1.28</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.53</v>
+        <v>4.74</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.65</v>
+        <v>5.32</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:10</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.91</v>
+        <v>5.77</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.95</v>
+        <v>7.09</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.28</v>
+        <v>2.03</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.74</v>
+        <v>3.53</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>5.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:10</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5.77</v>
+        <v>2.91</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>7.09</v>
+        <v>2.95</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>3</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Elana Torun</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>3.06</v>
+        <v>2.75</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>4.52</v>
+        <v>3.82</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.77</v>
+        <v>3.8</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.75</v>
+        <v>3.06</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.82</v>
+        <v>4.52</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.8</v>
+        <v>3.77</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
         <v>1.89</v>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:56</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.32</v>
-      </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.94</v>
+        <v>1.89</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.16</v>
+        <v>2.32</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.81</v>
+        <v>4.11</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:56</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>1.94</v>
+        <v>3.01</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
         </is>
       </c>
     </row>
@@ -10022,6 +10022,98 @@
       <c r="V104" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-stolem-gniewino/AaTwANTc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45219.625</v>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="G105" t="n">
+        <v>0</v>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Swit Skolwin</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>0</v>
+      </c>
+      <c r="J105" t="n">
+        <v>5.03</v>
+      </c>
+      <c r="K105" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L105" t="n">
+        <v>6.04</v>
+      </c>
+      <c r="M105" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="N105" t="n">
+        <v>4.21</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P105" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q105" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="R105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S105" t="inlineStr">
+        <is>
+          <t>19/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T105" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U105" t="inlineStr">
+        <is>
+          <t>20/10/2023 14:51</t>
+        </is>
+      </c>
+      <c r="V105" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swit-skolwin/6okYJbcM/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V105"/>
+  <dimension ref="A1:V110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:03</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.79</v>
+        <v>3.37</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.6</v>
+        <v>4.42</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:19</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:03</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.37</v>
+        <v>2.79</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.42</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:19</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="I28" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.67</v>
+        <v>3.25</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:07</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>3.43</v>
+        <v>2.72</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>3.45</v>
+        <v>2.85</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.25</v>
+        <v>4.18</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:07</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.72</v>
+        <v>4.77</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.85</v>
+        <v>3.23</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-elana-torun/Ee0rR0na/</t>
         </is>
       </c>
     </row>
@@ -3149,7 +3149,7 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G30" t="n">
@@ -3157,14 +3157,14 @@
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>1.48</v>
+        <v>1.79</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
@@ -3172,7 +3172,7 @@
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.72</v>
+        <v>1.8</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3180,7 +3180,7 @@
         </is>
       </c>
       <c r="N30" t="n">
-        <v>4.18</v>
+        <v>3.67</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
@@ -3188,7 +3188,7 @@
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.8</v>
+        <v>3.83</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="R30" t="n">
-        <v>4.77</v>
+        <v>3.43</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
@@ -3204,7 +3204,7 @@
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.23</v>
+        <v>3.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
@@ -3213,7 +3213,7 @@
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-elana-torun/Ee0rR0na/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Luzino</t>
+        </is>
+      </c>
+      <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>Pogon Szczecin II</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
-        <v>5</v>
-      </c>
       <c r="J31" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.95</v>
+        <v>1.28</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.2</v>
+        <v>6.33</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.4</v>
+        <v>5.76</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.22</v>
+        <v>7.73</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.9</v>
+        <v>6.55</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.2</v>
+        <v>2.62</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.28</v>
+        <v>2.64</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>6.33</v>
+        <v>3.11</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>5.76</v>
+        <v>3.56</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>7.73</v>
+        <v>2.26</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>6.55</v>
+        <v>2.25</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J33" t="n">
-        <v>1.76</v>
+        <v>2.6</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.34</v>
+        <v>2.22</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.68</v>
+        <v>2.9</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.62</v>
+        <v>1.21</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.64</v>
+        <v>1.31</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.11</v>
+        <v>5.94</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.56</v>
+        <v>6.41</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.26</v>
+        <v>8.15</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.25</v>
+        <v>5.43</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
         </is>
       </c>
     </row>
@@ -3609,7 +3609,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G35" t="n">
@@ -3617,63 +3617,63 @@
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.21</v>
+        <v>1.76</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.31</v>
+        <v>1.74</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>5.94</v>
+        <v>3.54</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>6.41</v>
+        <v>3.85</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>8.15</v>
+        <v>3.34</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>5.43</v>
+        <v>3.68</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.32</v>
+        <v>1.89</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.81</v>
+        <v>2.94</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-swit-skolwin/2c8mWnUe/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-blekitni-stargard/jJlrhUjF/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>1.89</v>
+        <v>3.32</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.05</v>
+        <v>1.83</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.94</v>
+        <v>1.81</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-blekitni-stargard/jJlrhUjF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-swit-skolwin/2c8mWnUe/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.84</v>
+        <v>2.53</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.58</v>
+        <v>3.26</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.35</v>
+        <v>2.56</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.73</v>
+        <v>2.44</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="L75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M75" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N75" t="n">
         <v>3.36</v>
       </c>
-      <c r="M75" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:53</t>
-        </is>
-      </c>
-      <c r="N75" t="n">
-        <v>3.45</v>
-      </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R75" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S75" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T75" t="n">
         <v>2.39</v>
       </c>
-      <c r="S75" t="inlineStr">
-        <is>
-          <t>22/09/2023 05:53</t>
-        </is>
-      </c>
-      <c r="T75" t="n">
-        <v>1.86</v>
-      </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G76" t="n">
+        <v>1</v>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Kleczew</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="H76" t="inlineStr">
-        <is>
-          <t>Blekitni Stargard</t>
-        </is>
-      </c>
-      <c r="I76" t="n">
-        <v>6</v>
-      </c>
       <c r="J76" t="n">
-        <v>2.23</v>
+        <v>1.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.53</v>
+        <v>1.84</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.26</v>
+        <v>3.58</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.44</v>
+        <v>3.73</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.3</v>
+        <v>3.36</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.88</v>
+        <v>3.69</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.69</v>
+        <v>2.39</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.39</v>
+        <v>1.86</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.28</v>
+        <v>2.03</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.74</v>
+        <v>3.53</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>5.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:10</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>5.77</v>
+        <v>2.91</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>7.09</v>
+        <v>2.95</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.92</v>
+        <v>1.3</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.03</v>
+        <v>1.28</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.53</v>
+        <v>4.74</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.65</v>
+        <v>5.32</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:10</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.91</v>
+        <v>5.77</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.95</v>
+        <v>7.09</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.95</v>
+        <v>3.77</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.14</v>
+        <v>5.7</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-zawisza/zRxc3ieo/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swit-skolwin/jyCLMud6/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>3.77</v>
+        <v>2.95</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>5.7</v>
+        <v>3.14</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.64</v>
+        <v>3.51</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swit-skolwin/jyCLMud6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-zawisza/zRxc3ieo/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.96</v>
+        <v>3.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,32 +8800,32 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4.38</v>
+        <v>3.94</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
+          <t>07/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
           <t>07/10/2023 12:57</t>
         </is>
       </c>
-      <c r="R91" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>06/10/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T91" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>07/10/2023 12:57</t>
-        </is>
-      </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.6</v>
+        <v>3.96</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.94</v>
+        <v>4.38</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:57</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.52</v>
+        <v>4.11</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
         </is>
       </c>
     </row>
@@ -10114,6 +10114,466 @@
       <c r="V105" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swit-skolwin/6okYJbcM/</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45220.5</v>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="G106" t="n">
+        <v>1</v>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Sroda</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>3</v>
+      </c>
+      <c r="J106" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K106" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="L106" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="M106" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:52</t>
+        </is>
+      </c>
+      <c r="N106" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P106" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q106" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:52</t>
+        </is>
+      </c>
+      <c r="R106" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S106" t="inlineStr">
+        <is>
+          <t>19/10/2023 23:13</t>
+        </is>
+      </c>
+      <c r="T106" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="U106" t="inlineStr">
+        <is>
+          <t>21/10/2023 11:51</t>
+        </is>
+      </c>
+      <c r="V106" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-polonia-sroda-wielkopol/lAvwJICS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45220.54166666666</v>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Unia Swarzedz</t>
+        </is>
+      </c>
+      <c r="G107" t="n">
+        <v>1</v>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Solec Kujawski</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>0</v>
+      </c>
+      <c r="J107" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="K107" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L107" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M107" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N107" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P107" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="Q107" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R107" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="S107" t="inlineStr">
+        <is>
+          <t>20/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T107" t="n">
+        <v>6.74</v>
+      </c>
+      <c r="U107" t="inlineStr">
+        <is>
+          <t>21/10/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V107" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-unia-solec-kujawski/O2gDOMri/</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="G108" t="n">
+        <v>0</v>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Gedania Gdansk</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K108" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L108" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M108" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="N108" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P108" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q108" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="R108" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="S108" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T108" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U108" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:42</t>
+        </is>
+      </c>
+      <c r="V108" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-gedania-gdansk/hroUKvrG/</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45220.58333333334</v>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Zawisza</t>
+        </is>
+      </c>
+      <c r="G109" t="n">
+        <v>2</v>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>2</v>
+      </c>
+      <c r="J109" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="K109" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L109" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="M109" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:10</t>
+        </is>
+      </c>
+      <c r="N109" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P109" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="Q109" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:10</t>
+        </is>
+      </c>
+      <c r="R109" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="S109" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T109" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="U109" t="inlineStr">
+        <is>
+          <t>21/10/2023 13:10</t>
+        </is>
+      </c>
+      <c r="V109" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-vineta-wolin/jJQ4ExLq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45220.625</v>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Starogard Gdanski</t>
+        </is>
+      </c>
+      <c r="G110" t="n">
+        <v>0</v>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Notec Czarnkow</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>4</v>
+      </c>
+      <c r="J110" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="K110" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L110" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="M110" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="N110" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P110" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="Q110" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="R110" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S110" t="inlineStr">
+        <is>
+          <t>20/10/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T110" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="U110" t="inlineStr">
+        <is>
+          <t>21/10/2023 14:10</t>
+        </is>
+      </c>
+      <c r="V110" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-notec-czarnkow/bLoQLKS9/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V110"/>
+  <dimension ref="A1:V111"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.34</v>
+        <v>3.88</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.56</v>
+        <v>2.69</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J75" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.88</v>
+        <v>3.34</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
         </is>
       </c>
     </row>
@@ -7381,46 +7381,46 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>1.75</v>
+        <v>2.37</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.84</v>
+        <v>3.36</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.41</v>
+        <v>3.69</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
@@ -7428,24 +7428,24 @@
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.35</v>
+        <v>2.39</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.73</v>
+        <v>1.86</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.37</v>
+        <v>1.75</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>3.36</v>
+        <v>1.84</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
+          <t>23/09/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P77" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q77" t="inlineStr">
+        <is>
           <t>23/09/2023 15:53</t>
         </is>
       </c>
-      <c r="N77" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O77" t="inlineStr">
-        <is>
-          <t>22/09/2023 05:53</t>
-        </is>
-      </c>
-      <c r="P77" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q77" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:53</t>
-        </is>
-      </c>
       <c r="R77" t="n">
-        <v>2.39</v>
+        <v>3.35</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>1.86</v>
+        <v>3.73</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.12</v>
+        <v>2.53</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.95</v>
+        <v>2.57</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-cartusia-kartuzy/8bsr9MR6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-nowe-skalmierzyce/MsuWBOsl/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.53</v>
+        <v>2.12</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.57</v>
+        <v>2.95</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.39</v>
+        <v>2.73</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-nowe-skalmierzyce/MsuWBOsl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-cartusia-kartuzy/8bsr9MR6/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>3.77</v>
+        <v>2.95</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>5.7</v>
+        <v>3.14</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.64</v>
+        <v>3.51</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swit-skolwin/jyCLMud6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-zawisza/zRxc3ieo/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.95</v>
+        <v>3.77</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>3.14</v>
+        <v>5.7</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-zawisza/zRxc3ieo/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swit-skolwin/jyCLMud6/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.54</v>
+        <v>2.86</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.56</v>
+        <v>3.6</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.99</v>
+        <v>3.57</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.98</v>
+        <v>1.93</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.32</v>
+        <v>1.85</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.86</v>
+        <v>1.54</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.6</v>
+        <v>1.56</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.57</v>
+        <v>3.99</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.93</v>
+        <v>3.98</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.85</v>
+        <v>4.32</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.6</v>
+        <v>3.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.94</v>
+        <v>4.38</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:57</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.52</v>
+        <v>4.11</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.6</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,32 +8892,32 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4.38</v>
+        <v>3.94</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
+          <t>07/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
           <t>07/10/2023 12:57</t>
         </is>
       </c>
-      <c r="R92" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>06/10/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>07/10/2023 12:57</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.75</v>
+        <v>3.06</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.82</v>
+        <v>4.52</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.8</v>
+        <v>3.77</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>3</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Elana Torun</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
       <c r="J95" t="n">
-        <v>3.06</v>
+        <v>2.75</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>4.52</v>
+        <v>3.82</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.77</v>
+        <v>3.8</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>4.48</v>
+        <v>2.69</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>5.93</v>
+        <v>2.16</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.42</v>
+        <v>3.28</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.41</v>
+        <v>2.97</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.69</v>
+        <v>4.48</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.16</v>
+        <v>5.93</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.23</v>
+        <v>3.92</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.28</v>
+        <v>4.42</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.93</v>
+        <v>1.63</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.78</v>
+        <v>3.86</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.85</v>
+        <v>3.71</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.92</v>
+        <v>3.63</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-gedania-gdansk/hroUKvrG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-vineta-wolin/jJQ4ExLq/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1.63</v>
+        <v>1.93</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.71</v>
+        <v>2.85</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.63</v>
+        <v>2.92</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-vineta-wolin/jJQ4ExLq/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-gedania-gdansk/hroUKvrG/</t>
         </is>
       </c>
     </row>
@@ -10574,6 +10574,98 @@
       <c r="V110" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-notec-czarnkow/bLoQLKS9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45221.5</v>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin II</t>
+        </is>
+      </c>
+      <c r="G111" t="n">
+        <v>5</v>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Luzino</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>1</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="K111" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="L111" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="M111" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:40</t>
+        </is>
+      </c>
+      <c r="N111" t="n">
+        <v>5.26</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="P111" t="n">
+        <v>6.08</v>
+      </c>
+      <c r="Q111" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:40</t>
+        </is>
+      </c>
+      <c r="R111" t="n">
+        <v>6.28</v>
+      </c>
+      <c r="S111" t="inlineStr">
+        <is>
+          <t>20/10/2023 23:12</t>
+        </is>
+      </c>
+      <c r="T111" t="n">
+        <v>7.98</v>
+      </c>
+      <c r="U111" t="inlineStr">
+        <is>
+          <t>22/10/2023 11:40</t>
+        </is>
+      </c>
+      <c r="V111" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-luzino/KUnMM0D3/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V111"/>
+  <dimension ref="A1:V121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:59</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.86</v>
+        <v>3.49</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:47</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.39</v>
+        <v>2.91</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.96</v>
+        <v>2.61</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:59</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-gedania-gdansk/Momsb2IC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swinoujscie/bqdM2Q3s/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J11" t="n">
-        <v>2.09</v>
+        <v>1.58</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.3</v>
+        <v>1.41</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:59</t>
+          <t>11/08/2023 17:48</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>4.12</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.49</v>
+        <v>4.57</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:47</t>
+          <t>11/08/2023 17:48</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.91</v>
+        <v>4.33</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.61</v>
+        <v>5.56</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:59</t>
+          <t>11/08/2023 17:48</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swinoujscie/bqdM2Q3s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-notec-czarnkow/SOmwar36/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>1.58</v>
+        <v>1.74</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.41</v>
+        <v>1.67</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>11/08/2023 17:48</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4.12</v>
+        <v>3.6</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>4.57</v>
+        <v>3.86</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>11/08/2023 17:48</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>4.33</v>
+        <v>3.39</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>5.56</v>
+        <v>3.96</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>11/08/2023 17:48</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-notec-czarnkow/SOmwar36/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-gedania-gdansk/Momsb2IC/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 14:32</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.64</v>
+        <v>3.41</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.66</v>
+        <v>3.67</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19/08/2023 14:32</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.41</v>
+        <v>2.64</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.67</v>
+        <v>2.66</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.2</v>
+        <v>2.62</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.28</v>
+        <v>2.64</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>6.33</v>
+        <v>3.11</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.76</v>
+        <v>3.56</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>7.73</v>
+        <v>2.26</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>6.55</v>
+        <v>2.25</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>2.62</v>
+        <v>1.76</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.64</v>
+        <v>1.74</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.11</v>
+        <v>3.54</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.56</v>
+        <v>3.85</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.26</v>
+        <v>3.34</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.25</v>
+        <v>3.68</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G33" t="n">
+        <v>2</v>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Swinoujscie</t>
+        </is>
+      </c>
+      <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>Pogon Szczecin II</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
-        <v>5</v>
-      </c>
       <c r="J33" t="n">
-        <v>2.6</v>
+        <v>1.21</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.95</v>
+        <v>1.31</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.2</v>
+        <v>5.94</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.4</v>
+        <v>6.41</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.22</v>
+        <v>8.15</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.9</v>
+        <v>5.43</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
         </is>
       </c>
     </row>
@@ -3517,22 +3517,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>5.94</v>
+        <v>6.33</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>6.41</v>
+        <v>5.76</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>8.15</v>
+        <v>7.73</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>5.43</v>
+        <v>6.55</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J35" t="n">
-        <v>1.76</v>
+        <v>2.6</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.74</v>
+        <v>1.95</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.54</v>
+        <v>3.2</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.85</v>
+        <v>3.4</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.34</v>
+        <v>2.22</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.68</v>
+        <v>2.9</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.89</v>
+        <v>3.32</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.05</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.94</v>
+        <v>1.81</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-blekitni-stargard/jJlrhUjF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-swit-skolwin/2c8mWnUe/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.32</v>
+        <v>1.89</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.81</v>
+        <v>2.94</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-swit-skolwin/2c8mWnUe/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-blekitni-stargard/jJlrhUjF/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.88</v>
+        <v>3.34</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.34</v>
+        <v>3.88</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.56</v>
+        <v>2.69</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.37</v>
+        <v>1.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3.36</v>
+        <v>1.84</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>23/09/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>23/09/2023 15:53</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>22/09/2023 05:53</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:53</t>
-        </is>
-      </c>
       <c r="R76" t="n">
-        <v>2.39</v>
+        <v>3.35</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.86</v>
+        <v>3.73</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
         </is>
       </c>
     </row>
@@ -7473,46 +7473,46 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.75</v>
+        <v>2.37</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.84</v>
+        <v>3.36</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.41</v>
+        <v>3.69</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,24 +7520,24 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.35</v>
+        <v>2.39</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.73</v>
+        <v>1.86</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.86</v>
+        <v>1.54</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.6</v>
+        <v>1.56</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.57</v>
+        <v>3.99</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.93</v>
+        <v>3.98</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.85</v>
+        <v>4.32</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.54</v>
+        <v>2.86</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.56</v>
+        <v>3.6</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.99</v>
+        <v>3.57</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.98</v>
+        <v>1.93</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.32</v>
+        <v>1.85</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.96</v>
+        <v>3.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,32 +8800,32 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4.38</v>
+        <v>3.94</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
+          <t>07/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
           <t>07/10/2023 12:57</t>
         </is>
       </c>
-      <c r="R91" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>06/10/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T91" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>07/10/2023 12:57</t>
-        </is>
-      </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.6</v>
+        <v>3.96</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.94</v>
+        <v>4.38</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:57</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.52</v>
+        <v>4.11</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>3</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Elana Torun</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>3.06</v>
+        <v>2.75</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>4.52</v>
+        <v>3.82</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.77</v>
+        <v>3.8</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.75</v>
+        <v>3.06</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.82</v>
+        <v>4.52</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.8</v>
+        <v>3.77</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.69</v>
+        <v>4.48</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.16</v>
+        <v>5.93</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.23</v>
+        <v>3.92</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.28</v>
+        <v>4.42</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>4.48</v>
+        <v>2.69</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>5.93</v>
+        <v>2.16</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.42</v>
+        <v>3.28</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.41</v>
+        <v>2.97</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.63</v>
+        <v>1.93</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.71</v>
+        <v>2.85</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.63</v>
+        <v>2.92</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-vineta-wolin/jJQ4ExLq/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-gedania-gdansk/hroUKvrG/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1.93</v>
+        <v>1.63</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.78</v>
+        <v>3.86</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.85</v>
+        <v>3.71</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.92</v>
+        <v>3.63</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-gedania-gdansk/hroUKvrG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-vineta-wolin/jJQ4ExLq/</t>
         </is>
       </c>
     </row>
@@ -10666,6 +10666,926 @@
       <c r="V111" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-luzino/KUnMM0D3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45227.5</v>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Gedania Gdansk</t>
+        </is>
+      </c>
+      <c r="G112" t="n">
+        <v>0</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>1</v>
+      </c>
+      <c r="J112" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="K112" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L112" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M112" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="N112" t="n">
+        <v>4.34</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P112" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="Q112" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="R112" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="S112" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T112" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="U112" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:57</t>
+        </is>
+      </c>
+      <c r="V112" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-stolem-gniewino/vgMbzKs3/</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E113" s="2" t="n">
+        <v>45227.5</v>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Swit Skolwin</t>
+        </is>
+      </c>
+      <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
+        <v>0</v>
+      </c>
+      <c r="J113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="K113" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L113" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="M113" t="inlineStr">
+        <is>
+          <t>28/10/2023 00:08</t>
+        </is>
+      </c>
+      <c r="N113" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="O113" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P113" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q113" t="inlineStr">
+        <is>
+          <t>28/10/2023 10:01</t>
+        </is>
+      </c>
+      <c r="R113" t="n">
+        <v>4.74</v>
+      </c>
+      <c r="S113" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T113" t="n">
+        <v>5.04</v>
+      </c>
+      <c r="U113" t="inlineStr">
+        <is>
+          <t>28/10/2023 06:04</t>
+        </is>
+      </c>
+      <c r="V113" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-blekitni-stargard/QkIfy0Sd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E114" s="2" t="n">
+        <v>45227.5</v>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Solec Kujawski</t>
+        </is>
+      </c>
+      <c r="G114" t="n">
+        <v>1</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Cartusia Kartuzy</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
+        <v>6</v>
+      </c>
+      <c r="J114" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K114" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L114" t="n">
+        <v>4.32</v>
+      </c>
+      <c r="M114" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="N114" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O114" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P114" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q114" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="R114" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="S114" t="inlineStr">
+        <is>
+          <t>27/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T114" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U114" t="inlineStr">
+        <is>
+          <t>28/10/2023 11:59</t>
+        </is>
+      </c>
+      <c r="V114" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-cartusia-kartuzy/8YDFWysS/</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E115" s="2" t="n">
+        <v>45227.54166666666</v>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>Swinoujscie</t>
+        </is>
+      </c>
+      <c r="G115" t="n">
+        <v>2</v>
+      </c>
+      <c r="H115" t="inlineStr">
+        <is>
+          <t>Unia Swarzedz</t>
+        </is>
+      </c>
+      <c r="I115" t="n">
+        <v>4</v>
+      </c>
+      <c r="J115" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K115" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L115" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="M115" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N115" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="O115" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P115" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="Q115" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:36</t>
+        </is>
+      </c>
+      <c r="R115" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S115" t="inlineStr">
+        <is>
+          <t>27/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T115" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="U115" t="inlineStr">
+        <is>
+          <t>28/10/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V115" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-unia-swarzedz/QD0sSekq/</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Elana Torun</t>
+        </is>
+      </c>
+      <c r="G116" t="n">
+        <v>1</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin II</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>0</v>
+      </c>
+      <c r="J116" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="K116" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L116" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="M116" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="N116" t="n">
+        <v>3.26</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P116" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q116" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="R116" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="S116" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T116" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="U116" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:51</t>
+        </is>
+      </c>
+      <c r="V116" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-pogon-szczecin/UsFBXHRL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Kleczew</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>2</v>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="K117" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M117" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="N117" t="n">
+        <v>3.36</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P117" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q117" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="R117" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="S117" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T117" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="U117" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:55</t>
+        </is>
+      </c>
+      <c r="V117" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-vineta-wolin/pfu8Ddzj/</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45227.58333333334</v>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Notec Czarnkow</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>1</v>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K118" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L118" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="M118" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="N118" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P118" t="n">
+        <v>4.77</v>
+      </c>
+      <c r="Q118" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="R118" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="S118" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T118" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="U118" t="inlineStr">
+        <is>
+          <t>28/10/2023 13:58</t>
+        </is>
+      </c>
+      <c r="V118" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-nowe-skalmierzyce/YFL2Zwc9/</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45227.60416666666</v>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Luzino</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>3</v>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Starogard Gdanski</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="K119" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="L119" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="M119" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:20</t>
+        </is>
+      </c>
+      <c r="N119" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="P119" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="Q119" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:20</t>
+        </is>
+      </c>
+      <c r="R119" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="S119" t="inlineStr">
+        <is>
+          <t>27/10/2023 02:42</t>
+        </is>
+      </c>
+      <c r="T119" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="U119" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:20</t>
+        </is>
+      </c>
+      <c r="V119" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-starogard-gdanski/C6K6YcCF/</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45227.625</v>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>Sroda</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Zawisza</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>2</v>
+      </c>
+      <c r="J120" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="K120" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="L120" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="M120" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="N120" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="P120" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q120" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="R120" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="S120" t="inlineStr">
+        <is>
+          <t>27/10/2023 03:12</t>
+        </is>
+      </c>
+      <c r="T120" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="U120" t="inlineStr">
+        <is>
+          <t>28/10/2023 14:56</t>
+        </is>
+      </c>
+      <c r="V120" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-zawisza/OpvCCGkd/</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E121" s="2" t="n">
+        <v>45230.5625</v>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>Cartusia Kartuzy</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>2</v>
+      </c>
+      <c r="H121" t="inlineStr">
+        <is>
+          <t>Elana Torun</t>
+        </is>
+      </c>
+      <c r="I121" t="n">
+        <v>2</v>
+      </c>
+      <c r="J121" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K121" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L121" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="M121" t="inlineStr">
+        <is>
+          <t>31/10/2023 13:08</t>
+        </is>
+      </c>
+      <c r="N121" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="O121" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P121" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Q121" t="inlineStr">
+        <is>
+          <t>31/10/2023 13:09</t>
+        </is>
+      </c>
+      <c r="R121" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="S121" t="inlineStr">
+        <is>
+          <t>20/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T121" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="U121" t="inlineStr">
+        <is>
+          <t>31/10/2023 13:08</t>
+        </is>
+      </c>
+      <c r="V121" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-elana-torun/2ghHNtbc/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V121"/>
+  <dimension ref="A1:V122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>2.09</v>
+        <v>1.74</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:59</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.49</v>
+        <v>3.86</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:47</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>2.91</v>
+        <v>3.39</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>2.61</v>
+        <v>3.96</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:59</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swinoujscie/bqdM2Q3s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-gedania-gdansk/Momsb2IC/</t>
         </is>
       </c>
     </row>
@@ -1401,22 +1401,22 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.58</v>
+        <v>2.09</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
@@ -1424,15 +1424,15 @@
         </is>
       </c>
       <c r="L11" t="n">
-        <v>1.41</v>
+        <v>2.3</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:48</t>
+          <t>11/08/2023 17:59</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>4.12</v>
+        <v>3.55</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
@@ -1440,15 +1440,15 @@
         </is>
       </c>
       <c r="P11" t="n">
-        <v>4.57</v>
+        <v>3.49</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:48</t>
+          <t>11/08/2023 17:47</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>4.33</v>
+        <v>2.91</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
@@ -1456,16 +1456,16 @@
         </is>
       </c>
       <c r="T11" t="n">
-        <v>5.56</v>
+        <v>2.61</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:48</t>
+          <t>11/08/2023 17:59</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-notec-czarnkow/SOmwar36/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swinoujscie/bqdM2Q3s/</t>
         </is>
       </c>
     </row>
@@ -1493,71 +1493,71 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>1.74</v>
+        <v>1.58</v>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>1.67</v>
+        <v>1.41</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:48</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>3.6</v>
+        <v>4.12</v>
       </c>
       <c r="O12" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="P12" t="n">
-        <v>3.86</v>
+        <v>4.57</v>
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:48</t>
         </is>
       </c>
       <c r="R12" t="n">
-        <v>3.39</v>
+        <v>4.33</v>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="T12" t="n">
-        <v>3.96</v>
+        <v>5.56</v>
       </c>
       <c r="U12" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:48</t>
         </is>
       </c>
       <c r="V12" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-gedania-gdansk/Momsb2IC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-notec-czarnkow/SOmwar36/</t>
         </is>
       </c>
     </row>
@@ -2965,71 +2965,71 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="G28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I28" t="n">
         <v>3</v>
       </c>
       <c r="J28" t="n">
-        <v>2.12</v>
+        <v>1.48</v>
       </c>
       <c r="K28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L28" t="n">
-        <v>1.98</v>
+        <v>1.72</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="N28" t="n">
-        <v>3.25</v>
+        <v>4.18</v>
       </c>
       <c r="O28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P28" t="n">
-        <v>4</v>
+        <v>3.8</v>
       </c>
       <c r="Q28" t="inlineStr">
         <is>
-          <t>23/08/2023 17:07</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="R28" t="n">
-        <v>2.72</v>
+        <v>4.77</v>
       </c>
       <c r="S28" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T28" t="n">
-        <v>2.85</v>
+        <v>3.23</v>
       </c>
       <c r="U28" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="V28" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-elana-torun/Ee0rR0na/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="I29" t="n">
         <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.48</v>
+        <v>2.12</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.72</v>
+        <v>1.98</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>4.18</v>
+        <v>3.25</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.8</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:07</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>4.77</v>
+        <v>2.72</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.23</v>
+        <v>2.85</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-elana-torun/Ee0rR0na/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
         </is>
       </c>
     </row>
@@ -3241,71 +3241,71 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>2.62</v>
+        <v>1.21</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L31" t="n">
-        <v>2.64</v>
+        <v>1.31</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>3.11</v>
+        <v>5.94</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P31" t="n">
-        <v>3.56</v>
+        <v>6.41</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>2.26</v>
+        <v>8.15</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T31" t="n">
-        <v>2.25</v>
+        <v>5.43</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>5.94</v>
+        <v>6.33</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>6.41</v>
+        <v>5.76</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>8.15</v>
+        <v>7.73</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>5.43</v>
+        <v>6.55</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
         </is>
       </c>
     </row>
@@ -3517,71 +3517,71 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1.2</v>
+        <v>2.62</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.28</v>
+        <v>2.64</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>6.33</v>
+        <v>3.11</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P34" t="n">
-        <v>5.76</v>
+        <v>3.56</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>7.73</v>
+        <v>2.26</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T34" t="n">
-        <v>6.55</v>
+        <v>2.25</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J61" t="n">
-        <v>1.56</v>
+        <v>1.96</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>15/09/2023 16:04</t>
+          <t>15/09/2023 16:57</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.81</v>
+        <v>3.43</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>4.13</v>
+        <v>3.84</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>15/09/2023 16:49</t>
+          <t>15/09/2023 16:57</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>4.17</v>
+        <v>2.97</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>4.76</v>
+        <v>3.72</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>15/09/2023 16:49</t>
+          <t>15/09/2023 16:57</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-swarzedz/SKcRspT7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-unia-solec-kujawski/fRkD5mLE/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J62" t="n">
-        <v>1.96</v>
+        <v>1.56</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>15/09/2023 16:57</t>
+          <t>15/09/2023 16:04</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.43</v>
+        <v>3.81</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>3.84</v>
+        <v>4.13</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>15/09/2023 16:57</t>
+          <t>15/09/2023 16:49</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>2.97</v>
+        <v>4.17</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>3.72</v>
+        <v>4.76</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>15/09/2023 16:57</t>
+          <t>15/09/2023 16:49</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-unia-solec-kujawski/fRkD5mLE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-swarzedz/SKcRspT7/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I63" t="n">
         <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>2.73</v>
+        <v>1.75</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>14/09/2023 23:24</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>2.51</v>
+        <v>1.95</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>16/09/2023 11:08</t>
+          <t>15/09/2023 10:19</t>
         </is>
       </c>
       <c r="N63" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>14/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P63" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q63" t="inlineStr">
+        <is>
+          <t>16/09/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R63" t="n">
         <v>3.3</v>
       </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:24</t>
-        </is>
-      </c>
-      <c r="P63" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>16/09/2023 11:05</t>
-        </is>
-      </c>
-      <c r="R63" t="n">
-        <v>2.13</v>
-      </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>14/09/2023 23:24</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.27</v>
+        <v>2.93</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>16/09/2023 11:08</t>
+          <t>15/09/2023 10:19</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-pogon-szczecin/659Iq6be/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-swinoujscie/Gzi96T58/</t>
         </is>
       </c>
     </row>
@@ -6277,7 +6277,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G64" t="n">
@@ -6285,63 +6285,63 @@
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>4.76</v>
+        <v>2.73</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>14/09/2023 23:24</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>4.34</v>
+        <v>2.51</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:08</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>4.63</v>
+        <v>3.3</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>14/09/2023 23:24</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>4.35</v>
+        <v>3.76</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:05</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>1.45</v>
+        <v>2.13</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>14/09/2023 23:24</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>1.55</v>
+        <v>2.27</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:08</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-elana-torun/xjuI47zL/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-pogon-szczecin/659Iq6be/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J65" t="n">
-        <v>1.75</v>
+        <v>4.76</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>1.95</v>
+        <v>4.34</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>15/09/2023 10:19</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>3.64</v>
+        <v>4.63</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16/09/2023 10:05</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.93</v>
+        <v>1.55</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>15/09/2023 10:19</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-swinoujscie/Gzi96T58/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-elana-torun/xjuI47zL/</t>
         </is>
       </c>
     </row>
@@ -11586,6 +11586,98 @@
       <c r="V121" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-elana-torun/2ghHNtbc/</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E122" s="2" t="n">
+        <v>45233.58333333334</v>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin II</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
+        <v>2</v>
+      </c>
+      <c r="H122" t="inlineStr">
+        <is>
+          <t>Solec Kujawski</t>
+        </is>
+      </c>
+      <c r="I122" t="n">
+        <v>1</v>
+      </c>
+      <c r="J122" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="K122" t="inlineStr">
+        <is>
+          <t>02/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L122" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="M122" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:50</t>
+        </is>
+      </c>
+      <c r="N122" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="O122" t="inlineStr">
+        <is>
+          <t>02/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P122" t="n">
+        <v>4.92</v>
+      </c>
+      <c r="Q122" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="R122" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="S122" t="inlineStr">
+        <is>
+          <t>02/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T122" t="n">
+        <v>5.44</v>
+      </c>
+      <c r="U122" t="inlineStr">
+        <is>
+          <t>03/11/2023 13:56</t>
+        </is>
+      </c>
+      <c r="V122" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-unia-solec-kujawski/b3hfPgZ1/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V122"/>
+  <dimension ref="A1:V128"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 14:32</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.41</v>
+        <v>2.64</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.67</v>
+        <v>2.66</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 14:32</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.64</v>
+        <v>3.41</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.66</v>
+        <v>3.67</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.25</v>
+        <v>3.67</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:07</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.72</v>
+        <v>3.43</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.67</v>
+        <v>3.25</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:07</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.43</v>
+        <v>2.72</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.45</v>
+        <v>2.85</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.21</v>
+        <v>1.2</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.31</v>
+        <v>1.28</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>5.94</v>
+        <v>6.33</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>6.41</v>
+        <v>5.76</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>8.15</v>
+        <v>7.73</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>5.43</v>
+        <v>6.55</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
         </is>
       </c>
     </row>
@@ -3333,22 +3333,22 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>1.76</v>
+        <v>2.62</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
@@ -3356,15 +3356,15 @@
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.74</v>
+        <v>2.64</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.54</v>
+        <v>3.11</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
@@ -3372,15 +3372,15 @@
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.85</v>
+        <v>3.56</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>3.34</v>
+        <v>2.26</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
@@ -3388,16 +3388,16 @@
         </is>
       </c>
       <c r="T32" t="n">
-        <v>3.68</v>
+        <v>2.25</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>6.33</v>
+        <v>5.94</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>5.76</v>
+        <v>6.41</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>7.73</v>
+        <v>8.15</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>6.55</v>
+        <v>5.43</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.64</v>
+        <v>1.95</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
         </is>
       </c>
     </row>
@@ -3609,22 +3609,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>2.6</v>
+        <v>1.76</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
@@ -3632,15 +3632,15 @@
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.95</v>
+        <v>1.74</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.2</v>
+        <v>3.54</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
@@ -3648,15 +3648,15 @@
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.4</v>
+        <v>3.85</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>2.22</v>
+        <v>3.34</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
@@ -3664,16 +3664,16 @@
         </is>
       </c>
       <c r="T35" t="n">
-        <v>2.9</v>
+        <v>3.68</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
         </is>
       </c>
     </row>
@@ -6001,22 +6001,22 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H61" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="I61" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J61" t="n">
-        <v>1.96</v>
+        <v>1.56</v>
       </c>
       <c r="K61" t="inlineStr">
         <is>
@@ -6024,15 +6024,15 @@
         </is>
       </c>
       <c r="L61" t="n">
-        <v>1.69</v>
+        <v>1.53</v>
       </c>
       <c r="M61" t="inlineStr">
         <is>
-          <t>15/09/2023 16:57</t>
+          <t>15/09/2023 16:04</t>
         </is>
       </c>
       <c r="N61" t="n">
-        <v>3.43</v>
+        <v>3.81</v>
       </c>
       <c r="O61" t="inlineStr">
         <is>
@@ -6040,15 +6040,15 @@
         </is>
       </c>
       <c r="P61" t="n">
-        <v>3.84</v>
+        <v>4.13</v>
       </c>
       <c r="Q61" t="inlineStr">
         <is>
-          <t>15/09/2023 16:57</t>
+          <t>15/09/2023 16:49</t>
         </is>
       </c>
       <c r="R61" t="n">
-        <v>2.97</v>
+        <v>4.17</v>
       </c>
       <c r="S61" t="inlineStr">
         <is>
@@ -6056,16 +6056,16 @@
         </is>
       </c>
       <c r="T61" t="n">
-        <v>3.72</v>
+        <v>4.76</v>
       </c>
       <c r="U61" t="inlineStr">
         <is>
-          <t>15/09/2023 16:57</t>
+          <t>15/09/2023 16:49</t>
         </is>
       </c>
       <c r="V61" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-unia-solec-kujawski/fRkD5mLE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-swarzedz/SKcRspT7/</t>
         </is>
       </c>
     </row>
@@ -6093,22 +6093,22 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="G62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H62" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I62" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J62" t="n">
-        <v>1.56</v>
+        <v>1.96</v>
       </c>
       <c r="K62" t="inlineStr">
         <is>
@@ -6116,15 +6116,15 @@
         </is>
       </c>
       <c r="L62" t="n">
-        <v>1.53</v>
+        <v>1.69</v>
       </c>
       <c r="M62" t="inlineStr">
         <is>
-          <t>15/09/2023 16:04</t>
+          <t>15/09/2023 16:57</t>
         </is>
       </c>
       <c r="N62" t="n">
-        <v>3.81</v>
+        <v>3.43</v>
       </c>
       <c r="O62" t="inlineStr">
         <is>
@@ -6132,15 +6132,15 @@
         </is>
       </c>
       <c r="P62" t="n">
-        <v>4.13</v>
+        <v>3.84</v>
       </c>
       <c r="Q62" t="inlineStr">
         <is>
-          <t>15/09/2023 16:49</t>
+          <t>15/09/2023 16:57</t>
         </is>
       </c>
       <c r="R62" t="n">
-        <v>4.17</v>
+        <v>2.97</v>
       </c>
       <c r="S62" t="inlineStr">
         <is>
@@ -6148,16 +6148,16 @@
         </is>
       </c>
       <c r="T62" t="n">
-        <v>4.76</v>
+        <v>3.72</v>
       </c>
       <c r="U62" t="inlineStr">
         <is>
-          <t>15/09/2023 16:49</t>
+          <t>15/09/2023 16:57</t>
         </is>
       </c>
       <c r="V62" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-swarzedz/SKcRspT7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-unia-solec-kujawski/fRkD5mLE/</t>
         </is>
       </c>
     </row>
@@ -6185,71 +6185,71 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J63" t="n">
-        <v>1.75</v>
+        <v>4.76</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>1.95</v>
+        <v>4.34</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>15/09/2023 10:19</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>3.64</v>
+        <v>4.63</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>16/09/2023 10:05</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>2.93</v>
+        <v>1.55</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>15/09/2023 10:19</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-swinoujscie/Gzi96T58/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-elana-torun/xjuI47zL/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I64" t="n">
         <v>1</v>
       </c>
       <c r="J64" t="n">
-        <v>2.73</v>
+        <v>1.75</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/09/2023 23:24</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>2.51</v>
+        <v>1.95</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>16/09/2023 11:08</t>
+          <t>15/09/2023 10:19</t>
         </is>
       </c>
       <c r="N64" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>14/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P64" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q64" t="inlineStr">
+        <is>
+          <t>16/09/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R64" t="n">
         <v>3.3</v>
       </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:24</t>
-        </is>
-      </c>
-      <c r="P64" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>16/09/2023 11:05</t>
-        </is>
-      </c>
-      <c r="R64" t="n">
-        <v>2.13</v>
-      </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/09/2023 23:24</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.27</v>
+        <v>2.93</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>16/09/2023 11:08</t>
+          <t>15/09/2023 10:19</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-pogon-szczecin/659Iq6be/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-swinoujscie/Gzi96T58/</t>
         </is>
       </c>
     </row>
@@ -6369,7 +6369,7 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G65" t="n">
@@ -6377,63 +6377,63 @@
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I65" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>4.76</v>
+        <v>2.73</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>14/09/2023 23:24</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>4.34</v>
+        <v>2.51</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:08</t>
         </is>
       </c>
       <c r="N65" t="n">
-        <v>4.63</v>
+        <v>3.3</v>
       </c>
       <c r="O65" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>14/09/2023 23:24</t>
         </is>
       </c>
       <c r="P65" t="n">
-        <v>4.35</v>
+        <v>3.76</v>
       </c>
       <c r="Q65" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:05</t>
         </is>
       </c>
       <c r="R65" t="n">
-        <v>1.45</v>
+        <v>2.13</v>
       </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>14/09/2023 23:24</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>1.55</v>
+        <v>2.27</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:08</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-elana-torun/xjuI47zL/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-pogon-szczecin/659Iq6be/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G74" t="n">
+        <v>1</v>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Kleczew</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="H74" t="inlineStr">
-        <is>
-          <t>Blekitni Stargard</t>
-        </is>
-      </c>
-      <c r="I74" t="n">
-        <v>6</v>
-      </c>
       <c r="J74" t="n">
-        <v>2.23</v>
+        <v>1.75</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.53</v>
+        <v>1.84</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.26</v>
+        <v>3.58</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.34</v>
+        <v>3.41</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.56</v>
+        <v>3.35</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.44</v>
+        <v>3.73</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I75" t="n">
         <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.1</v>
+        <v>2.37</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.3</v>
+        <v>3.36</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.36</v>
+        <v>3.45</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.88</v>
+        <v>3.69</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.69</v>
+        <v>2.39</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.39</v>
+        <v>1.86</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
         </is>
       </c>
     </row>
@@ -7381,22 +7381,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J76" t="n">
-        <v>1.75</v>
+        <v>2.23</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
@@ -7404,15 +7404,15 @@
         </is>
       </c>
       <c r="L76" t="n">
-        <v>1.84</v>
+        <v>2.53</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.58</v>
+        <v>3.26</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
@@ -7420,15 +7420,15 @@
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.41</v>
+        <v>3.34</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>3.35</v>
+        <v>2.56</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
@@ -7436,16 +7436,16 @@
         </is>
       </c>
       <c r="T76" t="n">
-        <v>3.73</v>
+        <v>2.44</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
         </is>
       </c>
     </row>
@@ -7473,71 +7473,71 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I77" t="n">
         <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>2.37</v>
+        <v>2.1</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="L77" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="M77" t="inlineStr">
+        <is>
+          <t>23/09/2023 15:43</t>
+        </is>
+      </c>
+      <c r="N77" t="n">
         <v>3.36</v>
       </c>
-      <c r="M77" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:53</t>
-        </is>
-      </c>
-      <c r="N77" t="n">
-        <v>3.45</v>
-      </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.69</v>
+        <v>3.88</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R77" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="S77" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="T77" t="n">
         <v>2.39</v>
       </c>
-      <c r="S77" t="inlineStr">
-        <is>
-          <t>22/09/2023 05:53</t>
-        </is>
-      </c>
-      <c r="T77" t="n">
-        <v>1.86</v>
-      </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J84" t="n">
-        <v>1.92</v>
+        <v>1.3</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>2.03</v>
+        <v>1.28</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>3.53</v>
+        <v>4.74</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>3.65</v>
+        <v>5.32</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:10</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>2.91</v>
+        <v>5.77</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>2.95</v>
+        <v>7.09</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J85" t="n">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>1.28</v>
+        <v>2.03</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>4.74</v>
+        <v>3.53</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>5.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:10</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>5.77</v>
+        <v>2.91</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>7.09</v>
+        <v>2.95</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.6</v>
+        <v>3.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.94</v>
+        <v>4.38</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:57</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.52</v>
+        <v>4.11</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.6</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,32 +8892,32 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4.38</v>
+        <v>3.94</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
+          <t>07/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
           <t>07/10/2023 12:57</t>
         </is>
       </c>
-      <c r="R92" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>06/10/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>07/10/2023 12:57</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>4.48</v>
+        <v>2.69</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>5.93</v>
+        <v>2.16</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.42</v>
+        <v>3.28</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.41</v>
+        <v>2.97</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.69</v>
+        <v>4.48</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.16</v>
+        <v>5.93</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.23</v>
+        <v>3.92</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.28</v>
+        <v>4.42</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.94</v>
+        <v>1.89</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.16</v>
+        <v>2.32</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.81</v>
+        <v>4.11</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:56</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>1.94</v>
+        <v>3.01</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
         <v>1.89</v>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:56</t>
-        </is>
-      </c>
-      <c r="R101" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>2.32</v>
-      </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:57</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.93</v>
+        <v>1.63</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.78</v>
+        <v>3.86</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>2.85</v>
+        <v>3.71</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>2.92</v>
+        <v>3.63</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-gedania-gdansk/hroUKvrG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-vineta-wolin/jJQ4ExLq/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1.63</v>
+        <v>1.93</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>3.71</v>
+        <v>2.85</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>3.63</v>
+        <v>2.92</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-vineta-wolin/jJQ4ExLq/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-gedania-gdansk/hroUKvrG/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Stolem Gniewino</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
       <c r="J112" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>28/10/2023 11:57</t>
+          <t>28/10/2023 00:08</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.34</v>
+        <v>4.06</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.95</v>
+        <v>4.09</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>28/10/2023 11:57</t>
+          <t>28/10/2023 10:01</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.5</v>
+        <v>4.74</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.78</v>
+        <v>5.04</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>28/10/2023 11:57</t>
+          <t>28/10/2023 06:04</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-stolem-gniewino/vgMbzKs3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-blekitni-stargard/QkIfy0Sd/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J113" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>28/10/2023 00:08</t>
+          <t>28/10/2023 11:57</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.06</v>
+        <v>4.34</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>4.09</v>
+        <v>3.95</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>28/10/2023 10:01</t>
+          <t>28/10/2023 11:57</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.74</v>
+        <v>4.5</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>5.04</v>
+        <v>3.78</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>28/10/2023 06:04</t>
+          <t>28/10/2023 11:57</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-blekitni-stargard/QkIfy0Sd/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-stolem-gniewino/vgMbzKs3/</t>
         </is>
       </c>
     </row>
@@ -11678,6 +11678,558 @@
       <c r="V122" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-unia-solec-kujawski/b3hfPgZ1/</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E123" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
+        <v>5</v>
+      </c>
+      <c r="H123" t="inlineStr">
+        <is>
+          <t>Luzino</t>
+        </is>
+      </c>
+      <c r="I123" t="n">
+        <v>2</v>
+      </c>
+      <c r="J123" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="K123" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L123" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="M123" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:09</t>
+        </is>
+      </c>
+      <c r="N123" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="O123" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P123" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Q123" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="R123" t="n">
+        <v>4.48</v>
+      </c>
+      <c r="S123" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T123" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="U123" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:12</t>
+        </is>
+      </c>
+      <c r="V123" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-luzino/Q9ptmcR8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E124" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="G124" t="n">
+        <v>2</v>
+      </c>
+      <c r="H124" t="inlineStr">
+        <is>
+          <t>Sroda</t>
+        </is>
+      </c>
+      <c r="I124" t="n">
+        <v>3</v>
+      </c>
+      <c r="J124" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="K124" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="L124" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="M124" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="N124" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="O124" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="P124" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="Q124" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="R124" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="S124" t="inlineStr">
+        <is>
+          <t>03/11/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T124" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="U124" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="V124" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-polonia-sroda-wielkopol/I7PKuFJr/</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E125" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>Unia Swarzedz</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>3</v>
+      </c>
+      <c r="H125" t="inlineStr">
+        <is>
+          <t>Kleczew</t>
+        </is>
+      </c>
+      <c r="I125" t="n">
+        <v>1</v>
+      </c>
+      <c r="J125" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="K125" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L125" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M125" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N125" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="O125" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P125" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="Q125" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R125" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S125" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T125" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="U125" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:43</t>
+        </is>
+      </c>
+      <c r="V125" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-kleczew/xl4oRF4k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E126" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>1</v>
+      </c>
+      <c r="H126" t="inlineStr">
+        <is>
+          <t>Gedania Gdansk</t>
+        </is>
+      </c>
+      <c r="I126" t="n">
+        <v>2</v>
+      </c>
+      <c r="J126" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="K126" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L126" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="M126" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:41</t>
+        </is>
+      </c>
+      <c r="N126" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O126" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P126" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="Q126" t="inlineStr">
+        <is>
+          <t>04/11/2023 11:57</t>
+        </is>
+      </c>
+      <c r="R126" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S126" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T126" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="U126" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:41</t>
+        </is>
+      </c>
+      <c r="V126" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-gedania-gdansk/MyvkoydL/</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E127" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>Starogard Gdanski</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="inlineStr">
+        <is>
+          <t>Elana Torun</t>
+        </is>
+      </c>
+      <c r="I127" t="n">
+        <v>4</v>
+      </c>
+      <c r="J127" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="K127" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L127" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M127" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N127" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O127" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P127" t="n">
+        <v>3.78</v>
+      </c>
+      <c r="Q127" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R127" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="S127" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T127" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U127" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V127" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-elana-torun/nJoxlwC2/</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E128" s="2" t="n">
+        <v>45234.54166666666</v>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>2</v>
+      </c>
+      <c r="H128" t="inlineStr">
+        <is>
+          <t>Notec Czarnkow</t>
+        </is>
+      </c>
+      <c r="I128" t="n">
+        <v>1</v>
+      </c>
+      <c r="J128" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="K128" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L128" t="n">
+        <v>4.08</v>
+      </c>
+      <c r="M128" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="N128" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="O128" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P128" t="n">
+        <v>4.05</v>
+      </c>
+      <c r="Q128" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="R128" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="S128" t="inlineStr">
+        <is>
+          <t>03/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T128" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="U128" t="inlineStr">
+        <is>
+          <t>04/11/2023 12:29</t>
+        </is>
+      </c>
+      <c r="V128" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-notec-czarnkow/8YZpnHtF/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V128"/>
+  <dimension ref="A1:V130"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.54</v>
+        <v>2.86</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.56</v>
+        <v>3.6</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.99</v>
+        <v>3.57</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.98</v>
+        <v>1.93</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.32</v>
+        <v>1.85</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.86</v>
+        <v>1.54</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.6</v>
+        <v>1.56</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.57</v>
+        <v>3.99</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.93</v>
+        <v>3.98</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.85</v>
+        <v>4.32</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H94" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I94" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J94" t="n">
-        <v>2.75</v>
+        <v>3.06</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>3.82</v>
+        <v>4.52</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.8</v>
+        <v>3.77</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G95" t="n">
+        <v>2</v>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
         <v>3</v>
       </c>
-      <c r="H95" t="inlineStr">
-        <is>
-          <t>Elana Torun</t>
-        </is>
-      </c>
-      <c r="I95" t="n">
-        <v>0</v>
-      </c>
       <c r="J95" t="n">
-        <v>3.06</v>
+        <v>2.75</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>4.52</v>
+        <v>3.82</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.77</v>
+        <v>3.8</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
         <v>1.89</v>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:56</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.32</v>
-      </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.94</v>
+        <v>1.89</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.16</v>
+        <v>2.32</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.81</v>
+        <v>4.11</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:56</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>1.94</v>
+        <v>3.01</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>3.24</v>
+        <v>1.58</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>14/10/2023 14:43</t>
+          <t>14/10/2023 14:10</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.69</v>
+        <v>3.74</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>14/10/2023 14:43</t>
+          <t>14/10/2023 14:10</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>1.76</v>
+        <v>3.98</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>2.18</v>
+        <v>4.28</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>14/10/2023 14:43</t>
+          <t>14/10/2023 14:10</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-pogon-szczecin/pILj7LDG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-nowe-skalmierzyce/O2Xs9sq4/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>1.58</v>
+        <v>3.24</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>14/10/2023 14:10</t>
+          <t>14/10/2023 14:43</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.74</v>
+        <v>3.69</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>14/10/2023 14:10</t>
+          <t>14/10/2023 14:43</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>3.98</v>
+        <v>1.76</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>4.28</v>
+        <v>2.18</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>14/10/2023 14:10</t>
+          <t>14/10/2023 14:43</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-nowe-skalmierzyce/O2Xs9sq4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-pogon-szczecin/pILj7LDG/</t>
         </is>
       </c>
     </row>
@@ -11889,22 +11889,22 @@
       </c>
       <c r="F125" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="G125" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H125" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I125" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J125" t="n">
-        <v>1.94</v>
+        <v>2.19</v>
       </c>
       <c r="K125" t="inlineStr">
         <is>
@@ -11912,15 +11912,15 @@
         </is>
       </c>
       <c r="L125" t="n">
-        <v>1.8</v>
+        <v>2.16</v>
       </c>
       <c r="M125" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 12:41</t>
         </is>
       </c>
       <c r="N125" t="n">
-        <v>3.45</v>
+        <v>3.44</v>
       </c>
       <c r="O125" t="inlineStr">
         <is>
@@ -11928,15 +11928,15 @@
         </is>
       </c>
       <c r="P125" t="n">
-        <v>3.72</v>
+        <v>3.57</v>
       </c>
       <c r="Q125" t="inlineStr">
         <is>
-          <t>04/11/2023 12:51</t>
+          <t>04/11/2023 11:57</t>
         </is>
       </c>
       <c r="R125" t="n">
-        <v>2.91</v>
+        <v>2.5</v>
       </c>
       <c r="S125" t="inlineStr">
         <is>
@@ -11944,16 +11944,16 @@
         </is>
       </c>
       <c r="T125" t="n">
-        <v>3.56</v>
+        <v>2.76</v>
       </c>
       <c r="U125" t="inlineStr">
         <is>
-          <t>04/11/2023 12:43</t>
+          <t>04/11/2023 12:41</t>
         </is>
       </c>
       <c r="V125" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-kleczew/xl4oRF4k/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-gedania-gdansk/MyvkoydL/</t>
         </is>
       </c>
     </row>
@@ -11981,22 +11981,22 @@
       </c>
       <c r="F126" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H126" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I126" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J126" t="n">
-        <v>2.19</v>
+        <v>3.95</v>
       </c>
       <c r="K126" t="inlineStr">
         <is>
@@ -12004,15 +12004,15 @@
         </is>
       </c>
       <c r="L126" t="n">
-        <v>2.16</v>
+        <v>4.5</v>
       </c>
       <c r="M126" t="inlineStr">
         <is>
-          <t>04/11/2023 12:41</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="N126" t="n">
-        <v>3.44</v>
+        <v>3.62</v>
       </c>
       <c r="O126" t="inlineStr">
         <is>
@@ -12020,15 +12020,15 @@
         </is>
       </c>
       <c r="P126" t="n">
-        <v>3.57</v>
+        <v>3.78</v>
       </c>
       <c r="Q126" t="inlineStr">
         <is>
-          <t>04/11/2023 11:57</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="R126" t="n">
-        <v>2.5</v>
+        <v>1.61</v>
       </c>
       <c r="S126" t="inlineStr">
         <is>
@@ -12036,16 +12036,16 @@
         </is>
       </c>
       <c r="T126" t="n">
-        <v>2.76</v>
+        <v>1.61</v>
       </c>
       <c r="U126" t="inlineStr">
         <is>
-          <t>04/11/2023 12:41</t>
+          <t>04/11/2023 12:29</t>
         </is>
       </c>
       <c r="V126" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-gedania-gdansk/MyvkoydL/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-elana-torun/nJoxlwC2/</t>
         </is>
       </c>
     </row>
@@ -12073,22 +12073,22 @@
       </c>
       <c r="F127" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G127" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H127" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I127" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J127" t="n">
-        <v>3.95</v>
+        <v>3.71</v>
       </c>
       <c r="K127" t="inlineStr">
         <is>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="L127" t="n">
-        <v>4.5</v>
+        <v>4.08</v>
       </c>
       <c r="M127" t="inlineStr">
         <is>
@@ -12104,7 +12104,7 @@
         </is>
       </c>
       <c r="N127" t="n">
-        <v>3.62</v>
+        <v>3.9</v>
       </c>
       <c r="O127" t="inlineStr">
         <is>
@@ -12112,7 +12112,7 @@
         </is>
       </c>
       <c r="P127" t="n">
-        <v>3.78</v>
+        <v>4.05</v>
       </c>
       <c r="Q127" t="inlineStr">
         <is>
@@ -12120,7 +12120,7 @@
         </is>
       </c>
       <c r="R127" t="n">
-        <v>1.61</v>
+        <v>1.6</v>
       </c>
       <c r="S127" t="inlineStr">
         <is>
@@ -12128,7 +12128,7 @@
         </is>
       </c>
       <c r="T127" t="n">
-        <v>1.61</v>
+        <v>1.63</v>
       </c>
       <c r="U127" t="inlineStr">
         <is>
@@ -12137,7 +12137,7 @@
       </c>
       <c r="V127" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-elana-torun/nJoxlwC2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-notec-czarnkow/8YZpnHtF/</t>
         </is>
       </c>
     </row>
@@ -12165,22 +12165,22 @@
       </c>
       <c r="F128" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H128" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I128" t="n">
         <v>1</v>
       </c>
       <c r="J128" t="n">
-        <v>3.71</v>
+        <v>1.94</v>
       </c>
       <c r="K128" t="inlineStr">
         <is>
@@ -12188,15 +12188,15 @@
         </is>
       </c>
       <c r="L128" t="n">
-        <v>4.08</v>
+        <v>1.8</v>
       </c>
       <c r="M128" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="N128" t="n">
-        <v>3.9</v>
+        <v>3.45</v>
       </c>
       <c r="O128" t="inlineStr">
         <is>
@@ -12204,15 +12204,15 @@
         </is>
       </c>
       <c r="P128" t="n">
-        <v>4.05</v>
+        <v>3.72</v>
       </c>
       <c r="Q128" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:51</t>
         </is>
       </c>
       <c r="R128" t="n">
-        <v>1.6</v>
+        <v>2.91</v>
       </c>
       <c r="S128" t="inlineStr">
         <is>
@@ -12220,16 +12220,200 @@
         </is>
       </c>
       <c r="T128" t="n">
-        <v>1.63</v>
+        <v>3.56</v>
       </c>
       <c r="U128" t="inlineStr">
         <is>
-          <t>04/11/2023 12:29</t>
+          <t>04/11/2023 12:43</t>
         </is>
       </c>
       <c r="V128" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-notec-czarnkow/8YZpnHtF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-kleczew/xl4oRF4k/</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E129" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>Cartusia Kartuzy</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>1</v>
+      </c>
+      <c r="H129" t="inlineStr">
+        <is>
+          <t>Swinoujscie</t>
+        </is>
+      </c>
+      <c r="I129" t="n">
+        <v>2</v>
+      </c>
+      <c r="J129" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="K129" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L129" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="M129" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N129" t="n">
+        <v>4.04</v>
+      </c>
+      <c r="O129" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P129" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="Q129" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R129" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="S129" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T129" t="n">
+        <v>4.62</v>
+      </c>
+      <c r="U129" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V129" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-swinoujscie/KCgjQZJe/</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D130" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E130" s="2" t="n">
+        <v>45235.54166666666</v>
+      </c>
+      <c r="F130" t="inlineStr">
+        <is>
+          <t>Zawisza</t>
+        </is>
+      </c>
+      <c r="G130" t="n">
+        <v>0</v>
+      </c>
+      <c r="H130" t="inlineStr">
+        <is>
+          <t>Swit Skolwin</t>
+        </is>
+      </c>
+      <c r="I130" t="n">
+        <v>1</v>
+      </c>
+      <c r="J130" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="K130" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L130" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="M130" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:05</t>
+        </is>
+      </c>
+      <c r="N130" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="O130" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P130" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="Q130" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:05</t>
+        </is>
+      </c>
+      <c r="R130" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="S130" t="inlineStr">
+        <is>
+          <t>04/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T130" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="U130" t="inlineStr">
+        <is>
+          <t>05/11/2023 12:05</t>
+        </is>
+      </c>
+      <c r="V130" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swit-skolwin/GbwgpeBR/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V130"/>
+  <dimension ref="A1:V139"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>3</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Blekitni Stargard</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>2.12</v>
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1164,11 +1164,11 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.96</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
         </is>
       </c>
     </row>
@@ -1217,19 +1217,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Nowe Skalmierzyce</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>2.12</v>
@@ -1240,11 +1240,11 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1256,11 +1256,11 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.96</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J18" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:03</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>3.37</v>
+        <v>2.79</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>4.42</v>
+        <v>2.6</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:19</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J19" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:03</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>2.79</v>
+        <v>3.37</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>2.6</v>
+        <v>4.42</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:19</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J20" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:25</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>19/08/2023 13:02</t>
+        </is>
+      </c>
+      <c r="N20" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:25</t>
+        </is>
+      </c>
+      <c r="P20" t="n">
         <v>3.48</v>
       </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>18/08/2023 02:14</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>19/08/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N20" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O20" t="inlineStr">
-        <is>
-          <t>18/08/2023 02:14</t>
-        </is>
-      </c>
-      <c r="P20" t="n">
-        <v>4.28</v>
-      </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:02</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>18/08/2023 02:14</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:02</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-zawisza/p0K3F3mm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-swit-skolwin/zRUTL5AJ/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J21" t="n">
-        <v>2.86</v>
+        <v>3.48</v>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>18/08/2023 02:14</t>
         </is>
       </c>
       <c r="L21" t="n">
-        <v>3.05</v>
+        <v>5.06</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>19/08/2023 13:02</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>18/08/2023 02:14</t>
         </is>
       </c>
       <c r="P21" t="n">
-        <v>3.48</v>
+        <v>4.28</v>
       </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 13:02</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>18/08/2023 02:14</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>2.04</v>
+        <v>1.48</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 13:02</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-swit-skolwin/zRUTL5AJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-zawisza/p0K3F3mm/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 14:32</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.64</v>
+        <v>3.41</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.66</v>
+        <v>3.67</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19/08/2023 14:32</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.41</v>
+        <v>2.64</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.67</v>
+        <v>2.66</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.67</v>
+        <v>3.25</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:07</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.43</v>
+        <v>2.72</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.45</v>
+        <v>2.85</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.25</v>
+        <v>3.67</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:07</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.72</v>
+        <v>3.43</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
         </is>
       </c>
     </row>
@@ -3241,22 +3241,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="K31" t="inlineStr">
         <is>
@@ -3264,15 +3264,15 @@
         </is>
       </c>
       <c r="L31" t="n">
-        <v>1.28</v>
+        <v>1.31</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="N31" t="n">
-        <v>6.33</v>
+        <v>5.94</v>
       </c>
       <c r="O31" t="inlineStr">
         <is>
@@ -3280,15 +3280,15 @@
         </is>
       </c>
       <c r="P31" t="n">
-        <v>5.76</v>
+        <v>6.41</v>
       </c>
       <c r="Q31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="R31" t="n">
-        <v>7.73</v>
+        <v>8.15</v>
       </c>
       <c r="S31" t="inlineStr">
         <is>
@@ -3296,16 +3296,16 @@
         </is>
       </c>
       <c r="T31" t="n">
-        <v>6.55</v>
+        <v>5.43</v>
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:02</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>2.62</v>
+        <v>1.2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>2.64</v>
+        <v>1.28</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.11</v>
+        <v>6.33</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.56</v>
+        <v>5.76</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.26</v>
+        <v>7.73</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.25</v>
+        <v>6.55</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
         </is>
       </c>
     </row>
@@ -3425,71 +3425,71 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.21</v>
+        <v>2.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.31</v>
+        <v>2.64</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>5.94</v>
+        <v>3.11</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P33" t="n">
-        <v>6.41</v>
+        <v>3.56</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>8.15</v>
+        <v>2.26</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T33" t="n">
-        <v>5.43</v>
+        <v>2.25</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:02</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swinoujscie/6VdzTMHn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
         </is>
       </c>
     </row>
@@ -4437,46 +4437,46 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J44" t="n">
-        <v>1.79</v>
+        <v>2.42</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>01/09/2023 08:42</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
-          <t>01/09/2023 16:56</t>
+          <t>01/09/2023 16:55</t>
         </is>
       </c>
       <c r="N44" t="n">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="O44" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>01/09/2023 08:42</t>
         </is>
       </c>
       <c r="P44" t="n">
-        <v>3.41</v>
+        <v>3.53</v>
       </c>
       <c r="Q44" t="inlineStr">
         <is>
@@ -4484,24 +4484,24 @@
         </is>
       </c>
       <c r="R44" t="n">
-        <v>3.49</v>
+        <v>2.52</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>01/09/2023 08:42</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>01/09/2023 16:56</t>
+          <t>01/09/2023 16:55</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-swinoujscie/CAffgJVi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-elana-torun/8xl3ic04/</t>
         </is>
       </c>
     </row>
@@ -4529,71 +4529,71 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J45" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>01/09/2023 08:42</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
+          <t>01/09/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N45" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>01/09/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P45" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
           <t>01/09/2023 16:55</t>
         </is>
       </c>
-      <c r="N45" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O45" t="inlineStr">
-        <is>
-          <t>01/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P45" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q45" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:55</t>
-        </is>
-      </c>
       <c r="R45" t="n">
-        <v>2.52</v>
+        <v>3.49</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>01/09/2023 08:42</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 16:55</t>
+          <t>01/09/2023 16:56</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-elana-torun/8xl3ic04/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-swinoujscie/CAffgJVi/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>2.35</v>
+        <v>3.31</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>07/09/2023 05:12</t>
+          <t>08/09/2023 07:42</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>1.77</v>
+        <v>3.42</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>08/09/2023 16:56</t>
+          <t>08/09/2023 16:57</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.27</v>
+        <v>3.77</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>07/09/2023 05:12</t>
+          <t>08/09/2023 07:42</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>3.76</v>
+        <v>4.02</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>08/09/2023 16:56</t>
+          <t>08/09/2023 16:58</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>2.41</v>
+        <v>1.83</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>07/09/2023 05:12</t>
+          <t>08/09/2023 07:42</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>3.64</v>
+        <v>1.73</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>08/09/2023 16:56</t>
+          <t>08/09/2023 16:58</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-polonia-sroda-wielkopol/tl7iV6q2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-kleczew/EZjBkyVG/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J53" t="n">
-        <v>3.31</v>
+        <v>2.35</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>08/09/2023 07:42</t>
+          <t>07/09/2023 05:12</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>3.42</v>
+        <v>1.77</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>08/09/2023 16:57</t>
+          <t>08/09/2023 16:56</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.77</v>
+        <v>3.27</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>08/09/2023 07:42</t>
+          <t>07/09/2023 05:12</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>4.02</v>
+        <v>3.76</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>08/09/2023 16:58</t>
+          <t>08/09/2023 16:56</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>1.83</v>
+        <v>2.41</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>08/09/2023 07:42</t>
+          <t>07/09/2023 05:12</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>1.73</v>
+        <v>3.64</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>08/09/2023 16:58</t>
+          <t>08/09/2023 16:56</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-kleczew/EZjBkyVG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-polonia-sroda-wielkopol/tl7iV6q2/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J58" t="n">
-        <v>3.32</v>
+        <v>1.89</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>1.81</v>
+        <v>2.94</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-swit-skolwin/2c8mWnUe/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-blekitni-stargard/jJlrhUjF/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J59" t="n">
-        <v>1.89</v>
+        <v>3.32</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>3.05</v>
+        <v>1.83</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>2.94</v>
+        <v>1.81</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-blekitni-stargard/jJlrhUjF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-swit-skolwin/2c8mWnUe/</t>
         </is>
       </c>
     </row>
@@ -6185,7 +6185,7 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G63" t="n">
@@ -6193,63 +6193,63 @@
       </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I63" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J63" t="n">
-        <v>4.76</v>
+        <v>2.73</v>
       </c>
       <c r="K63" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>14/09/2023 23:24</t>
         </is>
       </c>
       <c r="L63" t="n">
-        <v>4.34</v>
+        <v>2.51</v>
       </c>
       <c r="M63" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:08</t>
         </is>
       </c>
       <c r="N63" t="n">
-        <v>4.63</v>
+        <v>3.3</v>
       </c>
       <c r="O63" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>14/09/2023 23:24</t>
         </is>
       </c>
       <c r="P63" t="n">
-        <v>4.35</v>
+        <v>3.76</v>
       </c>
       <c r="Q63" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:05</t>
         </is>
       </c>
       <c r="R63" t="n">
-        <v>1.45</v>
+        <v>2.13</v>
       </c>
       <c r="S63" t="inlineStr">
         <is>
-          <t>15/09/2023 23:13</t>
+          <t>14/09/2023 23:24</t>
         </is>
       </c>
       <c r="T63" t="n">
-        <v>1.55</v>
+        <v>2.27</v>
       </c>
       <c r="U63" t="inlineStr">
         <is>
-          <t>16/09/2023 11:48</t>
+          <t>16/09/2023 11:08</t>
         </is>
       </c>
       <c r="V63" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-elana-torun/xjuI47zL/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-pogon-szczecin/659Iq6be/</t>
         </is>
       </c>
     </row>
@@ -6277,71 +6277,71 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I64" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J64" t="n">
-        <v>1.75</v>
+        <v>4.76</v>
       </c>
       <c r="K64" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="L64" t="n">
-        <v>1.95</v>
+        <v>4.34</v>
       </c>
       <c r="M64" t="inlineStr">
         <is>
-          <t>15/09/2023 10:19</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="N64" t="n">
-        <v>3.64</v>
+        <v>4.63</v>
       </c>
       <c r="O64" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="P64" t="n">
-        <v>3.9</v>
+        <v>4.35</v>
       </c>
       <c r="Q64" t="inlineStr">
         <is>
-          <t>16/09/2023 10:05</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="R64" t="n">
-        <v>3.3</v>
+        <v>1.45</v>
       </c>
       <c r="S64" t="inlineStr">
         <is>
-          <t>14/09/2023 23:13</t>
+          <t>15/09/2023 23:13</t>
         </is>
       </c>
       <c r="T64" t="n">
-        <v>2.93</v>
+        <v>1.55</v>
       </c>
       <c r="U64" t="inlineStr">
         <is>
-          <t>15/09/2023 10:19</t>
+          <t>16/09/2023 11:48</t>
         </is>
       </c>
       <c r="V64" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-swinoujscie/Gzi96T58/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-elana-torun/xjuI47zL/</t>
         </is>
       </c>
     </row>
@@ -6369,71 +6369,71 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I65" t="n">
         <v>1</v>
       </c>
       <c r="J65" t="n">
-        <v>2.73</v>
+        <v>1.75</v>
       </c>
       <c r="K65" t="inlineStr">
         <is>
-          <t>14/09/2023 23:24</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="L65" t="n">
-        <v>2.51</v>
+        <v>1.95</v>
       </c>
       <c r="M65" t="inlineStr">
         <is>
-          <t>16/09/2023 11:08</t>
+          <t>15/09/2023 10:19</t>
         </is>
       </c>
       <c r="N65" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>14/09/2023 23:13</t>
+        </is>
+      </c>
+      <c r="P65" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="Q65" t="inlineStr">
+        <is>
+          <t>16/09/2023 10:05</t>
+        </is>
+      </c>
+      <c r="R65" t="n">
         <v>3.3</v>
       </c>
-      <c r="O65" t="inlineStr">
-        <is>
-          <t>14/09/2023 23:24</t>
-        </is>
-      </c>
-      <c r="P65" t="n">
-        <v>3.76</v>
-      </c>
-      <c r="Q65" t="inlineStr">
-        <is>
-          <t>16/09/2023 11:05</t>
-        </is>
-      </c>
-      <c r="R65" t="n">
-        <v>2.13</v>
-      </c>
       <c r="S65" t="inlineStr">
         <is>
-          <t>14/09/2023 23:24</t>
+          <t>14/09/2023 23:13</t>
         </is>
       </c>
       <c r="T65" t="n">
-        <v>2.27</v>
+        <v>2.93</v>
       </c>
       <c r="U65" t="inlineStr">
         <is>
-          <t>16/09/2023 11:08</t>
+          <t>15/09/2023 10:19</t>
         </is>
       </c>
       <c r="V65" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-pogon-szczecin/659Iq6be/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-swinoujscie/Gzi96T58/</t>
         </is>
       </c>
     </row>
@@ -8117,22 +8117,22 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G84" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H84" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I84" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J84" t="n">
-        <v>1.3</v>
+        <v>1.92</v>
       </c>
       <c r="K84" t="inlineStr">
         <is>
@@ -8140,15 +8140,15 @@
         </is>
       </c>
       <c r="L84" t="n">
-        <v>1.28</v>
+        <v>2.03</v>
       </c>
       <c r="M84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="N84" t="n">
-        <v>4.74</v>
+        <v>3.53</v>
       </c>
       <c r="O84" t="inlineStr">
         <is>
@@ -8156,15 +8156,15 @@
         </is>
       </c>
       <c r="P84" t="n">
-        <v>5.32</v>
+        <v>3.65</v>
       </c>
       <c r="Q84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:10</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="R84" t="n">
-        <v>5.77</v>
+        <v>2.91</v>
       </c>
       <c r="S84" t="inlineStr">
         <is>
@@ -8172,16 +8172,16 @@
         </is>
       </c>
       <c r="T84" t="n">
-        <v>7.09</v>
+        <v>2.95</v>
       </c>
       <c r="U84" t="inlineStr">
         <is>
-          <t>01/10/2023 14:06</t>
+          <t>01/10/2023 14:58</t>
         </is>
       </c>
       <c r="V84" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
         </is>
       </c>
     </row>
@@ -8209,22 +8209,22 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G85" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H85" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J85" t="n">
-        <v>1.92</v>
+        <v>1.3</v>
       </c>
       <c r="K85" t="inlineStr">
         <is>
@@ -8232,15 +8232,15 @@
         </is>
       </c>
       <c r="L85" t="n">
-        <v>2.03</v>
+        <v>1.28</v>
       </c>
       <c r="M85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="N85" t="n">
-        <v>3.53</v>
+        <v>4.74</v>
       </c>
       <c r="O85" t="inlineStr">
         <is>
@@ -8248,15 +8248,15 @@
         </is>
       </c>
       <c r="P85" t="n">
-        <v>3.65</v>
+        <v>5.32</v>
       </c>
       <c r="Q85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:10</t>
         </is>
       </c>
       <c r="R85" t="n">
-        <v>2.91</v>
+        <v>5.77</v>
       </c>
       <c r="S85" t="inlineStr">
         <is>
@@ -8264,16 +8264,16 @@
         </is>
       </c>
       <c r="T85" t="n">
-        <v>2.95</v>
+        <v>7.09</v>
       </c>
       <c r="U85" t="inlineStr">
         <is>
-          <t>01/10/2023 14:58</t>
+          <t>01/10/2023 14:06</t>
         </is>
       </c>
       <c r="V85" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-blekitni-stargard/xA3aHpKQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-stolem-gniewino/vJkRC4Ss/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>2.95</v>
+        <v>3.77</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>3.14</v>
+        <v>5.7</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-zawisza/zRxc3ieo/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swit-skolwin/jyCLMud6/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>3.77</v>
+        <v>2.95</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>5.7</v>
+        <v>3.14</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.64</v>
+        <v>3.51</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swit-skolwin/jyCLMud6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-zawisza/zRxc3ieo/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.86</v>
+        <v>1.54</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.6</v>
+        <v>1.56</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.57</v>
+        <v>3.99</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.93</v>
+        <v>3.98</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.85</v>
+        <v>4.32</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.54</v>
+        <v>2.86</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.56</v>
+        <v>3.6</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.99</v>
+        <v>3.57</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.98</v>
+        <v>1.93</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.32</v>
+        <v>1.85</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.96</v>
+        <v>3.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,32 +8800,32 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4.38</v>
+        <v>3.94</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
+          <t>07/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
           <t>07/10/2023 12:57</t>
         </is>
       </c>
-      <c r="R91" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>06/10/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T91" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>07/10/2023 12:57</t>
-        </is>
-      </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.6</v>
+        <v>3.96</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.94</v>
+        <v>4.38</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:57</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.52</v>
+        <v>4.11</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
         </is>
       </c>
     </row>
@@ -9037,22 +9037,22 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G94" t="n">
+        <v>2</v>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
         <v>3</v>
       </c>
-      <c r="H94" t="inlineStr">
-        <is>
-          <t>Elana Torun</t>
-        </is>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
       <c r="J94" t="n">
-        <v>3.06</v>
+        <v>2.75</v>
       </c>
       <c r="K94" t="inlineStr">
         <is>
@@ -9060,15 +9060,15 @@
         </is>
       </c>
       <c r="L94" t="n">
-        <v>4.52</v>
+        <v>3.82</v>
       </c>
       <c r="M94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="N94" t="n">
-        <v>3.42</v>
+        <v>3.31</v>
       </c>
       <c r="O94" t="inlineStr">
         <is>
@@ -9076,15 +9076,15 @@
         </is>
       </c>
       <c r="P94" t="n">
-        <v>3.77</v>
+        <v>3.8</v>
       </c>
       <c r="Q94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="R94" t="n">
-        <v>1.88</v>
+        <v>2.07</v>
       </c>
       <c r="S94" t="inlineStr">
         <is>
@@ -9092,16 +9092,16 @@
         </is>
       </c>
       <c r="T94" t="n">
-        <v>1.61</v>
+        <v>1.72</v>
       </c>
       <c r="U94" t="inlineStr">
         <is>
-          <t>07/10/2023 14:07</t>
+          <t>07/10/2023 14:05</t>
         </is>
       </c>
       <c r="V94" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
         </is>
       </c>
     </row>
@@ -9129,22 +9129,22 @@
       </c>
       <c r="F95" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H95" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I95" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J95" t="n">
-        <v>2.75</v>
+        <v>3.06</v>
       </c>
       <c r="K95" t="inlineStr">
         <is>
@@ -9152,15 +9152,15 @@
         </is>
       </c>
       <c r="L95" t="n">
-        <v>3.82</v>
+        <v>4.52</v>
       </c>
       <c r="M95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="N95" t="n">
-        <v>3.31</v>
+        <v>3.42</v>
       </c>
       <c r="O95" t="inlineStr">
         <is>
@@ -9168,15 +9168,15 @@
         </is>
       </c>
       <c r="P95" t="n">
-        <v>3.8</v>
+        <v>3.77</v>
       </c>
       <c r="Q95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="R95" t="n">
-        <v>2.07</v>
+        <v>1.88</v>
       </c>
       <c r="S95" t="inlineStr">
         <is>
@@ -9184,16 +9184,16 @@
         </is>
       </c>
       <c r="T95" t="n">
-        <v>1.72</v>
+        <v>1.61</v>
       </c>
       <c r="U95" t="inlineStr">
         <is>
-          <t>07/10/2023 14:05</t>
+          <t>07/10/2023 14:07</t>
         </is>
       </c>
       <c r="V95" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-vineta-wolin/b1FTKJQI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-elana-torun/MeK4QNds/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.69</v>
+        <v>4.48</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.16</v>
+        <v>5.93</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.23</v>
+        <v>3.92</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.28</v>
+        <v>4.42</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>4.48</v>
+        <v>2.69</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>5.93</v>
+        <v>2.16</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.42</v>
+        <v>3.28</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.41</v>
+        <v>2.97</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
         </is>
       </c>
     </row>
@@ -9773,22 +9773,22 @@
       </c>
       <c r="F102" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H102" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
       <c r="J102" t="n">
-        <v>1.58</v>
+        <v>3.24</v>
       </c>
       <c r="K102" t="inlineStr">
         <is>
@@ -9796,15 +9796,15 @@
         </is>
       </c>
       <c r="L102" t="n">
-        <v>1.65</v>
+        <v>2.6</v>
       </c>
       <c r="M102" t="inlineStr">
         <is>
-          <t>14/10/2023 14:10</t>
+          <t>14/10/2023 14:43</t>
         </is>
       </c>
       <c r="N102" t="n">
-        <v>3.74</v>
+        <v>3.69</v>
       </c>
       <c r="O102" t="inlineStr">
         <is>
@@ -9812,15 +9812,15 @@
         </is>
       </c>
       <c r="P102" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="Q102" t="inlineStr">
         <is>
-          <t>14/10/2023 14:10</t>
+          <t>14/10/2023 14:43</t>
         </is>
       </c>
       <c r="R102" t="n">
-        <v>3.98</v>
+        <v>1.76</v>
       </c>
       <c r="S102" t="inlineStr">
         <is>
@@ -9828,16 +9828,16 @@
         </is>
       </c>
       <c r="T102" t="n">
-        <v>4.28</v>
+        <v>2.18</v>
       </c>
       <c r="U102" t="inlineStr">
         <is>
-          <t>14/10/2023 14:10</t>
+          <t>14/10/2023 14:43</t>
         </is>
       </c>
       <c r="V102" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-nowe-skalmierzyce/O2Xs9sq4/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-pogon-szczecin/pILj7LDG/</t>
         </is>
       </c>
     </row>
@@ -9865,22 +9865,22 @@
       </c>
       <c r="F103" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G103" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H103" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
       <c r="J103" t="n">
-        <v>3.24</v>
+        <v>1.58</v>
       </c>
       <c r="K103" t="inlineStr">
         <is>
@@ -9888,15 +9888,15 @@
         </is>
       </c>
       <c r="L103" t="n">
-        <v>2.6</v>
+        <v>1.65</v>
       </c>
       <c r="M103" t="inlineStr">
         <is>
-          <t>14/10/2023 14:43</t>
+          <t>14/10/2023 14:10</t>
         </is>
       </c>
       <c r="N103" t="n">
-        <v>3.69</v>
+        <v>3.74</v>
       </c>
       <c r="O103" t="inlineStr">
         <is>
@@ -9904,15 +9904,15 @@
         </is>
       </c>
       <c r="P103" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="Q103" t="inlineStr">
         <is>
-          <t>14/10/2023 14:43</t>
+          <t>14/10/2023 14:10</t>
         </is>
       </c>
       <c r="R103" t="n">
-        <v>1.76</v>
+        <v>3.98</v>
       </c>
       <c r="S103" t="inlineStr">
         <is>
@@ -9920,16 +9920,16 @@
         </is>
       </c>
       <c r="T103" t="n">
-        <v>2.18</v>
+        <v>4.28</v>
       </c>
       <c r="U103" t="inlineStr">
         <is>
-          <t>14/10/2023 14:43</t>
+          <t>14/10/2023 14:10</t>
         </is>
       </c>
       <c r="V103" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-pogon-szczecin/pILj7LDG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-nowe-skalmierzyce/O2Xs9sq4/</t>
         </is>
       </c>
     </row>
@@ -10325,22 +10325,22 @@
       </c>
       <c r="F108" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H108" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I108" t="n">
         <v>2</v>
       </c>
       <c r="J108" t="n">
-        <v>1.63</v>
+        <v>1.93</v>
       </c>
       <c r="K108" t="inlineStr">
         <is>
@@ -10348,15 +10348,15 @@
         </is>
       </c>
       <c r="L108" t="n">
-        <v>1.75</v>
+        <v>2.01</v>
       </c>
       <c r="M108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="N108" t="n">
-        <v>3.74</v>
+        <v>3.56</v>
       </c>
       <c r="O108" t="inlineStr">
         <is>
@@ -10364,15 +10364,15 @@
         </is>
       </c>
       <c r="P108" t="n">
-        <v>3.86</v>
+        <v>3.78</v>
       </c>
       <c r="Q108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="R108" t="n">
-        <v>3.71</v>
+        <v>2.85</v>
       </c>
       <c r="S108" t="inlineStr">
         <is>
@@ -10380,16 +10380,16 @@
         </is>
       </c>
       <c r="T108" t="n">
-        <v>3.63</v>
+        <v>2.92</v>
       </c>
       <c r="U108" t="inlineStr">
         <is>
-          <t>21/10/2023 13:10</t>
+          <t>21/10/2023 13:42</t>
         </is>
       </c>
       <c r="V108" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-vineta-wolin/jJQ4ExLq/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-gedania-gdansk/hroUKvrG/</t>
         </is>
       </c>
     </row>
@@ -10417,22 +10417,22 @@
       </c>
       <c r="F109" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H109" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I109" t="n">
         <v>2</v>
       </c>
       <c r="J109" t="n">
-        <v>1.93</v>
+        <v>1.63</v>
       </c>
       <c r="K109" t="inlineStr">
         <is>
@@ -10440,15 +10440,15 @@
         </is>
       </c>
       <c r="L109" t="n">
-        <v>2.01</v>
+        <v>1.75</v>
       </c>
       <c r="M109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="N109" t="n">
-        <v>3.56</v>
+        <v>3.74</v>
       </c>
       <c r="O109" t="inlineStr">
         <is>
@@ -10456,15 +10456,15 @@
         </is>
       </c>
       <c r="P109" t="n">
-        <v>3.78</v>
+        <v>3.86</v>
       </c>
       <c r="Q109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="R109" t="n">
-        <v>2.85</v>
+        <v>3.71</v>
       </c>
       <c r="S109" t="inlineStr">
         <is>
@@ -10472,16 +10472,16 @@
         </is>
       </c>
       <c r="T109" t="n">
-        <v>2.92</v>
+        <v>3.63</v>
       </c>
       <c r="U109" t="inlineStr">
         <is>
-          <t>21/10/2023 13:42</t>
+          <t>21/10/2023 13:10</t>
         </is>
       </c>
       <c r="V109" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-gedania-gdansk/hroUKvrG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-vineta-wolin/jJQ4ExLq/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H112" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I112" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J112" t="n">
-        <v>1.44</v>
+        <v>1.43</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>28/10/2023 00:08</t>
+          <t>28/10/2023 11:57</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.06</v>
+        <v>4.34</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>4.09</v>
+        <v>3.95</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>28/10/2023 10:01</t>
+          <t>28/10/2023 11:57</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.74</v>
+        <v>4.5</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>5.04</v>
+        <v>3.78</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>28/10/2023 06:04</t>
+          <t>28/10/2023 11:57</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-blekitni-stargard/QkIfy0Sd/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-stolem-gniewino/vgMbzKs3/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G113" t="n">
+        <v>3</v>
+      </c>
+      <c r="H113" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="H113" t="inlineStr">
-        <is>
-          <t>Stolem Gniewino</t>
-        </is>
-      </c>
-      <c r="I113" t="n">
-        <v>1</v>
-      </c>
       <c r="J113" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>28/10/2023 11:57</t>
+          <t>28/10/2023 00:08</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.34</v>
+        <v>4.06</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>3.95</v>
+        <v>4.09</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>28/10/2023 11:57</t>
+          <t>28/10/2023 10:01</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.5</v>
+        <v>4.74</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>3.78</v>
+        <v>5.04</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>28/10/2023 11:57</t>
+          <t>28/10/2023 06:04</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-stolem-gniewino/vgMbzKs3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-blekitni-stargard/QkIfy0Sd/</t>
         </is>
       </c>
     </row>
@@ -12414,6 +12414,834 @@
       <c r="V130" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-swit-skolwin/GbwgpeBR/</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D131" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E131" s="2" t="n">
+        <v>45241.5</v>
+      </c>
+      <c r="F131" t="inlineStr">
+        <is>
+          <t>Gedania Gdansk</t>
+        </is>
+      </c>
+      <c r="G131" t="n">
+        <v>2</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Zawisza</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
+        <v>0</v>
+      </c>
+      <c r="J131" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:07</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:07</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S131" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="T131" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="U131" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:07</t>
+        </is>
+      </c>
+      <c r="V131" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-zawisza/WWvQxD31/</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D132" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E132" s="2" t="n">
+        <v>45241.5</v>
+      </c>
+      <c r="F132" t="inlineStr">
+        <is>
+          <t>Luzino</t>
+        </is>
+      </c>
+      <c r="G132" t="n">
+        <v>5</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
+        <v>2</v>
+      </c>
+      <c r="J132" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S132" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T132" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="U132" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="V132" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-stolem-gniewino/nuNC0Ge8/</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D133" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E133" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F133" t="inlineStr">
+        <is>
+          <t>Swit Skolwin</t>
+        </is>
+      </c>
+      <c r="G133" t="n">
+        <v>4</v>
+      </c>
+      <c r="H133" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I133" t="n">
+        <v>0</v>
+      </c>
+      <c r="J133" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K133" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L133" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="M133" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:00</t>
+        </is>
+      </c>
+      <c r="N133" t="n">
+        <v>4.26</v>
+      </c>
+      <c r="O133" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P133" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q133" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:03</t>
+        </is>
+      </c>
+      <c r="R133" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="S133" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T133" t="n">
+        <v>5.01</v>
+      </c>
+      <c r="U133" t="inlineStr">
+        <is>
+          <t>11/11/2023 08:00</t>
+        </is>
+      </c>
+      <c r="V133" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-vineta-wolin/xAuMwgle/</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D134" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E134" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F134" t="inlineStr">
+        <is>
+          <t>Swinoujscie</t>
+        </is>
+      </c>
+      <c r="G134" t="n">
+        <v>1</v>
+      </c>
+      <c r="H134" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin II</t>
+        </is>
+      </c>
+      <c r="I134" t="n">
+        <v>3</v>
+      </c>
+      <c r="J134" t="n">
+        <v>3</v>
+      </c>
+      <c r="K134" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L134" t="n">
+        <v>3</v>
+      </c>
+      <c r="M134" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="N134" t="n">
+        <v>3.57</v>
+      </c>
+      <c r="O134" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P134" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="Q134" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="R134" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="S134" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T134" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="U134" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:56</t>
+        </is>
+      </c>
+      <c r="V134" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-pogon-szczecin/WUmlsSfm/</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D135" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E135" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F135" t="inlineStr">
+        <is>
+          <t>Elana Torun</t>
+        </is>
+      </c>
+      <c r="G135" t="n">
+        <v>1</v>
+      </c>
+      <c r="H135" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="I135" t="n">
+        <v>0</v>
+      </c>
+      <c r="J135" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="K135" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L135" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="M135" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N135" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="O135" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P135" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="Q135" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R135" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="S135" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T135" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U135" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V135" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-nowe-skalmierzyce/QVLGazBE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D136" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E136" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F136" t="inlineStr">
+        <is>
+          <t>Kleczew</t>
+        </is>
+      </c>
+      <c r="G136" t="n">
+        <v>0</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Sroda</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
+        <v>2</v>
+      </c>
+      <c r="J136" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="K136" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L136" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M136" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N136" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="O136" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P136" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="Q136" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R136" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="S136" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T136" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="U136" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V136" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-polonia-sroda-wielkopol/bJtIvZYl/</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D137" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E137" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F137" t="inlineStr">
+        <is>
+          <t>Solec Kujawski</t>
+        </is>
+      </c>
+      <c r="G137" t="n">
+        <v>3</v>
+      </c>
+      <c r="H137" t="inlineStr">
+        <is>
+          <t>Starogard Gdanski</t>
+        </is>
+      </c>
+      <c r="I137" t="n">
+        <v>3</v>
+      </c>
+      <c r="J137" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="K137" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L137" t="n">
+        <v>2.57</v>
+      </c>
+      <c r="M137" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:15</t>
+        </is>
+      </c>
+      <c r="N137" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="O137" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P137" t="n">
+        <v>3.67</v>
+      </c>
+      <c r="Q137" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:15</t>
+        </is>
+      </c>
+      <c r="R137" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S137" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T137" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="U137" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:15</t>
+        </is>
+      </c>
+      <c r="V137" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-starogard-gdanski/hvkpr8us/</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D138" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E138" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F138" t="inlineStr">
+        <is>
+          <t>Notec Czarnkow</t>
+        </is>
+      </c>
+      <c r="G138" t="n">
+        <v>1</v>
+      </c>
+      <c r="H138" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I138" t="n">
+        <v>4</v>
+      </c>
+      <c r="J138" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="K138" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L138" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="M138" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="N138" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="O138" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P138" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="Q138" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="R138" t="n">
+        <v>3.97</v>
+      </c>
+      <c r="S138" t="inlineStr">
+        <is>
+          <t>11/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T138" t="n">
+        <v>3.91</v>
+      </c>
+      <c r="U138" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:57</t>
+        </is>
+      </c>
+      <c r="V138" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-blekitni-stargard/pzqUyXI7/</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D139" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E139" s="2" t="n">
+        <v>45241.54166666666</v>
+      </c>
+      <c r="F139" t="inlineStr">
+        <is>
+          <t>Unia Swarzedz</t>
+        </is>
+      </c>
+      <c r="G139" t="n">
+        <v>1</v>
+      </c>
+      <c r="H139" t="inlineStr">
+        <is>
+          <t>Cartusia Kartuzy</t>
+        </is>
+      </c>
+      <c r="I139" t="n">
+        <v>0</v>
+      </c>
+      <c r="J139" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="K139" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L139" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="M139" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:22</t>
+        </is>
+      </c>
+      <c r="N139" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="O139" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P139" t="n">
+        <v>3.61</v>
+      </c>
+      <c r="Q139" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:23</t>
+        </is>
+      </c>
+      <c r="R139" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="S139" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T139" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:22</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-cartusia-kartuzy/EgwgtnAg/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V139"/>
+  <dimension ref="A1:V148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>3</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>0</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Nowe Skalmierzyce</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>3</v>
       </c>
       <c r="J8" t="n">
         <v>2.12</v>
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1164,11 +1164,11 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.96</v>
+        <v>2.75</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
         </is>
       </c>
     </row>
@@ -1217,19 +1217,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>3</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Blekitni Stargard</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>2.12</v>
@@ -1240,11 +1240,11 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1256,11 +1256,11 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.75</v>
+        <v>2.96</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
         </is>
       </c>
     </row>
@@ -2045,22 +2045,22 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G18" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J18" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="K18" t="inlineStr">
         <is>
@@ -2068,15 +2068,15 @@
         </is>
       </c>
       <c r="L18" t="n">
-        <v>2.24</v>
+        <v>1.61</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>3.45</v>
+        <v>3.28</v>
       </c>
       <c r="O18" t="inlineStr">
         <is>
@@ -2084,15 +2084,15 @@
         </is>
       </c>
       <c r="P18" t="n">
-        <v>3.65</v>
+        <v>3.87</v>
       </c>
       <c r="Q18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:03</t>
+          <t>18/08/2023 17:56</t>
         </is>
       </c>
       <c r="R18" t="n">
-        <v>2.79</v>
+        <v>3.37</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
@@ -2100,16 +2100,16 @@
         </is>
       </c>
       <c r="T18" t="n">
-        <v>2.6</v>
+        <v>4.42</v>
       </c>
       <c r="U18" t="inlineStr">
         <is>
-          <t>18/08/2023 17:34</t>
+          <t>18/08/2023 17:19</t>
         </is>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
         </is>
       </c>
     </row>
@@ -2137,22 +2137,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
@@ -2160,15 +2160,15 @@
         </is>
       </c>
       <c r="L19" t="n">
-        <v>1.61</v>
+        <v>2.24</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>3.28</v>
+        <v>3.45</v>
       </c>
       <c r="O19" t="inlineStr">
         <is>
@@ -2176,15 +2176,15 @@
         </is>
       </c>
       <c r="P19" t="n">
-        <v>3.87</v>
+        <v>3.65</v>
       </c>
       <c r="Q19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:56</t>
+          <t>18/08/2023 17:03</t>
         </is>
       </c>
       <c r="R19" t="n">
-        <v>3.37</v>
+        <v>2.79</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
@@ -2192,16 +2192,16 @@
         </is>
       </c>
       <c r="T19" t="n">
-        <v>4.42</v>
+        <v>2.6</v>
       </c>
       <c r="U19" t="inlineStr">
         <is>
-          <t>18/08/2023 17:19</t>
+          <t>18/08/2023 17:34</t>
         </is>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-stolem-gniewino/tSDCDsIa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-kleczew/YLjocMXI/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 14:32</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>3.41</v>
+        <v>2.64</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>3.67</v>
+        <v>2.66</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J25" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 14:32</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>2.64</v>
+        <v>3.41</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>2.66</v>
+        <v>3.67</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.25</v>
+        <v>3.67</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:07</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>2.72</v>
+        <v>3.43</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J30" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.67</v>
+        <v>3.25</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:07</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>3.43</v>
+        <v>2.72</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>3.45</v>
+        <v>2.85</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J32" t="n">
-        <v>1.2</v>
+        <v>2.6</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.28</v>
+        <v>1.95</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>6.33</v>
+        <v>3.2</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>5.76</v>
+        <v>3.4</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>7.73</v>
+        <v>2.22</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>6.55</v>
+        <v>2.9</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J33" t="n">
-        <v>2.62</v>
+        <v>1.76</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>2.64</v>
+        <v>1.74</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.11</v>
+        <v>3.54</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.56</v>
+        <v>3.85</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>2.26</v>
+        <v>3.34</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>2.25</v>
+        <v>3.68</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>2.6</v>
+        <v>2.62</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>1.95</v>
+        <v>2.64</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.2</v>
+        <v>3.11</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.4</v>
+        <v>3.56</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.22</v>
+        <v>2.26</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.9</v>
+        <v>2.25</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1.76</v>
+        <v>1.2</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.74</v>
+        <v>1.28</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>3.54</v>
+        <v>6.33</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>3.85</v>
+        <v>5.76</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>3.34</v>
+        <v>7.73</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>3.68</v>
+        <v>6.55</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>2.21</v>
+        <v>1.36</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,48 +4644,48 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>2.28</v>
+        <v>1.31</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
+          <t>01/09/2023 16:39</t>
+        </is>
+      </c>
+      <c r="N46" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>31/08/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P46" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
           <t>01/09/2023 17:00</t>
         </is>
       </c>
-      <c r="N46" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O46" t="inlineStr">
+      <c r="R46" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S46" t="inlineStr">
         <is>
           <t>31/08/2023 05:42</t>
         </is>
       </c>
-      <c r="P46" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q46" t="inlineStr">
+      <c r="T46" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="U46" t="inlineStr">
         <is>
           <t>01/09/2023 17:00</t>
         </is>
       </c>
-      <c r="R46" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="S46" t="inlineStr">
-        <is>
-          <t>31/08/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T46" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U46" t="inlineStr">
-        <is>
-          <t>01/09/2023 17:00</t>
-        </is>
-      </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-swarzedz/YJejfaGo/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-solec-kujawski/Uokahwob/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>1.36</v>
+        <v>2.21</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,15 +4736,15 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>1.31</v>
+        <v>2.28</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
-          <t>01/09/2023 16:39</t>
+          <t>01/09/2023 17:00</t>
         </is>
       </c>
       <c r="N47" t="n">
-        <v>4.45</v>
+        <v>3.24</v>
       </c>
       <c r="O47" t="inlineStr">
         <is>
@@ -4752,7 +4752,7 @@
         </is>
       </c>
       <c r="P47" t="n">
-        <v>5.15</v>
+        <v>3.38</v>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
@@ -4760,7 +4760,7 @@
         </is>
       </c>
       <c r="R47" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="S47" t="inlineStr">
         <is>
@@ -4768,7 +4768,7 @@
         </is>
       </c>
       <c r="T47" t="n">
-        <v>6.86</v>
+        <v>2.7</v>
       </c>
       <c r="U47" t="inlineStr">
         <is>
@@ -4777,7 +4777,7 @@
       </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-solec-kujawski/Uokahwob/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-swarzedz/YJejfaGo/</t>
         </is>
       </c>
     </row>
@@ -5173,71 +5173,71 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H52" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="I52" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J52" t="n">
-        <v>3.31</v>
+        <v>2.35</v>
       </c>
       <c r="K52" t="inlineStr">
         <is>
-          <t>08/09/2023 07:42</t>
+          <t>07/09/2023 05:12</t>
         </is>
       </c>
       <c r="L52" t="n">
-        <v>3.42</v>
+        <v>1.77</v>
       </c>
       <c r="M52" t="inlineStr">
         <is>
-          <t>08/09/2023 16:57</t>
+          <t>08/09/2023 16:56</t>
         </is>
       </c>
       <c r="N52" t="n">
-        <v>3.77</v>
+        <v>3.27</v>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>08/09/2023 07:42</t>
+          <t>07/09/2023 05:12</t>
         </is>
       </c>
       <c r="P52" t="n">
-        <v>4.02</v>
+        <v>3.76</v>
       </c>
       <c r="Q52" t="inlineStr">
         <is>
-          <t>08/09/2023 16:58</t>
+          <t>08/09/2023 16:56</t>
         </is>
       </c>
       <c r="R52" t="n">
-        <v>1.83</v>
+        <v>2.41</v>
       </c>
       <c r="S52" t="inlineStr">
         <is>
-          <t>08/09/2023 07:42</t>
+          <t>07/09/2023 05:12</t>
         </is>
       </c>
       <c r="T52" t="n">
-        <v>1.73</v>
+        <v>3.64</v>
       </c>
       <c r="U52" t="inlineStr">
         <is>
-          <t>08/09/2023 16:58</t>
+          <t>08/09/2023 16:56</t>
         </is>
       </c>
       <c r="V52" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-kleczew/EZjBkyVG/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-polonia-sroda-wielkopol/tl7iV6q2/</t>
         </is>
       </c>
     </row>
@@ -5265,71 +5265,71 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J53" t="n">
-        <v>2.35</v>
+        <v>3.31</v>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>07/09/2023 05:12</t>
+          <t>08/09/2023 07:42</t>
         </is>
       </c>
       <c r="L53" t="n">
-        <v>1.77</v>
+        <v>3.42</v>
       </c>
       <c r="M53" t="inlineStr">
         <is>
-          <t>08/09/2023 16:56</t>
+          <t>08/09/2023 16:57</t>
         </is>
       </c>
       <c r="N53" t="n">
-        <v>3.27</v>
+        <v>3.77</v>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>07/09/2023 05:12</t>
+          <t>08/09/2023 07:42</t>
         </is>
       </c>
       <c r="P53" t="n">
-        <v>3.76</v>
+        <v>4.02</v>
       </c>
       <c r="Q53" t="inlineStr">
         <is>
-          <t>08/09/2023 16:56</t>
+          <t>08/09/2023 16:58</t>
         </is>
       </c>
       <c r="R53" t="n">
-        <v>2.41</v>
+        <v>1.83</v>
       </c>
       <c r="S53" t="inlineStr">
         <is>
-          <t>07/09/2023 05:12</t>
+          <t>08/09/2023 07:42</t>
         </is>
       </c>
       <c r="T53" t="n">
-        <v>3.64</v>
+        <v>1.73</v>
       </c>
       <c r="U53" t="inlineStr">
         <is>
-          <t>08/09/2023 16:56</t>
+          <t>08/09/2023 16:58</t>
         </is>
       </c>
       <c r="V53" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-polonia-sroda-wielkopol/tl7iV6q2/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-kleczew/EZjBkyVG/</t>
         </is>
       </c>
     </row>
@@ -5725,7 +5725,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G58" t="n">
@@ -5733,14 +5733,14 @@
       </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I58" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J58" t="n">
-        <v>1.89</v>
+        <v>3.32</v>
       </c>
       <c r="K58" t="inlineStr">
         <is>
@@ -5748,15 +5748,15 @@
         </is>
       </c>
       <c r="L58" t="n">
-        <v>2</v>
+        <v>3.75</v>
       </c>
       <c r="M58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="N58" t="n">
-        <v>3.41</v>
+        <v>3.44</v>
       </c>
       <c r="O58" t="inlineStr">
         <is>
@@ -5764,15 +5764,15 @@
         </is>
       </c>
       <c r="P58" t="n">
-        <v>3.78</v>
+        <v>3.5</v>
       </c>
       <c r="Q58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:22</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="R58" t="n">
-        <v>3.05</v>
+        <v>1.83</v>
       </c>
       <c r="S58" t="inlineStr">
         <is>
@@ -5780,16 +5780,16 @@
         </is>
       </c>
       <c r="T58" t="n">
-        <v>2.94</v>
+        <v>1.81</v>
       </c>
       <c r="U58" t="inlineStr">
         <is>
-          <t>09/09/2023 16:23</t>
+          <t>09/09/2023 16:57</t>
         </is>
       </c>
       <c r="V58" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-blekitni-stargard/jJlrhUjF/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-swit-skolwin/2c8mWnUe/</t>
         </is>
       </c>
     </row>
@@ -5817,7 +5817,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G59" t="n">
@@ -5825,14 +5825,14 @@
       </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I59" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J59" t="n">
-        <v>3.32</v>
+        <v>1.89</v>
       </c>
       <c r="K59" t="inlineStr">
         <is>
@@ -5840,15 +5840,15 @@
         </is>
       </c>
       <c r="L59" t="n">
-        <v>3.75</v>
+        <v>2</v>
       </c>
       <c r="M59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="N59" t="n">
-        <v>3.44</v>
+        <v>3.41</v>
       </c>
       <c r="O59" t="inlineStr">
         <is>
@@ -5856,15 +5856,15 @@
         </is>
       </c>
       <c r="P59" t="n">
-        <v>3.5</v>
+        <v>3.78</v>
       </c>
       <c r="Q59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:22</t>
         </is>
       </c>
       <c r="R59" t="n">
-        <v>1.83</v>
+        <v>3.05</v>
       </c>
       <c r="S59" t="inlineStr">
         <is>
@@ -5872,16 +5872,16 @@
         </is>
       </c>
       <c r="T59" t="n">
-        <v>1.81</v>
+        <v>2.94</v>
       </c>
       <c r="U59" t="inlineStr">
         <is>
-          <t>09/09/2023 16:57</t>
+          <t>09/09/2023 16:23</t>
         </is>
       </c>
       <c r="V59" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-swit-skolwin/2c8mWnUe/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-blekitni-stargard/jJlrhUjF/</t>
         </is>
       </c>
     </row>
@@ -7197,7 +7197,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G74" t="n">
@@ -7205,14 +7205,14 @@
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J74" t="n">
-        <v>1.75</v>
+        <v>2.1</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>1.84</v>
+        <v>2.3</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.58</v>
+        <v>3.36</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.41</v>
+        <v>3.88</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>3.35</v>
+        <v>2.69</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>3.73</v>
+        <v>2.39</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
         </is>
       </c>
     </row>
@@ -7289,71 +7289,71 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J75" t="n">
-        <v>2.37</v>
+        <v>2.23</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="L75" t="n">
-        <v>3.36</v>
+        <v>2.53</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.45</v>
+        <v>3.26</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.69</v>
+        <v>3.34</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.39</v>
+        <v>2.56</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="T75" t="n">
-        <v>1.86</v>
+        <v>2.44</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J76" t="n">
-        <v>2.23</v>
+        <v>2.37</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>2.53</v>
+        <v>3.36</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="N76" t="n">
-        <v>3.26</v>
+        <v>3.45</v>
       </c>
       <c r="O76" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="P76" t="n">
-        <v>3.34</v>
+        <v>3.69</v>
       </c>
       <c r="Q76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="R76" t="n">
-        <v>2.56</v>
+        <v>2.39</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>2.44</v>
+        <v>1.86</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
         </is>
       </c>
     </row>
@@ -7473,7 +7473,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G77" t="n">
@@ -7481,14 +7481,14 @@
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J77" t="n">
-        <v>2.1</v>
+        <v>1.75</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
@@ -7496,15 +7496,15 @@
         </is>
       </c>
       <c r="L77" t="n">
-        <v>2.3</v>
+        <v>1.84</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.36</v>
+        <v>3.58</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
@@ -7512,15 +7512,15 @@
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.88</v>
+        <v>3.41</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="R77" t="n">
-        <v>2.69</v>
+        <v>3.35</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="T77" t="n">
-        <v>2.39</v>
+        <v>3.73</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J78" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.53</v>
+        <v>2.12</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.57</v>
+        <v>2.95</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.39</v>
+        <v>2.73</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-nowe-skalmierzyce/MsuWBOsl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-cartusia-kartuzy/8bsr9MR6/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J79" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.12</v>
+        <v>2.53</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.95</v>
+        <v>2.57</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-cartusia-kartuzy/8bsr9MR6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-nowe-skalmierzyce/MsuWBOsl/</t>
         </is>
       </c>
     </row>
@@ -8393,7 +8393,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="G87" t="n">
@@ -8401,14 +8401,14 @@
       </c>
       <c r="H87" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I87" t="n">
         <v>1</v>
       </c>
       <c r="J87" t="n">
-        <v>3.77</v>
+        <v>2.95</v>
       </c>
       <c r="K87" t="inlineStr">
         <is>
@@ -8416,15 +8416,15 @@
         </is>
       </c>
       <c r="L87" t="n">
-        <v>5.7</v>
+        <v>3.14</v>
       </c>
       <c r="M87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="N87" t="n">
-        <v>3.64</v>
+        <v>3.51</v>
       </c>
       <c r="O87" t="inlineStr">
         <is>
@@ -8432,15 +8432,15 @@
         </is>
       </c>
       <c r="P87" t="n">
-        <v>3.62</v>
+        <v>3.96</v>
       </c>
       <c r="Q87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="R87" t="n">
-        <v>1.64</v>
+        <v>1.91</v>
       </c>
       <c r="S87" t="inlineStr">
         <is>
@@ -8448,16 +8448,16 @@
         </is>
       </c>
       <c r="T87" t="n">
-        <v>1.53</v>
+        <v>1.87</v>
       </c>
       <c r="U87" t="inlineStr">
         <is>
-          <t>06/10/2023 15:59</t>
+          <t>06/10/2023 15:58</t>
         </is>
       </c>
       <c r="V87" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swit-skolwin/jyCLMud6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-zawisza/zRxc3ieo/</t>
         </is>
       </c>
     </row>
@@ -8485,7 +8485,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G88" t="n">
@@ -8493,14 +8493,14 @@
       </c>
       <c r="H88" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I88" t="n">
         <v>1</v>
       </c>
       <c r="J88" t="n">
-        <v>2.95</v>
+        <v>3.77</v>
       </c>
       <c r="K88" t="inlineStr">
         <is>
@@ -8508,15 +8508,15 @@
         </is>
       </c>
       <c r="L88" t="n">
-        <v>3.14</v>
+        <v>5.7</v>
       </c>
       <c r="M88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="N88" t="n">
-        <v>3.51</v>
+        <v>3.64</v>
       </c>
       <c r="O88" t="inlineStr">
         <is>
@@ -8524,15 +8524,15 @@
         </is>
       </c>
       <c r="P88" t="n">
-        <v>3.96</v>
+        <v>3.62</v>
       </c>
       <c r="Q88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="R88" t="n">
-        <v>1.91</v>
+        <v>1.64</v>
       </c>
       <c r="S88" t="inlineStr">
         <is>
@@ -8540,16 +8540,16 @@
         </is>
       </c>
       <c r="T88" t="n">
-        <v>1.87</v>
+        <v>1.53</v>
       </c>
       <c r="U88" t="inlineStr">
         <is>
-          <t>06/10/2023 15:58</t>
+          <t>06/10/2023 15:59</t>
         </is>
       </c>
       <c r="V88" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-zawisza/zRxc3ieo/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swit-skolwin/jyCLMud6/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J89" t="n">
-        <v>1.54</v>
+        <v>2.86</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>1.56</v>
+        <v>3.6</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.99</v>
+        <v>3.57</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>3.98</v>
+        <v>1.93</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>4.32</v>
+        <v>1.85</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J90" t="n">
-        <v>2.86</v>
+        <v>1.54</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>3.6</v>
+        <v>1.56</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.57</v>
+        <v>3.99</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>1.93</v>
+        <v>3.98</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>1.85</v>
+        <v>4.32</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J91" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.6</v>
+        <v>3.96</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,15 +8800,15 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>3.94</v>
+        <v>4.38</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:57</t>
         </is>
       </c>
       <c r="R91" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="S91" t="inlineStr">
         <is>
@@ -8816,7 +8816,7 @@
         </is>
       </c>
       <c r="T91" t="n">
-        <v>3.52</v>
+        <v>4.11</v>
       </c>
       <c r="U91" t="inlineStr">
         <is>
@@ -8825,7 +8825,7 @@
       </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J92" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.96</v>
+        <v>3.6</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,32 +8892,32 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>4.38</v>
+        <v>3.94</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
+          <t>07/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R92" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S92" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T92" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U92" t="inlineStr">
+        <is>
           <t>07/10/2023 12:57</t>
         </is>
       </c>
-      <c r="R92" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="S92" t="inlineStr">
-        <is>
-          <t>06/10/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T92" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="U92" t="inlineStr">
-        <is>
-          <t>07/10/2023 12:57</t>
-        </is>
-      </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J98" t="n">
-        <v>4.48</v>
+        <v>2.69</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>5.93</v>
+        <v>2.16</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>4.42</v>
+        <v>3.28</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>1.41</v>
+        <v>2.97</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J99" t="n">
-        <v>2.69</v>
+        <v>4.48</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>2.16</v>
+        <v>5.93</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.23</v>
+        <v>3.92</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>3.28</v>
+        <v>4.42</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
         </is>
       </c>
     </row>
@@ -9589,22 +9589,22 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J100" t="n">
-        <v>2.94</v>
+        <v>1.89</v>
       </c>
       <c r="K100" t="inlineStr">
         <is>
@@ -9612,15 +9612,15 @@
         </is>
       </c>
       <c r="L100" t="n">
-        <v>3.16</v>
+        <v>2.32</v>
       </c>
       <c r="M100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="N100" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="O100" t="inlineStr">
         <is>
@@ -9628,15 +9628,15 @@
         </is>
       </c>
       <c r="P100" t="n">
-        <v>3.81</v>
+        <v>4.11</v>
       </c>
       <c r="Q100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:56</t>
         </is>
       </c>
       <c r="R100" t="n">
-        <v>1.94</v>
+        <v>3.01</v>
       </c>
       <c r="S100" t="inlineStr">
         <is>
@@ -9644,16 +9644,16 @@
         </is>
       </c>
       <c r="T100" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
         </is>
       </c>
     </row>
@@ -9681,71 +9681,71 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J101" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L101" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M101" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N101" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P101" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q101" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R101" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S101" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T101" t="n">
         <v>1.89</v>
       </c>
-      <c r="K101" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="L101" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M101" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N101" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O101" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P101" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q101" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:56</t>
-        </is>
-      </c>
-      <c r="R101" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="S101" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T101" t="n">
-        <v>2.32</v>
-      </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:57</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
         </is>
       </c>
     </row>
@@ -10693,22 +10693,22 @@
       </c>
       <c r="F112" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G112" t="n">
+        <v>3</v>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="H112" t="inlineStr">
-        <is>
-          <t>Stolem Gniewino</t>
-        </is>
-      </c>
-      <c r="I112" t="n">
-        <v>1</v>
-      </c>
       <c r="J112" t="n">
-        <v>1.43</v>
+        <v>1.44</v>
       </c>
       <c r="K112" t="inlineStr">
         <is>
@@ -10716,15 +10716,15 @@
         </is>
       </c>
       <c r="L112" t="n">
-        <v>1.7</v>
+        <v>1.5</v>
       </c>
       <c r="M112" t="inlineStr">
         <is>
-          <t>28/10/2023 11:57</t>
+          <t>28/10/2023 00:08</t>
         </is>
       </c>
       <c r="N112" t="n">
-        <v>4.34</v>
+        <v>4.06</v>
       </c>
       <c r="O112" t="inlineStr">
         <is>
@@ -10732,15 +10732,15 @@
         </is>
       </c>
       <c r="P112" t="n">
-        <v>3.95</v>
+        <v>4.09</v>
       </c>
       <c r="Q112" t="inlineStr">
         <is>
-          <t>28/10/2023 11:57</t>
+          <t>28/10/2023 10:01</t>
         </is>
       </c>
       <c r="R112" t="n">
-        <v>4.5</v>
+        <v>4.74</v>
       </c>
       <c r="S112" t="inlineStr">
         <is>
@@ -10748,16 +10748,16 @@
         </is>
       </c>
       <c r="T112" t="n">
-        <v>3.78</v>
+        <v>5.04</v>
       </c>
       <c r="U112" t="inlineStr">
         <is>
-          <t>28/10/2023 11:57</t>
+          <t>28/10/2023 06:04</t>
         </is>
       </c>
       <c r="V112" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-stolem-gniewino/vgMbzKs3/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-blekitni-stargard/QkIfy0Sd/</t>
         </is>
       </c>
     </row>
@@ -10785,22 +10785,22 @@
       </c>
       <c r="F113" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H113" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I113" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J113" t="n">
-        <v>1.44</v>
+        <v>3.6</v>
       </c>
       <c r="K113" t="inlineStr">
         <is>
@@ -10808,15 +10808,15 @@
         </is>
       </c>
       <c r="L113" t="n">
-        <v>1.5</v>
+        <v>4.32</v>
       </c>
       <c r="M113" t="inlineStr">
         <is>
-          <t>28/10/2023 00:08</t>
+          <t>28/10/2023 11:59</t>
         </is>
       </c>
       <c r="N113" t="n">
-        <v>4.06</v>
+        <v>3.64</v>
       </c>
       <c r="O113" t="inlineStr">
         <is>
@@ -10824,15 +10824,15 @@
         </is>
       </c>
       <c r="P113" t="n">
-        <v>4.09</v>
+        <v>3.8</v>
       </c>
       <c r="Q113" t="inlineStr">
         <is>
-          <t>28/10/2023 10:01</t>
+          <t>28/10/2023 11:59</t>
         </is>
       </c>
       <c r="R113" t="n">
-        <v>4.74</v>
+        <v>1.68</v>
       </c>
       <c r="S113" t="inlineStr">
         <is>
@@ -10840,16 +10840,16 @@
         </is>
       </c>
       <c r="T113" t="n">
-        <v>5.04</v>
+        <v>1.63</v>
       </c>
       <c r="U113" t="inlineStr">
         <is>
-          <t>28/10/2023 06:04</t>
+          <t>28/10/2023 11:59</t>
         </is>
       </c>
       <c r="V113" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-blekitni-stargard/QkIfy0Sd/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-cartusia-kartuzy/8YDFWysS/</t>
         </is>
       </c>
     </row>
@@ -10877,22 +10877,22 @@
       </c>
       <c r="F114" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G114" t="n">
+        <v>0</v>
+      </c>
+      <c r="H114" t="inlineStr">
+        <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="I114" t="n">
         <v>1</v>
       </c>
-      <c r="H114" t="inlineStr">
-        <is>
-          <t>Cartusia Kartuzy</t>
-        </is>
-      </c>
-      <c r="I114" t="n">
-        <v>6</v>
-      </c>
       <c r="J114" t="n">
-        <v>3.6</v>
+        <v>1.43</v>
       </c>
       <c r="K114" t="inlineStr">
         <is>
@@ -10900,15 +10900,15 @@
         </is>
       </c>
       <c r="L114" t="n">
-        <v>4.32</v>
+        <v>1.7</v>
       </c>
       <c r="M114" t="inlineStr">
         <is>
-          <t>28/10/2023 11:59</t>
+          <t>28/10/2023 11:57</t>
         </is>
       </c>
       <c r="N114" t="n">
-        <v>3.64</v>
+        <v>4.34</v>
       </c>
       <c r="O114" t="inlineStr">
         <is>
@@ -10916,15 +10916,15 @@
         </is>
       </c>
       <c r="P114" t="n">
-        <v>3.8</v>
+        <v>3.95</v>
       </c>
       <c r="Q114" t="inlineStr">
         <is>
-          <t>28/10/2023 11:59</t>
+          <t>28/10/2023 11:57</t>
         </is>
       </c>
       <c r="R114" t="n">
-        <v>1.68</v>
+        <v>4.5</v>
       </c>
       <c r="S114" t="inlineStr">
         <is>
@@ -10932,16 +10932,16 @@
         </is>
       </c>
       <c r="T114" t="n">
-        <v>1.63</v>
+        <v>3.78</v>
       </c>
       <c r="U114" t="inlineStr">
         <is>
-          <t>28/10/2023 11:59</t>
+          <t>28/10/2023 11:57</t>
         </is>
       </c>
       <c r="V114" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-cartusia-kartuzy/8YDFWysS/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-stolem-gniewino/vgMbzKs3/</t>
         </is>
       </c>
     </row>
@@ -12441,71 +12441,71 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G131" t="n">
+        <v>5</v>
+      </c>
+      <c r="H131" t="inlineStr">
+        <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="I131" t="n">
         <v>2</v>
       </c>
-      <c r="H131" t="inlineStr">
-        <is>
-          <t>Zawisza</t>
-        </is>
-      </c>
-      <c r="I131" t="n">
-        <v>0</v>
-      </c>
       <c r="J131" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K131" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L131" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
         <v>2.6</v>
       </c>
-      <c r="K131" t="inlineStr">
-        <is>
-          <t>11/11/2023 00:43</t>
-        </is>
-      </c>
-      <c r="L131" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>11/11/2023 11:07</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>11/11/2023 00:43</t>
-        </is>
-      </c>
-      <c r="P131" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>11/11/2023 11:07</t>
-        </is>
-      </c>
-      <c r="R131" t="n">
-        <v>2.24</v>
-      </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>11/11/2023 00:43</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.05</v>
+        <v>2.68</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>11/11/2023 11:07</t>
+          <t>11/11/2023 11:50</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-zawisza/WWvQxD31/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-stolem-gniewino/nuNC0Ge8/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G132" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H132" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J132" t="n">
-        <v>2.23</v>
+        <v>2.6</v>
       </c>
       <c r="K132" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 00:43</t>
         </is>
       </c>
       <c r="L132" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:07</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:07</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
         <v>2.24</v>
       </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>11/11/2023 11:50</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>11/11/2023 01:13</t>
-        </is>
-      </c>
-      <c r="P132" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>11/11/2023 11:50</t>
-        </is>
-      </c>
-      <c r="R132" t="n">
-        <v>2.6</v>
-      </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 00:43</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.68</v>
+        <v>2.05</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>11/11/2023 11:50</t>
+          <t>11/11/2023 11:07</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-stolem-gniewino/nuNC0Ge8/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-zawisza/WWvQxD31/</t>
         </is>
       </c>
     </row>
@@ -12625,71 +12625,71 @@
       </c>
       <c r="F133" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G133" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H133" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="I133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J133" t="n">
-        <v>1.45</v>
+        <v>1.96</v>
       </c>
       <c r="K133" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L133" t="n">
-        <v>1.49</v>
+        <v>2.04</v>
       </c>
       <c r="M133" t="inlineStr">
         <is>
-          <t>11/11/2023 08:00</t>
+          <t>11/11/2023 12:51</t>
         </is>
       </c>
       <c r="N133" t="n">
-        <v>4.26</v>
+        <v>3.72</v>
       </c>
       <c r="O133" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P133" t="n">
-        <v>4.15</v>
+        <v>3.59</v>
       </c>
       <c r="Q133" t="inlineStr">
         <is>
-          <t>11/11/2023 11:03</t>
+          <t>11/11/2023 12:51</t>
         </is>
       </c>
       <c r="R133" t="n">
-        <v>4.95</v>
+        <v>2.91</v>
       </c>
       <c r="S133" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T133" t="n">
-        <v>5.01</v>
+        <v>2.96</v>
       </c>
       <c r="U133" t="inlineStr">
         <is>
-          <t>11/11/2023 08:00</t>
+          <t>11/11/2023 12:51</t>
         </is>
       </c>
       <c r="V133" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-vineta-wolin/xAuMwgle/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-polonia-sroda-wielkopol/bJtIvZYl/</t>
         </is>
       </c>
     </row>
@@ -12717,7 +12717,7 @@
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="G134" t="n">
@@ -12725,63 +12725,63 @@
       </c>
       <c r="H134" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="J134" t="n">
-        <v>3</v>
+        <v>1.58</v>
       </c>
       <c r="K134" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="L134" t="n">
-        <v>3</v>
+        <v>1.65</v>
       </c>
       <c r="M134" t="inlineStr">
         <is>
-          <t>11/11/2023 12:56</t>
+          <t>11/11/2023 12:57</t>
         </is>
       </c>
       <c r="N134" t="n">
-        <v>3.57</v>
+        <v>4.19</v>
       </c>
       <c r="O134" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="P134" t="n">
-        <v>3.76</v>
+        <v>4.12</v>
       </c>
       <c r="Q134" t="inlineStr">
         <is>
-          <t>11/11/2023 12:56</t>
+          <t>11/11/2023 12:57</t>
         </is>
       </c>
       <c r="R134" t="n">
-        <v>1.97</v>
+        <v>3.97</v>
       </c>
       <c r="S134" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 02:12</t>
         </is>
       </c>
       <c r="T134" t="n">
-        <v>1.98</v>
+        <v>3.91</v>
       </c>
       <c r="U134" t="inlineStr">
         <is>
-          <t>11/11/2023 12:56</t>
+          <t>11/11/2023 12:57</t>
         </is>
       </c>
       <c r="V134" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-pogon-szczecin/WUmlsSfm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-blekitni-stargard/pzqUyXI7/</t>
         </is>
       </c>
     </row>
@@ -12809,7 +12809,7 @@
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G135" t="n">
@@ -12817,14 +12817,14 @@
       </c>
       <c r="H135" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I135" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
-        <v>1.75</v>
+        <v>3</v>
       </c>
       <c r="K135" t="inlineStr">
         <is>
@@ -12832,15 +12832,15 @@
         </is>
       </c>
       <c r="L135" t="n">
-        <v>1.74</v>
+        <v>3</v>
       </c>
       <c r="M135" t="inlineStr">
         <is>
-          <t>11/11/2023 12:58</t>
+          <t>11/11/2023 12:56</t>
         </is>
       </c>
       <c r="N135" t="n">
-        <v>3.61</v>
+        <v>3.57</v>
       </c>
       <c r="O135" t="inlineStr">
         <is>
@@ -12848,15 +12848,15 @@
         </is>
       </c>
       <c r="P135" t="n">
-        <v>3.52</v>
+        <v>3.76</v>
       </c>
       <c r="Q135" t="inlineStr">
         <is>
-          <t>11/11/2023 12:58</t>
+          <t>11/11/2023 12:56</t>
         </is>
       </c>
       <c r="R135" t="n">
-        <v>3.66</v>
+        <v>1.97</v>
       </c>
       <c r="S135" t="inlineStr">
         <is>
@@ -12864,16 +12864,16 @@
         </is>
       </c>
       <c r="T135" t="n">
-        <v>4.06</v>
+        <v>1.98</v>
       </c>
       <c r="U135" t="inlineStr">
         <is>
-          <t>11/11/2023 12:58</t>
+          <t>11/11/2023 12:56</t>
         </is>
       </c>
       <c r="V135" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-nowe-skalmierzyce/QVLGazBE/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-pogon-szczecin/WUmlsSfm/</t>
         </is>
       </c>
     </row>
@@ -12901,71 +12901,71 @@
       </c>
       <c r="F136" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G136" t="n">
+        <v>4</v>
+      </c>
+      <c r="H136" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="H136" t="inlineStr">
-        <is>
-          <t>Sroda</t>
-        </is>
-      </c>
-      <c r="I136" t="n">
-        <v>2</v>
-      </c>
       <c r="J136" t="n">
-        <v>1.96</v>
+        <v>1.45</v>
       </c>
       <c r="K136" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L136" t="n">
-        <v>2.04</v>
+        <v>1.49</v>
       </c>
       <c r="M136" t="inlineStr">
         <is>
-          <t>11/11/2023 12:51</t>
+          <t>11/11/2023 08:00</t>
         </is>
       </c>
       <c r="N136" t="n">
-        <v>3.72</v>
+        <v>4.26</v>
       </c>
       <c r="O136" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P136" t="n">
-        <v>3.59</v>
+        <v>4.15</v>
       </c>
       <c r="Q136" t="inlineStr">
         <is>
-          <t>11/11/2023 12:51</t>
+          <t>11/11/2023 11:03</t>
         </is>
       </c>
       <c r="R136" t="n">
-        <v>2.91</v>
+        <v>4.95</v>
       </c>
       <c r="S136" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T136" t="n">
-        <v>2.96</v>
+        <v>5.01</v>
       </c>
       <c r="U136" t="inlineStr">
         <is>
-          <t>11/11/2023 12:51</t>
+          <t>11/11/2023 08:00</t>
         </is>
       </c>
       <c r="V136" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-polonia-sroda-wielkopol/bJtIvZYl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-vineta-wolin/xAuMwgle/</t>
         </is>
       </c>
     </row>
@@ -13085,7 +13085,7 @@
       </c>
       <c r="F138" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G138" t="n">
@@ -13093,63 +13093,63 @@
       </c>
       <c r="H138" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I138" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="J138" t="n">
-        <v>1.58</v>
+        <v>2.29</v>
       </c>
       <c r="K138" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="L138" t="n">
-        <v>1.65</v>
+        <v>2.01</v>
       </c>
       <c r="M138" t="inlineStr">
         <is>
-          <t>11/11/2023 12:57</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="N138" t="n">
-        <v>4.19</v>
+        <v>3.34</v>
       </c>
       <c r="O138" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="P138" t="n">
-        <v>4.12</v>
+        <v>3.61</v>
       </c>
       <c r="Q138" t="inlineStr">
         <is>
-          <t>11/11/2023 12:57</t>
+          <t>11/11/2023 12:23</t>
         </is>
       </c>
       <c r="R138" t="n">
-        <v>3.97</v>
+        <v>2.6</v>
       </c>
       <c r="S138" t="inlineStr">
         <is>
-          <t>11/11/2023 02:12</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T138" t="n">
-        <v>3.91</v>
+        <v>3.03</v>
       </c>
       <c r="U138" t="inlineStr">
         <is>
-          <t>11/11/2023 12:57</t>
+          <t>11/11/2023 12:22</t>
         </is>
       </c>
       <c r="V138" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-blekitni-stargard/pzqUyXI7/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-cartusia-kartuzy/EgwgtnAg/</t>
         </is>
       </c>
     </row>
@@ -13177,7 +13177,7 @@
       </c>
       <c r="F139" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G139" t="n">
@@ -13185,14 +13185,14 @@
       </c>
       <c r="H139" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
       <c r="J139" t="n">
-        <v>2.29</v>
+        <v>1.75</v>
       </c>
       <c r="K139" t="inlineStr">
         <is>
@@ -13200,15 +13200,15 @@
         </is>
       </c>
       <c r="L139" t="n">
-        <v>2.01</v>
+        <v>1.74</v>
       </c>
       <c r="M139" t="inlineStr">
         <is>
-          <t>11/11/2023 12:22</t>
+          <t>11/11/2023 12:58</t>
         </is>
       </c>
       <c r="N139" t="n">
-        <v>3.34</v>
+        <v>3.61</v>
       </c>
       <c r="O139" t="inlineStr">
         <is>
@@ -13216,15 +13216,15 @@
         </is>
       </c>
       <c r="P139" t="n">
-        <v>3.61</v>
+        <v>3.52</v>
       </c>
       <c r="Q139" t="inlineStr">
         <is>
-          <t>11/11/2023 12:23</t>
+          <t>11/11/2023 12:58</t>
         </is>
       </c>
       <c r="R139" t="n">
-        <v>2.6</v>
+        <v>3.66</v>
       </c>
       <c r="S139" t="inlineStr">
         <is>
@@ -13232,16 +13232,844 @@
         </is>
       </c>
       <c r="T139" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="U139" t="inlineStr">
+        <is>
+          <t>11/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V139" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-nowe-skalmierzyce/QVLGazBE/</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D140" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E140" s="2" t="n">
+        <v>45248.5</v>
+      </c>
+      <c r="F140" t="inlineStr">
+        <is>
+          <t>Cartusia Kartuzy</t>
+        </is>
+      </c>
+      <c r="G140" t="n">
+        <v>3</v>
+      </c>
+      <c r="H140" t="inlineStr">
+        <is>
+          <t>Kleczew</t>
+        </is>
+      </c>
+      <c r="I140" t="n">
+        <v>3</v>
+      </c>
+      <c r="J140" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="K140" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L140" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="M140" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="N140" t="n">
+        <v>3.76</v>
+      </c>
+      <c r="O140" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P140" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="Q140" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="R140" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="S140" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T140" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="U140" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="V140" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-kleczew/Cvddu6Pa/</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D141" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E141" s="2" t="n">
+        <v>45248.5</v>
+      </c>
+      <c r="F141" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="G141" t="n">
+        <v>5</v>
+      </c>
+      <c r="H141" t="inlineStr">
+        <is>
+          <t>Solec Kujawski</t>
+        </is>
+      </c>
+      <c r="I141" t="n">
+        <v>2</v>
+      </c>
+      <c r="J141" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="K141" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L141" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="M141" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:51</t>
+        </is>
+      </c>
+      <c r="N141" t="n">
+        <v>4.46</v>
+      </c>
+      <c r="O141" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P141" t="n">
+        <v>4.52</v>
+      </c>
+      <c r="Q141" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="R141" t="n">
+        <v>4.76</v>
+      </c>
+      <c r="S141" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T141" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="U141" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:56</t>
+        </is>
+      </c>
+      <c r="V141" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-unia-solec-kujawski/2Tl9x49I/</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D142" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E142" s="2" t="n">
+        <v>45248.5</v>
+      </c>
+      <c r="F142" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="G142" t="n">
+        <v>2</v>
+      </c>
+      <c r="H142" t="inlineStr">
+        <is>
+          <t>Gedania Gdansk</t>
+        </is>
+      </c>
+      <c r="I142" t="n">
+        <v>1</v>
+      </c>
+      <c r="J142" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="K142" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L142" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="M142" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:52</t>
+        </is>
+      </c>
+      <c r="N142" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O142" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P142" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="Q142" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:52</t>
+        </is>
+      </c>
+      <c r="R142" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="S142" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T142" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="U142" t="inlineStr">
+        <is>
+          <t>18/11/2023 11:52</t>
+        </is>
+      </c>
+      <c r="V142" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-gedania-gdansk/E7IRfoPn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D143" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E143" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F143" t="inlineStr">
+        <is>
+          <t>Zawisza</t>
+        </is>
+      </c>
+      <c r="G143" t="n">
+        <v>3</v>
+      </c>
+      <c r="H143" t="inlineStr">
+        <is>
+          <t>Notec Czarnkow</t>
+        </is>
+      </c>
+      <c r="I143" t="n">
+        <v>1</v>
+      </c>
+      <c r="J143" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="K143" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L143" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="M143" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N143" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O143" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P143" t="n">
+        <v>3.84</v>
+      </c>
+      <c r="Q143" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R143" t="n">
         <v>3.03</v>
       </c>
-      <c r="U139" t="inlineStr">
-        <is>
-          <t>11/11/2023 12:22</t>
-        </is>
-      </c>
-      <c r="V139" t="inlineStr">
-        <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-cartusia-kartuzy/EgwgtnAg/</t>
+      <c r="S143" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T143" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U143" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V143" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-notec-czarnkow/WrTMeR9t/</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D144" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E144" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F144" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="G144" t="n">
+        <v>2</v>
+      </c>
+      <c r="H144" t="inlineStr">
+        <is>
+          <t>Luzino</t>
+        </is>
+      </c>
+      <c r="I144" t="n">
+        <v>1</v>
+      </c>
+      <c r="J144" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="K144" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L144" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="M144" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="N144" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="O144" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P144" t="n">
+        <v>4.23</v>
+      </c>
+      <c r="Q144" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="R144" t="n">
+        <v>3.87</v>
+      </c>
+      <c r="S144" t="inlineStr">
+        <is>
+          <t>18/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T144" t="n">
+        <v>4.31</v>
+      </c>
+      <c r="U144" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:51</t>
+        </is>
+      </c>
+      <c r="V144" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-luzino/fNye071P/</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D145" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E145" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F145" t="inlineStr">
+        <is>
+          <t>Elana Torun</t>
+        </is>
+      </c>
+      <c r="G145" t="n">
+        <v>3</v>
+      </c>
+      <c r="H145" t="inlineStr">
+        <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="I145" t="n">
+        <v>0</v>
+      </c>
+      <c r="J145" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="K145" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L145" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="M145" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:27</t>
+        </is>
+      </c>
+      <c r="N145" t="n">
+        <v>5.52</v>
+      </c>
+      <c r="O145" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P145" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="Q145" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:27</t>
+        </is>
+      </c>
+      <c r="R145" t="n">
+        <v>7.83</v>
+      </c>
+      <c r="S145" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T145" t="n">
+        <v>5.81</v>
+      </c>
+      <c r="U145" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:27</t>
+        </is>
+      </c>
+      <c r="V145" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-stolem-gniewino/tKmDyOOO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D146" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E146" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F146" t="inlineStr">
+        <is>
+          <t>Sroda</t>
+        </is>
+      </c>
+      <c r="G146" t="n">
+        <v>1</v>
+      </c>
+      <c r="H146" t="inlineStr">
+        <is>
+          <t>Swit Skolwin</t>
+        </is>
+      </c>
+      <c r="I146" t="n">
+        <v>0</v>
+      </c>
+      <c r="J146" t="n">
+        <v>5.31</v>
+      </c>
+      <c r="K146" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L146" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="M146" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="N146" t="n">
+        <v>4.29</v>
+      </c>
+      <c r="O146" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P146" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="Q146" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="R146" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="S146" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T146" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="U146" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:52</t>
+        </is>
+      </c>
+      <c r="V146" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-swit-skolwin/hbHVg5vg/</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D147" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E147" s="2" t="n">
+        <v>45248.54166666666</v>
+      </c>
+      <c r="F147" t="inlineStr">
+        <is>
+          <t>Starogard Gdanski</t>
+        </is>
+      </c>
+      <c r="G147" t="n">
+        <v>1</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Swinoujscie</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
+        <v>3</v>
+      </c>
+      <c r="J147" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="K147" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L147" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="M147" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="N147" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O147" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P147" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="Q147" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="R147" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S147" t="inlineStr">
+        <is>
+          <t>18/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T147" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="U147" t="inlineStr">
+        <is>
+          <t>18/11/2023 12:55</t>
+        </is>
+      </c>
+      <c r="V147" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swinoujscie/phf4wpfC/</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E148" s="2" t="n">
+        <v>45249.5</v>
+      </c>
+      <c r="F148" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin II</t>
+        </is>
+      </c>
+      <c r="G148" t="n">
+        <v>3</v>
+      </c>
+      <c r="H148" t="inlineStr">
+        <is>
+          <t>Unia Swarzedz</t>
+        </is>
+      </c>
+      <c r="I148" t="n">
+        <v>1</v>
+      </c>
+      <c r="J148" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="K148" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L148" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="M148" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="N148" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O148" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P148" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="Q148" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="R148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="S148" t="inlineStr">
+        <is>
+          <t>19/11/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T148" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="U148" t="inlineStr">
+        <is>
+          <t>19/11/2023 11:58</t>
+        </is>
+      </c>
+      <c r="V148" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-unia-swarzedz/61e0vQv6/</t>
         </is>
       </c>
     </row>

--- a/2023/poland_iii-liga-group-ii_2023-2024.xlsx
+++ b/2023/poland_iii-liga-group-ii_2023-2024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:V148"/>
+  <dimension ref="A1:V154"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1125,19 +1125,19 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Nowe Skalmierzyce</t>
+        </is>
+      </c>
+      <c r="I8" t="n">
         <v>3</v>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Blekitni Stargard</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
-        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>2.12</v>
@@ -1148,11 +1148,11 @@
         </is>
       </c>
       <c r="L8" t="n">
-        <v>2.26</v>
+        <v>2.12</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="N8" t="n">
@@ -1164,11 +1164,11 @@
         </is>
       </c>
       <c r="P8" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="R8" t="n">
@@ -1180,16 +1180,16 @@
         </is>
       </c>
       <c r="T8" t="n">
-        <v>2.75</v>
+        <v>2.96</v>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>05/08/2023 16:59</t>
+          <t>05/08/2023 16:50</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
         </is>
       </c>
     </row>
@@ -1217,19 +1217,19 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G9" t="n">
+        <v>3</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
         <v>0</v>
-      </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Nowe Skalmierzyce</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
       </c>
       <c r="J9" t="n">
         <v>2.12</v>
@@ -1240,11 +1240,11 @@
         </is>
       </c>
       <c r="L9" t="n">
-        <v>2.12</v>
+        <v>2.26</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="N9" t="n">
@@ -1256,11 +1256,11 @@
         </is>
       </c>
       <c r="P9" t="n">
-        <v>3.38</v>
+        <v>3.34</v>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="R9" t="n">
@@ -1272,16 +1272,16 @@
         </is>
       </c>
       <c r="T9" t="n">
-        <v>2.96</v>
+        <v>2.75</v>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>05/08/2023 16:50</t>
+          <t>05/08/2023 16:59</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-nowe-skalmierzyce/jLmfaick/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-blekitni-stargard/KxcO4DZR/</t>
         </is>
       </c>
     </row>
@@ -1309,71 +1309,71 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.74</v>
+        <v>2.09</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="L10" t="n">
-        <v>1.67</v>
+        <v>2.3</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:59</t>
         </is>
       </c>
       <c r="N10" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="O10" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="P10" t="n">
-        <v>3.86</v>
+        <v>3.49</v>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:47</t>
         </is>
       </c>
       <c r="R10" t="n">
-        <v>3.39</v>
+        <v>2.91</v>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>10/08/2023 06:12</t>
+          <t>11/08/2023 17:45</t>
         </is>
       </c>
       <c r="T10" t="n">
-        <v>3.96</v>
+        <v>2.61</v>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>11/08/2023 17:39</t>
+          <t>11/08/2023 17:59</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-gedania-gdansk/Momsb2IC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swinoujscie/bqdM2Q3s/</t>
         </is>
       </c>
     </row>
@@ -1401,71 +1401,71 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>2.09</v>
+        <v>1.74</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="L11" t="n">
-        <v>2.3</v>
+        <v>1.67</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:59</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="O11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="P11" t="n">
-        <v>3.49</v>
+        <v>3.86</v>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:47</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="R11" t="n">
-        <v>2.91</v>
+        <v>3.39</v>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:45</t>
+          <t>10/08/2023 06:12</t>
         </is>
       </c>
       <c r="T11" t="n">
-        <v>2.61</v>
+        <v>3.96</v>
       </c>
       <c r="U11" t="inlineStr">
         <is>
-          <t>11/08/2023 17:59</t>
+          <t>11/08/2023 17:39</t>
         </is>
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-swinoujscie/bqdM2Q3s/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-gedania-gdansk/Momsb2IC/</t>
         </is>
       </c>
     </row>
@@ -2229,71 +2229,71 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="J20" t="n">
-        <v>2.86</v>
+        <v>3.48</v>
       </c>
       <c r="K20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>18/08/2023 02:14</t>
         </is>
       </c>
       <c r="L20" t="n">
-        <v>3.05</v>
+        <v>5.06</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>19/08/2023 13:02</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3.43</v>
+        <v>3.41</v>
       </c>
       <c r="O20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>18/08/2023 02:14</t>
         </is>
       </c>
       <c r="P20" t="n">
-        <v>3.48</v>
+        <v>4.28</v>
       </c>
       <c r="Q20" t="inlineStr">
         <is>
-          <t>19/08/2023 13:02</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="R20" t="n">
-        <v>2.13</v>
+        <v>1.75</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>18/08/2023 02:14</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>2.04</v>
+        <v>1.48</v>
       </c>
       <c r="U20" t="inlineStr">
         <is>
-          <t>19/08/2023 13:02</t>
+          <t>19/08/2023 13:59</t>
         </is>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-swit-skolwin/zRUTL5AJ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-zawisza/p0K3F3mm/</t>
         </is>
       </c>
     </row>
@@ -2321,71 +2321,71 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="G21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="J21" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:25</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>19/08/2023 13:02</t>
+        </is>
+      </c>
+      <c r="N21" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>19/08/2023 09:25</t>
+        </is>
+      </c>
+      <c r="P21" t="n">
         <v>3.48</v>
       </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>18/08/2023 02:14</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>5.06</v>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>19/08/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N21" t="n">
-        <v>3.41</v>
-      </c>
-      <c r="O21" t="inlineStr">
-        <is>
-          <t>18/08/2023 02:14</t>
-        </is>
-      </c>
-      <c r="P21" t="n">
-        <v>4.28</v>
-      </c>
       <c r="Q21" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:02</t>
         </is>
       </c>
       <c r="R21" t="n">
-        <v>1.75</v>
+        <v>2.13</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>18/08/2023 02:14</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>1.48</v>
+        <v>2.04</v>
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>19/08/2023 13:59</t>
+          <t>19/08/2023 13:02</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-zawisza/p0K3F3mm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-swit-skolwin/zRUTL5AJ/</t>
         </is>
       </c>
     </row>
@@ -2597,71 +2597,71 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G24" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J24" t="n">
-        <v>2.32</v>
+        <v>1.86</v>
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="L24" t="n">
-        <v>2.34</v>
+        <v>1.83</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 14:32</t>
         </is>
       </c>
       <c r="N24" t="n">
-        <v>3.3</v>
+        <v>3.54</v>
       </c>
       <c r="O24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="P24" t="n">
-        <v>3.33</v>
+        <v>3.49</v>
       </c>
       <c r="Q24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="R24" t="n">
-        <v>2.64</v>
+        <v>3.41</v>
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>19/08/2023 09:26</t>
+          <t>19/08/2023 09:25</t>
         </is>
       </c>
       <c r="T24" t="n">
-        <v>2.66</v>
+        <v>3.67</v>
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>19/08/2023 16:59</t>
+          <t>19/08/2023 15:45</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
         </is>
       </c>
     </row>
@@ -2689,71 +2689,71 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I25" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J25" t="n">
-        <v>1.86</v>
+        <v>2.32</v>
       </c>
       <c r="K25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="L25" t="n">
-        <v>1.83</v>
+        <v>2.34</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
-          <t>19/08/2023 14:32</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="N25" t="n">
-        <v>3.54</v>
+        <v>3.3</v>
       </c>
       <c r="O25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="P25" t="n">
-        <v>3.49</v>
+        <v>3.33</v>
       </c>
       <c r="Q25" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="R25" t="n">
-        <v>3.41</v>
+        <v>2.64</v>
       </c>
       <c r="S25" t="inlineStr">
         <is>
-          <t>19/08/2023 09:25</t>
+          <t>19/08/2023 09:26</t>
         </is>
       </c>
       <c r="T25" t="n">
-        <v>3.67</v>
+        <v>2.66</v>
       </c>
       <c r="U25" t="inlineStr">
         <is>
-          <t>19/08/2023 15:45</t>
+          <t>19/08/2023 16:59</t>
         </is>
       </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-vineta-wolin/69LaGqYt/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-blekitni-stargard/SO98EN2g/</t>
         </is>
       </c>
     </row>
@@ -3057,71 +3057,71 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G29" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="I29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J29" t="n">
-        <v>1.79</v>
+        <v>2.12</v>
       </c>
       <c r="K29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="L29" t="n">
-        <v>1.8</v>
+        <v>1.98</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="N29" t="n">
-        <v>3.67</v>
+        <v>3.25</v>
       </c>
       <c r="O29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="P29" t="n">
-        <v>3.83</v>
+        <v>4</v>
       </c>
       <c r="Q29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:07</t>
         </is>
       </c>
       <c r="R29" t="n">
-        <v>3.43</v>
+        <v>2.72</v>
       </c>
       <c r="S29" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 05:42</t>
         </is>
       </c>
       <c r="T29" t="n">
-        <v>3.45</v>
+        <v>2.85</v>
       </c>
       <c r="U29" t="inlineStr">
         <is>
-          <t>23/08/2023 17:28</t>
+          <t>23/08/2023 17:08</t>
         </is>
       </c>
       <c r="V29" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
         </is>
       </c>
     </row>
@@ -3149,71 +3149,71 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G30" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
-        <v>2.12</v>
+        <v>1.79</v>
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L30" t="n">
-        <v>1.98</v>
+        <v>1.8</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="N30" t="n">
-        <v>3.25</v>
+        <v>3.67</v>
       </c>
       <c r="O30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P30" t="n">
-        <v>4</v>
+        <v>3.83</v>
       </c>
       <c r="Q30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:07</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="R30" t="n">
-        <v>2.72</v>
+        <v>3.43</v>
       </c>
       <c r="S30" t="inlineStr">
         <is>
-          <t>22/08/2023 05:42</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T30" t="n">
-        <v>2.85</v>
+        <v>3.45</v>
       </c>
       <c r="U30" t="inlineStr">
         <is>
-          <t>23/08/2023 17:08</t>
+          <t>23/08/2023 17:28</t>
         </is>
       </c>
       <c r="V30" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-starogard-gdanski/fiTHAu2I/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-notec-czarnkow/zBliPvHB/</t>
         </is>
       </c>
     </row>
@@ -3333,71 +3333,71 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G32" t="n">
+        <v>3</v>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Luzino</t>
+        </is>
+      </c>
+      <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>Pogon Szczecin II</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
-        <v>5</v>
-      </c>
       <c r="J32" t="n">
-        <v>2.6</v>
+        <v>1.2</v>
       </c>
       <c r="K32" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="L32" t="n">
-        <v>1.95</v>
+        <v>1.28</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="N32" t="n">
-        <v>3.2</v>
+        <v>6.33</v>
       </c>
       <c r="O32" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="P32" t="n">
-        <v>3.4</v>
+        <v>5.76</v>
       </c>
       <c r="Q32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="R32" t="n">
-        <v>2.22</v>
+        <v>7.73</v>
       </c>
       <c r="S32" t="inlineStr">
         <is>
-          <t>22/08/2023 06:12</t>
+          <t>23/08/2023 11:12</t>
         </is>
       </c>
       <c r="T32" t="n">
-        <v>2.9</v>
+        <v>6.55</v>
       </c>
       <c r="U32" t="inlineStr">
         <is>
-          <t>23/08/2023 17:45</t>
+          <t>23/08/2023 17:50</t>
         </is>
       </c>
       <c r="V32" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
         </is>
       </c>
     </row>
@@ -3425,22 +3425,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1.76</v>
+        <v>2.62</v>
       </c>
       <c r="K33" t="inlineStr">
         <is>
@@ -3448,15 +3448,15 @@
         </is>
       </c>
       <c r="L33" t="n">
-        <v>1.74</v>
+        <v>2.64</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="N33" t="n">
-        <v>3.54</v>
+        <v>3.11</v>
       </c>
       <c r="O33" t="inlineStr">
         <is>
@@ -3464,15 +3464,15 @@
         </is>
       </c>
       <c r="P33" t="n">
-        <v>3.85</v>
+        <v>3.56</v>
       </c>
       <c r="Q33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="R33" t="n">
-        <v>3.34</v>
+        <v>2.26</v>
       </c>
       <c r="S33" t="inlineStr">
         <is>
@@ -3480,16 +3480,16 @@
         </is>
       </c>
       <c r="T33" t="n">
-        <v>3.68</v>
+        <v>2.25</v>
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>23/08/2023 17:00</t>
+          <t>23/08/2023 17:59</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
         </is>
       </c>
     </row>
@@ -3517,7 +3517,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="G34" t="n">
@@ -3525,14 +3525,14 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="J34" t="n">
-        <v>2.62</v>
+        <v>2.6</v>
       </c>
       <c r="K34" t="inlineStr">
         <is>
@@ -3540,15 +3540,15 @@
         </is>
       </c>
       <c r="L34" t="n">
-        <v>2.64</v>
+        <v>1.95</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="N34" t="n">
-        <v>3.11</v>
+        <v>3.2</v>
       </c>
       <c r="O34" t="inlineStr">
         <is>
@@ -3556,15 +3556,15 @@
         </is>
       </c>
       <c r="P34" t="n">
-        <v>3.56</v>
+        <v>3.4</v>
       </c>
       <c r="Q34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="R34" t="n">
-        <v>2.26</v>
+        <v>2.22</v>
       </c>
       <c r="S34" t="inlineStr">
         <is>
@@ -3572,16 +3572,16 @@
         </is>
       </c>
       <c r="T34" t="n">
-        <v>2.25</v>
+        <v>2.9</v>
       </c>
       <c r="U34" t="inlineStr">
         <is>
-          <t>23/08/2023 17:59</t>
+          <t>23/08/2023 17:45</t>
         </is>
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-cartusia-kartuzy/noG3YrfP/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/nowe-skalmierzyce-pogon-szczecin/YsSL9aHO/</t>
         </is>
       </c>
     </row>
@@ -3609,71 +3609,71 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J35" t="n">
-        <v>1.2</v>
+        <v>1.76</v>
       </c>
       <c r="K35" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="L35" t="n">
-        <v>1.28</v>
+        <v>1.74</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="N35" t="n">
-        <v>6.33</v>
+        <v>3.54</v>
       </c>
       <c r="O35" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="P35" t="n">
-        <v>5.76</v>
+        <v>3.85</v>
       </c>
       <c r="Q35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="R35" t="n">
-        <v>7.73</v>
+        <v>3.34</v>
       </c>
       <c r="S35" t="inlineStr">
         <is>
-          <t>23/08/2023 11:12</t>
+          <t>22/08/2023 06:12</t>
         </is>
       </c>
       <c r="T35" t="n">
-        <v>6.55</v>
+        <v>3.68</v>
       </c>
       <c r="U35" t="inlineStr">
         <is>
-          <t>23/08/2023 17:50</t>
+          <t>23/08/2023 17:00</t>
         </is>
       </c>
       <c r="V35" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-luzino/hnanQK15/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-solec-kujawski/pMevStXh/</t>
         </is>
       </c>
     </row>
@@ -4437,71 +4437,71 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I44" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J44" t="n">
-        <v>2.42</v>
+        <v>1.79</v>
       </c>
       <c r="K44" t="inlineStr">
         <is>
-          <t>01/09/2023 08:42</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="L44" t="n">
-        <v>2.56</v>
+        <v>2.41</v>
       </c>
       <c r="M44" t="inlineStr">
         <is>
+          <t>01/09/2023 16:56</t>
+        </is>
+      </c>
+      <c r="N44" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>01/09/2023 12:12</t>
+        </is>
+      </c>
+      <c r="P44" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
           <t>01/09/2023 16:55</t>
         </is>
       </c>
-      <c r="N44" t="n">
-        <v>3.22</v>
-      </c>
-      <c r="O44" t="inlineStr">
-        <is>
-          <t>01/09/2023 08:42</t>
-        </is>
-      </c>
-      <c r="P44" t="n">
-        <v>3.53</v>
-      </c>
-      <c r="Q44" t="inlineStr">
-        <is>
-          <t>01/09/2023 16:55</t>
-        </is>
-      </c>
       <c r="R44" t="n">
-        <v>2.52</v>
+        <v>3.49</v>
       </c>
       <c r="S44" t="inlineStr">
         <is>
-          <t>01/09/2023 08:42</t>
+          <t>01/09/2023 12:12</t>
         </is>
       </c>
       <c r="T44" t="n">
-        <v>2.32</v>
+        <v>2.44</v>
       </c>
       <c r="U44" t="inlineStr">
         <is>
-          <t>01/09/2023 16:55</t>
+          <t>01/09/2023 16:56</t>
         </is>
       </c>
       <c r="V44" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-elana-torun/8xl3ic04/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-swinoujscie/CAffgJVi/</t>
         </is>
       </c>
     </row>
@@ -4529,46 +4529,46 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I45" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J45" t="n">
-        <v>1.79</v>
+        <v>2.42</v>
       </c>
       <c r="K45" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>01/09/2023 08:42</t>
         </is>
       </c>
       <c r="L45" t="n">
-        <v>2.41</v>
+        <v>2.56</v>
       </c>
       <c r="M45" t="inlineStr">
         <is>
-          <t>01/09/2023 16:56</t>
+          <t>01/09/2023 16:55</t>
         </is>
       </c>
       <c r="N45" t="n">
-        <v>3.6</v>
+        <v>3.22</v>
       </c>
       <c r="O45" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>01/09/2023 08:42</t>
         </is>
       </c>
       <c r="P45" t="n">
-        <v>3.41</v>
+        <v>3.53</v>
       </c>
       <c r="Q45" t="inlineStr">
         <is>
@@ -4576,24 +4576,24 @@
         </is>
       </c>
       <c r="R45" t="n">
-        <v>3.49</v>
+        <v>2.52</v>
       </c>
       <c r="S45" t="inlineStr">
         <is>
-          <t>01/09/2023 12:12</t>
+          <t>01/09/2023 08:42</t>
         </is>
       </c>
       <c r="T45" t="n">
-        <v>2.44</v>
+        <v>2.32</v>
       </c>
       <c r="U45" t="inlineStr">
         <is>
-          <t>01/09/2023 16:56</t>
+          <t>01/09/2023 16:55</t>
         </is>
       </c>
       <c r="V45" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-swinoujscie/CAffgJVi/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-elana-torun/8xl3ic04/</t>
         </is>
       </c>
     </row>
@@ -4621,22 +4621,22 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G46" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H46" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="I46" t="n">
         <v>1</v>
       </c>
       <c r="J46" t="n">
-        <v>1.36</v>
+        <v>2.21</v>
       </c>
       <c r="K46" t="inlineStr">
         <is>
@@ -4644,15 +4644,15 @@
         </is>
       </c>
       <c r="L46" t="n">
-        <v>1.31</v>
+        <v>2.28</v>
       </c>
       <c r="M46" t="inlineStr">
         <is>
-          <t>01/09/2023 16:39</t>
+          <t>01/09/2023 17:00</t>
         </is>
       </c>
       <c r="N46" t="n">
-        <v>4.45</v>
+        <v>3.24</v>
       </c>
       <c r="O46" t="inlineStr">
         <is>
@@ -4660,7 +4660,7 @@
         </is>
       </c>
       <c r="P46" t="n">
-        <v>5.15</v>
+        <v>3.38</v>
       </c>
       <c r="Q46" t="inlineStr">
         <is>
@@ -4668,7 +4668,7 @@
         </is>
       </c>
       <c r="R46" t="n">
-        <v>5.19</v>
+        <v>2.59</v>
       </c>
       <c r="S46" t="inlineStr">
         <is>
@@ -4676,7 +4676,7 @@
         </is>
       </c>
       <c r="T46" t="n">
-        <v>6.86</v>
+        <v>2.7</v>
       </c>
       <c r="U46" t="inlineStr">
         <is>
@@ -4685,7 +4685,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-solec-kujawski/Uokahwob/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-swarzedz/YJejfaGo/</t>
         </is>
       </c>
     </row>
@@ -4713,22 +4713,22 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="G47" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H47" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="I47" t="n">
         <v>1</v>
       </c>
       <c r="J47" t="n">
-        <v>2.21</v>
+        <v>1.36</v>
       </c>
       <c r="K47" t="inlineStr">
         <is>
@@ -4736,48 +4736,48 @@
         </is>
       </c>
       <c r="L47" t="n">
-        <v>2.28</v>
+        <v>1.31</v>
       </c>
       <c r="M47" t="inlineStr">
         <is>
+          <t>01/09/2023 16:39</t>
+        </is>
+      </c>
+      <c r="N47" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>31/08/2023 05:42</t>
+        </is>
+      </c>
+      <c r="P47" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
           <t>01/09/2023 17:00</t>
         </is>
       </c>
-      <c r="N47" t="n">
-        <v>3.24</v>
-      </c>
-      <c r="O47" t="inlineStr">
+      <c r="R47" t="n">
+        <v>5.19</v>
+      </c>
+      <c r="S47" t="inlineStr">
         <is>
           <t>31/08/2023 05:42</t>
         </is>
       </c>
-      <c r="P47" t="n">
-        <v>3.38</v>
-      </c>
-      <c r="Q47" t="inlineStr">
+      <c r="T47" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="U47" t="inlineStr">
         <is>
           <t>01/09/2023 17:00</t>
         </is>
       </c>
-      <c r="R47" t="n">
-        <v>2.59</v>
-      </c>
-      <c r="S47" t="inlineStr">
-        <is>
-          <t>31/08/2023 05:42</t>
-        </is>
-      </c>
-      <c r="T47" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="U47" t="inlineStr">
-        <is>
-          <t>01/09/2023 17:00</t>
-        </is>
-      </c>
       <c r="V47" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-unia-swarzedz/YJejfaGo/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swit-skolwin-unia-solec-kujawski/Uokahwob/</t>
         </is>
       </c>
     </row>
@@ -7197,22 +7197,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Swinoujscie</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I74" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="J74" t="n">
-        <v>2.1</v>
+        <v>2.23</v>
       </c>
       <c r="K74" t="inlineStr">
         <is>
@@ -7220,15 +7220,15 @@
         </is>
       </c>
       <c r="L74" t="n">
-        <v>2.3</v>
+        <v>2.53</v>
       </c>
       <c r="M74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="N74" t="n">
-        <v>3.36</v>
+        <v>3.26</v>
       </c>
       <c r="O74" t="inlineStr">
         <is>
@@ -7236,15 +7236,15 @@
         </is>
       </c>
       <c r="P74" t="n">
-        <v>3.88</v>
+        <v>3.34</v>
       </c>
       <c r="Q74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="R74" t="n">
-        <v>2.69</v>
+        <v>2.56</v>
       </c>
       <c r="S74" t="inlineStr">
         <is>
@@ -7252,16 +7252,16 @@
         </is>
       </c>
       <c r="T74" t="n">
-        <v>2.39</v>
+        <v>2.44</v>
       </c>
       <c r="U74" t="inlineStr">
         <is>
-          <t>23/09/2023 15:43</t>
+          <t>23/09/2023 15:42</t>
         </is>
       </c>
       <c r="V74" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
         </is>
       </c>
     </row>
@@ -7289,22 +7289,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I75" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="J75" t="n">
-        <v>2.23</v>
+        <v>2.1</v>
       </c>
       <c r="K75" t="inlineStr">
         <is>
@@ -7312,15 +7312,15 @@
         </is>
       </c>
       <c r="L75" t="n">
-        <v>2.53</v>
+        <v>2.3</v>
       </c>
       <c r="M75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="N75" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="O75" t="inlineStr">
         <is>
@@ -7328,15 +7328,15 @@
         </is>
       </c>
       <c r="P75" t="n">
-        <v>3.34</v>
+        <v>3.88</v>
       </c>
       <c r="Q75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="R75" t="n">
-        <v>2.56</v>
+        <v>2.69</v>
       </c>
       <c r="S75" t="inlineStr">
         <is>
@@ -7344,16 +7344,16 @@
         </is>
       </c>
       <c r="T75" t="n">
-        <v>2.44</v>
+        <v>2.39</v>
       </c>
       <c r="U75" t="inlineStr">
         <is>
-          <t>23/09/2023 15:42</t>
+          <t>23/09/2023 15:43</t>
         </is>
       </c>
       <c r="V75" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/stolem-gniewino-blekitni-stargard/Uq4eIQ4K/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/swinoujscie-notec-czarnkow/pdUib5Dl/</t>
         </is>
       </c>
     </row>
@@ -7381,71 +7381,71 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I76" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="J76" t="n">
-        <v>2.37</v>
+        <v>1.75</v>
       </c>
       <c r="K76" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="L76" t="n">
-        <v>3.36</v>
+        <v>1.84</v>
       </c>
       <c r="M76" t="inlineStr">
         <is>
+          <t>23/09/2023 15:52</t>
+        </is>
+      </c>
+      <c r="N76" t="n">
+        <v>3.58</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>22/09/2023 03:13</t>
+        </is>
+      </c>
+      <c r="P76" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="Q76" t="inlineStr">
+        <is>
           <t>23/09/2023 15:53</t>
         </is>
       </c>
-      <c r="N76" t="n">
-        <v>3.45</v>
-      </c>
-      <c r="O76" t="inlineStr">
-        <is>
-          <t>22/09/2023 05:53</t>
-        </is>
-      </c>
-      <c r="P76" t="n">
-        <v>3.69</v>
-      </c>
-      <c r="Q76" t="inlineStr">
-        <is>
-          <t>23/09/2023 15:53</t>
-        </is>
-      </c>
       <c r="R76" t="n">
-        <v>2.39</v>
+        <v>3.35</v>
       </c>
       <c r="S76" t="inlineStr">
         <is>
-          <t>22/09/2023 05:53</t>
+          <t>22/09/2023 03:13</t>
         </is>
       </c>
       <c r="T76" t="n">
-        <v>1.86</v>
+        <v>3.73</v>
       </c>
       <c r="U76" t="inlineStr">
         <is>
-          <t>23/09/2023 15:53</t>
+          <t>23/09/2023 15:52</t>
         </is>
       </c>
       <c r="V76" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
         </is>
       </c>
     </row>
@@ -7473,46 +7473,46 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="I77" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J77" t="n">
-        <v>1.75</v>
+        <v>2.37</v>
       </c>
       <c r="K77" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="L77" t="n">
-        <v>1.84</v>
+        <v>3.36</v>
       </c>
       <c r="M77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="N77" t="n">
-        <v>3.58</v>
+        <v>3.45</v>
       </c>
       <c r="O77" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="P77" t="n">
-        <v>3.41</v>
+        <v>3.69</v>
       </c>
       <c r="Q77" t="inlineStr">
         <is>
@@ -7520,24 +7520,24 @@
         </is>
       </c>
       <c r="R77" t="n">
-        <v>3.35</v>
+        <v>2.39</v>
       </c>
       <c r="S77" t="inlineStr">
         <is>
-          <t>22/09/2023 03:13</t>
+          <t>22/09/2023 05:53</t>
         </is>
       </c>
       <c r="T77" t="n">
-        <v>3.73</v>
+        <v>1.86</v>
       </c>
       <c r="U77" t="inlineStr">
         <is>
-          <t>23/09/2023 15:52</t>
+          <t>23/09/2023 15:53</t>
         </is>
       </c>
       <c r="V77" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-kleczew/lQrM3RkR/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-vineta-wolin/llR8fNCD/</t>
         </is>
       </c>
     </row>
@@ -7565,7 +7565,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G78" t="n">
@@ -7573,14 +7573,14 @@
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="I78" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="J78" t="n">
-        <v>1.93</v>
+        <v>2.2</v>
       </c>
       <c r="K78" t="inlineStr">
         <is>
@@ -7588,15 +7588,15 @@
         </is>
       </c>
       <c r="L78" t="n">
-        <v>2.12</v>
+        <v>2.53</v>
       </c>
       <c r="M78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="N78" t="n">
-        <v>3.42</v>
+        <v>3.29</v>
       </c>
       <c r="O78" t="inlineStr">
         <is>
@@ -7604,15 +7604,15 @@
         </is>
       </c>
       <c r="P78" t="n">
-        <v>3.76</v>
+        <v>3.45</v>
       </c>
       <c r="Q78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="R78" t="n">
-        <v>2.95</v>
+        <v>2.57</v>
       </c>
       <c r="S78" t="inlineStr">
         <is>
@@ -7620,16 +7620,16 @@
         </is>
       </c>
       <c r="T78" t="n">
-        <v>2.73</v>
+        <v>2.39</v>
       </c>
       <c r="U78" t="inlineStr">
         <is>
-          <t>30/09/2023 11:59</t>
+          <t>30/09/2023 11:57</t>
         </is>
       </c>
       <c r="V78" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-cartusia-kartuzy/8bsr9MR6/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-nowe-skalmierzyce/MsuWBOsl/</t>
         </is>
       </c>
     </row>
@@ -7657,7 +7657,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G79" t="n">
@@ -7665,14 +7665,14 @@
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I79" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J79" t="n">
-        <v>2.2</v>
+        <v>1.93</v>
       </c>
       <c r="K79" t="inlineStr">
         <is>
@@ -7680,15 +7680,15 @@
         </is>
       </c>
       <c r="L79" t="n">
-        <v>2.53</v>
+        <v>2.12</v>
       </c>
       <c r="M79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="N79" t="n">
-        <v>3.29</v>
+        <v>3.42</v>
       </c>
       <c r="O79" t="inlineStr">
         <is>
@@ -7696,15 +7696,15 @@
         </is>
       </c>
       <c r="P79" t="n">
-        <v>3.45</v>
+        <v>3.76</v>
       </c>
       <c r="Q79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="R79" t="n">
-        <v>2.57</v>
+        <v>2.95</v>
       </c>
       <c r="S79" t="inlineStr">
         <is>
@@ -7712,16 +7712,16 @@
         </is>
       </c>
       <c r="T79" t="n">
-        <v>2.39</v>
+        <v>2.73</v>
       </c>
       <c r="U79" t="inlineStr">
         <is>
-          <t>30/09/2023 11:57</t>
+          <t>30/09/2023 11:59</t>
         </is>
       </c>
       <c r="V79" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-nowe-skalmierzyce/MsuWBOsl/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-cartusia-kartuzy/8bsr9MR6/</t>
         </is>
       </c>
     </row>
@@ -8577,22 +8577,22 @@
       </c>
       <c r="F89" t="inlineStr">
         <is>
-          <t>Solec Kujawski</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H89" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J89" t="n">
-        <v>2.86</v>
+        <v>1.54</v>
       </c>
       <c r="K89" t="inlineStr">
         <is>
@@ -8600,15 +8600,15 @@
         </is>
       </c>
       <c r="L89" t="n">
-        <v>3.6</v>
+        <v>1.56</v>
       </c>
       <c r="M89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="N89" t="n">
-        <v>3.57</v>
+        <v>3.99</v>
       </c>
       <c r="O89" t="inlineStr">
         <is>
@@ -8616,15 +8616,15 @@
         </is>
       </c>
       <c r="P89" t="n">
-        <v>3.48</v>
+        <v>4.25</v>
       </c>
       <c r="Q89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="R89" t="n">
-        <v>1.93</v>
+        <v>3.98</v>
       </c>
       <c r="S89" t="inlineStr">
         <is>
@@ -8632,16 +8632,16 @@
         </is>
       </c>
       <c r="T89" t="n">
-        <v>1.85</v>
+        <v>4.32</v>
       </c>
       <c r="U89" t="inlineStr">
         <is>
-          <t>07/10/2023 11:54</t>
+          <t>07/10/2023 11:40</t>
         </is>
       </c>
       <c r="V89" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
         </is>
       </c>
     </row>
@@ -8669,22 +8669,22 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Pogon Szczecin II</t>
+          <t>Solec Kujawski</t>
         </is>
       </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H90" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I90" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J90" t="n">
-        <v>1.54</v>
+        <v>2.86</v>
       </c>
       <c r="K90" t="inlineStr">
         <is>
@@ -8692,15 +8692,15 @@
         </is>
       </c>
       <c r="L90" t="n">
-        <v>1.56</v>
+        <v>3.6</v>
       </c>
       <c r="M90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="N90" t="n">
-        <v>3.99</v>
+        <v>3.57</v>
       </c>
       <c r="O90" t="inlineStr">
         <is>
@@ -8708,15 +8708,15 @@
         </is>
       </c>
       <c r="P90" t="n">
-        <v>4.25</v>
+        <v>3.48</v>
       </c>
       <c r="Q90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="R90" t="n">
-        <v>3.98</v>
+        <v>1.93</v>
       </c>
       <c r="S90" t="inlineStr">
         <is>
@@ -8724,16 +8724,16 @@
         </is>
       </c>
       <c r="T90" t="n">
-        <v>4.32</v>
+        <v>1.85</v>
       </c>
       <c r="U90" t="inlineStr">
         <is>
-          <t>07/10/2023 11:40</t>
+          <t>07/10/2023 11:54</t>
         </is>
       </c>
       <c r="V90" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-gedania-gdansk/8CMGNLt0/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-solec-kujawski-kleczew/GEsxV3lQ/</t>
         </is>
       </c>
     </row>
@@ -8761,22 +8761,22 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="G91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H91" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="I91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J91" t="n">
-        <v>1.53</v>
+        <v>1.7</v>
       </c>
       <c r="K91" t="inlineStr">
         <is>
@@ -8784,7 +8784,7 @@
         </is>
       </c>
       <c r="L91" t="n">
-        <v>1.57</v>
+        <v>1.76</v>
       </c>
       <c r="M91" t="inlineStr">
         <is>
@@ -8792,7 +8792,7 @@
         </is>
       </c>
       <c r="N91" t="n">
-        <v>3.96</v>
+        <v>3.6</v>
       </c>
       <c r="O91" t="inlineStr">
         <is>
@@ -8800,32 +8800,32 @@
         </is>
       </c>
       <c r="P91" t="n">
-        <v>4.38</v>
+        <v>3.94</v>
       </c>
       <c r="Q91" t="inlineStr">
         <is>
+          <t>07/10/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R91" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="S91" t="inlineStr">
+        <is>
+          <t>06/10/2023 00:12</t>
+        </is>
+      </c>
+      <c r="T91" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="U91" t="inlineStr">
+        <is>
           <t>07/10/2023 12:57</t>
         </is>
       </c>
-      <c r="R91" t="n">
-        <v>4.09</v>
-      </c>
-      <c r="S91" t="inlineStr">
-        <is>
-          <t>06/10/2023 00:12</t>
-        </is>
-      </c>
-      <c r="T91" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="U91" t="inlineStr">
-        <is>
-          <t>07/10/2023 12:57</t>
-        </is>
-      </c>
       <c r="V91" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
         </is>
       </c>
     </row>
@@ -8853,22 +8853,22 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G92" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H92" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="I92" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J92" t="n">
-        <v>1.7</v>
+        <v>1.53</v>
       </c>
       <c r="K92" t="inlineStr">
         <is>
@@ -8876,7 +8876,7 @@
         </is>
       </c>
       <c r="L92" t="n">
-        <v>1.76</v>
+        <v>1.57</v>
       </c>
       <c r="M92" t="inlineStr">
         <is>
@@ -8884,7 +8884,7 @@
         </is>
       </c>
       <c r="N92" t="n">
-        <v>3.6</v>
+        <v>3.96</v>
       </c>
       <c r="O92" t="inlineStr">
         <is>
@@ -8892,15 +8892,15 @@
         </is>
       </c>
       <c r="P92" t="n">
-        <v>3.94</v>
+        <v>4.38</v>
       </c>
       <c r="Q92" t="inlineStr">
         <is>
-          <t>07/10/2023 12:58</t>
+          <t>07/10/2023 12:57</t>
         </is>
       </c>
       <c r="R92" t="n">
-        <v>3.54</v>
+        <v>4.09</v>
       </c>
       <c r="S92" t="inlineStr">
         <is>
@@ -8908,7 +8908,7 @@
         </is>
       </c>
       <c r="T92" t="n">
-        <v>3.52</v>
+        <v>4.11</v>
       </c>
       <c r="U92" t="inlineStr">
         <is>
@@ -8917,7 +8917,7 @@
       </c>
       <c r="V92" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-notec-czarnkow/ULNCO1Rg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-luzino/0nJ8PsCm/</t>
         </is>
       </c>
     </row>
@@ -9405,22 +9405,22 @@
       </c>
       <c r="F98" t="inlineStr">
         <is>
-          <t>Unia Swarzedz</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G98" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H98" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="I98" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J98" t="n">
-        <v>2.69</v>
+        <v>4.48</v>
       </c>
       <c r="K98" t="inlineStr">
         <is>
@@ -9428,15 +9428,15 @@
         </is>
       </c>
       <c r="L98" t="n">
-        <v>2.16</v>
+        <v>5.93</v>
       </c>
       <c r="M98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="N98" t="n">
-        <v>3.23</v>
+        <v>3.92</v>
       </c>
       <c r="O98" t="inlineStr">
         <is>
@@ -9444,15 +9444,15 @@
         </is>
       </c>
       <c r="P98" t="n">
-        <v>3.28</v>
+        <v>4.42</v>
       </c>
       <c r="Q98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="R98" t="n">
-        <v>2.14</v>
+        <v>1.51</v>
       </c>
       <c r="S98" t="inlineStr">
         <is>
@@ -9460,16 +9460,16 @@
         </is>
       </c>
       <c r="T98" t="n">
-        <v>2.97</v>
+        <v>1.41</v>
       </c>
       <c r="U98" t="inlineStr">
         <is>
-          <t>14/10/2023 12:56</t>
+          <t>14/10/2023 12:57</t>
         </is>
       </c>
       <c r="V98" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
         </is>
       </c>
     </row>
@@ -9497,22 +9497,22 @@
       </c>
       <c r="F99" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Unia Swarzedz</t>
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="H99" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="I99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J99" t="n">
-        <v>4.48</v>
+        <v>2.69</v>
       </c>
       <c r="K99" t="inlineStr">
         <is>
@@ -9520,15 +9520,15 @@
         </is>
       </c>
       <c r="L99" t="n">
-        <v>5.93</v>
+        <v>2.16</v>
       </c>
       <c r="M99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="N99" t="n">
-        <v>3.92</v>
+        <v>3.23</v>
       </c>
       <c r="O99" t="inlineStr">
         <is>
@@ -9536,15 +9536,15 @@
         </is>
       </c>
       <c r="P99" t="n">
-        <v>4.42</v>
+        <v>3.28</v>
       </c>
       <c r="Q99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="R99" t="n">
-        <v>1.51</v>
+        <v>2.14</v>
       </c>
       <c r="S99" t="inlineStr">
         <is>
@@ -9552,16 +9552,16 @@
         </is>
       </c>
       <c r="T99" t="n">
-        <v>1.41</v>
+        <v>2.97</v>
       </c>
       <c r="U99" t="inlineStr">
         <is>
-          <t>14/10/2023 12:57</t>
+          <t>14/10/2023 12:56</t>
         </is>
       </c>
       <c r="V99" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-cartusia-kartuzy/EiQf6uTM/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/unia-swarzedz-elana-torun/hrPb5arT/</t>
         </is>
       </c>
     </row>
@@ -9589,71 +9589,71 @@
       </c>
       <c r="F100" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="H100" t="inlineStr">
         <is>
-          <t>Blekitni Stargard</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I100" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J100" t="n">
+        <v>2.94</v>
+      </c>
+      <c r="K100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="L100" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="M100" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="N100" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="P100" t="n">
+        <v>3.81</v>
+      </c>
+      <c r="Q100" t="inlineStr">
+        <is>
+          <t>14/10/2023 13:57</t>
+        </is>
+      </c>
+      <c r="R100" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="S100" t="inlineStr">
+        <is>
+          <t>13/10/2023 01:12</t>
+        </is>
+      </c>
+      <c r="T100" t="n">
         <v>1.89</v>
       </c>
-      <c r="K100" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="L100" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="M100" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:59</t>
-        </is>
-      </c>
-      <c r="N100" t="n">
-        <v>3.47</v>
-      </c>
-      <c r="O100" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="P100" t="n">
-        <v>4.11</v>
-      </c>
-      <c r="Q100" t="inlineStr">
-        <is>
-          <t>14/10/2023 13:56</t>
-        </is>
-      </c>
-      <c r="R100" t="n">
-        <v>3.01</v>
-      </c>
-      <c r="S100" t="inlineStr">
-        <is>
-          <t>13/10/2023 01:12</t>
-        </is>
-      </c>
-      <c r="T100" t="n">
-        <v>2.32</v>
-      </c>
       <c r="U100" t="inlineStr">
         <is>
-          <t>14/10/2023 13:59</t>
+          <t>14/10/2023 13:57</t>
         </is>
       </c>
       <c r="V100" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
         </is>
       </c>
     </row>
@@ -9681,22 +9681,22 @@
       </c>
       <c r="F101" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="H101" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Blekitni Stargard</t>
         </is>
       </c>
       <c r="I101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J101" t="n">
-        <v>2.94</v>
+        <v>1.89</v>
       </c>
       <c r="K101" t="inlineStr">
         <is>
@@ -9704,15 +9704,15 @@
         </is>
       </c>
       <c r="L101" t="n">
-        <v>3.16</v>
+        <v>2.32</v>
       </c>
       <c r="M101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="N101" t="n">
-        <v>3.42</v>
+        <v>3.47</v>
       </c>
       <c r="O101" t="inlineStr">
         <is>
@@ -9720,15 +9720,15 @@
         </is>
       </c>
       <c r="P101" t="n">
-        <v>3.81</v>
+        <v>4.11</v>
       </c>
       <c r="Q101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:56</t>
         </is>
       </c>
       <c r="R101" t="n">
-        <v>1.94</v>
+        <v>3.01</v>
       </c>
       <c r="S101" t="inlineStr">
         <is>
@@ -9736,16 +9736,16 @@
         </is>
       </c>
       <c r="T101" t="n">
-        <v>1.89</v>
+        <v>2.32</v>
       </c>
       <c r="U101" t="inlineStr">
         <is>
-          <t>14/10/2023 13:57</t>
+          <t>14/10/2023 13:59</t>
         </is>
       </c>
       <c r="V101" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-zawisza/xnVVBqao/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-blekitni-stargard/GxUZA3Ei/</t>
         </is>
       </c>
     </row>
@@ -11061,22 +11061,22 @@
       </c>
       <c r="F116" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="G116" t="n">
+        <v>2</v>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Vineta W.</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
         <v>1</v>
       </c>
-      <c r="H116" t="inlineStr">
-        <is>
-          <t>Pogon Szczecin II</t>
-        </is>
-      </c>
-      <c r="I116" t="n">
-        <v>0</v>
-      </c>
       <c r="J116" t="n">
-        <v>2.24</v>
+        <v>2.1</v>
       </c>
       <c r="K116" t="inlineStr">
         <is>
@@ -11084,15 +11084,15 @@
         </is>
       </c>
       <c r="L116" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="M116" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="N116" t="n">
-        <v>3.26</v>
+        <v>3.36</v>
       </c>
       <c r="O116" t="inlineStr">
         <is>
@@ -11100,15 +11100,15 @@
         </is>
       </c>
       <c r="P116" t="n">
-        <v>3.37</v>
+        <v>3.72</v>
       </c>
       <c r="Q116" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="R116" t="n">
-        <v>2.54</v>
+        <v>2.68</v>
       </c>
       <c r="S116" t="inlineStr">
         <is>
@@ -11116,16 +11116,16 @@
         </is>
       </c>
       <c r="T116" t="n">
-        <v>2.92</v>
+        <v>2.49</v>
       </c>
       <c r="U116" t="inlineStr">
         <is>
-          <t>28/10/2023 13:51</t>
+          <t>28/10/2023 13:55</t>
         </is>
       </c>
       <c r="V116" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-pogon-szczecin/UsFBXHRL/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-vineta-wolin/pfu8Ddzj/</t>
         </is>
       </c>
     </row>
@@ -11153,22 +11153,22 @@
       </c>
       <c r="F117" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Notec Czarnkow</t>
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H117" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Nowe Skalmierzyce</t>
         </is>
       </c>
       <c r="I117" t="n">
         <v>1</v>
       </c>
       <c r="J117" t="n">
-        <v>2.1</v>
+        <v>1.92</v>
       </c>
       <c r="K117" t="inlineStr">
         <is>
@@ -11176,15 +11176,15 @@
         </is>
       </c>
       <c r="L117" t="n">
-        <v>2.3</v>
+        <v>1.41</v>
       </c>
       <c r="M117" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="N117" t="n">
-        <v>3.36</v>
+        <v>3.55</v>
       </c>
       <c r="O117" t="inlineStr">
         <is>
@@ -11192,15 +11192,15 @@
         </is>
       </c>
       <c r="P117" t="n">
-        <v>3.72</v>
+        <v>4.77</v>
       </c>
       <c r="Q117" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="R117" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="S117" t="inlineStr">
         <is>
@@ -11208,16 +11208,16 @@
         </is>
       </c>
       <c r="T117" t="n">
-        <v>2.49</v>
+        <v>5.35</v>
       </c>
       <c r="U117" t="inlineStr">
         <is>
-          <t>28/10/2023 13:55</t>
+          <t>28/10/2023 13:58</t>
         </is>
       </c>
       <c r="V117" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-vineta-wolin/pfu8Ddzj/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-nowe-skalmierzyce/YFL2Zwc9/</t>
         </is>
       </c>
     </row>
@@ -11245,7 +11245,7 @@
       </c>
       <c r="F118" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G118" t="n">
@@ -11253,14 +11253,14 @@
       </c>
       <c r="H118" t="inlineStr">
         <is>
-          <t>Nowe Skalmierzyce</t>
+          <t>Pogon Szczecin II</t>
         </is>
       </c>
       <c r="I118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J118" t="n">
-        <v>1.92</v>
+        <v>2.24</v>
       </c>
       <c r="K118" t="inlineStr">
         <is>
@@ -11268,15 +11268,15 @@
         </is>
       </c>
       <c r="L118" t="n">
-        <v>1.41</v>
+        <v>2.15</v>
       </c>
       <c r="M118" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="N118" t="n">
-        <v>3.55</v>
+        <v>3.26</v>
       </c>
       <c r="O118" t="inlineStr">
         <is>
@@ -11284,15 +11284,15 @@
         </is>
       </c>
       <c r="P118" t="n">
-        <v>4.77</v>
+        <v>3.37</v>
       </c>
       <c r="Q118" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="R118" t="n">
-        <v>2.9</v>
+        <v>2.54</v>
       </c>
       <c r="S118" t="inlineStr">
         <is>
@@ -11300,16 +11300,16 @@
         </is>
       </c>
       <c r="T118" t="n">
-        <v>5.35</v>
+        <v>2.92</v>
       </c>
       <c r="U118" t="inlineStr">
         <is>
-          <t>28/10/2023 13:58</t>
+          <t>28/10/2023 13:51</t>
         </is>
       </c>
       <c r="V118" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/notec-czarnkow-nowe-skalmierzyce/YFL2Zwc9/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-pogon-szczecin/UsFBXHRL/</t>
         </is>
       </c>
     </row>
@@ -12441,71 +12441,71 @@
       </c>
       <c r="F131" t="inlineStr">
         <is>
-          <t>Luzino</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="G131" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H131" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="I131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J131" t="n">
-        <v>2.23</v>
+        <v>2.6</v>
       </c>
       <c r="K131" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 00:43</t>
         </is>
       </c>
       <c r="L131" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="M131" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:07</t>
+        </is>
+      </c>
+      <c r="N131" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="O131" t="inlineStr">
+        <is>
+          <t>11/11/2023 00:43</t>
+        </is>
+      </c>
+      <c r="P131" t="n">
+        <v>3.77</v>
+      </c>
+      <c r="Q131" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:07</t>
+        </is>
+      </c>
+      <c r="R131" t="n">
         <v>2.24</v>
       </c>
-      <c r="M131" t="inlineStr">
-        <is>
-          <t>11/11/2023 11:50</t>
-        </is>
-      </c>
-      <c r="N131" t="n">
-        <v>3.46</v>
-      </c>
-      <c r="O131" t="inlineStr">
-        <is>
-          <t>11/11/2023 01:13</t>
-        </is>
-      </c>
-      <c r="P131" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q131" t="inlineStr">
-        <is>
-          <t>11/11/2023 11:50</t>
-        </is>
-      </c>
-      <c r="R131" t="n">
-        <v>2.6</v>
-      </c>
       <c r="S131" t="inlineStr">
         <is>
-          <t>11/11/2023 01:13</t>
+          <t>11/11/2023 00:43</t>
         </is>
       </c>
       <c r="T131" t="n">
-        <v>2.68</v>
+        <v>2.05</v>
       </c>
       <c r="U131" t="inlineStr">
         <is>
-          <t>11/11/2023 11:50</t>
+          <t>11/11/2023 11:07</t>
         </is>
       </c>
       <c r="V131" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-stolem-gniewino/nuNC0Ge8/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-zawisza/WWvQxD31/</t>
         </is>
       </c>
     </row>
@@ -12533,71 +12533,71 @@
       </c>
       <c r="F132" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Luzino</t>
         </is>
       </c>
       <c r="G132" t="n">
+        <v>5</v>
+      </c>
+      <c r="H132" t="inlineStr">
+        <is>
+          <t>Stolem Gniewino</t>
+        </is>
+      </c>
+      <c r="I132" t="n">
         <v>2</v>
       </c>
-      <c r="H132" t="inlineStr">
-        <is>
-          <t>Zawisza</t>
-        </is>
-      </c>
-      <c r="I132" t="n">
-        <v>0</v>
-      </c>
       <c r="J132" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="K132" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L132" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="M132" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="N132" t="n">
+        <v>3.46</v>
+      </c>
+      <c r="O132" t="inlineStr">
+        <is>
+          <t>11/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P132" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q132" t="inlineStr">
+        <is>
+          <t>11/11/2023 11:50</t>
+        </is>
+      </c>
+      <c r="R132" t="n">
         <v>2.6</v>
       </c>
-      <c r="K132" t="inlineStr">
-        <is>
-          <t>11/11/2023 00:43</t>
-        </is>
-      </c>
-      <c r="L132" t="n">
-        <v>2.84</v>
-      </c>
-      <c r="M132" t="inlineStr">
-        <is>
-          <t>11/11/2023 11:07</t>
-        </is>
-      </c>
-      <c r="N132" t="n">
-        <v>3.44</v>
-      </c>
-      <c r="O132" t="inlineStr">
-        <is>
-          <t>11/11/2023 00:43</t>
-        </is>
-      </c>
-      <c r="P132" t="n">
-        <v>3.77</v>
-      </c>
-      <c r="Q132" t="inlineStr">
-        <is>
-          <t>11/11/2023 11:07</t>
-        </is>
-      </c>
-      <c r="R132" t="n">
-        <v>2.24</v>
-      </c>
       <c r="S132" t="inlineStr">
         <is>
-          <t>11/11/2023 00:43</t>
+          <t>11/11/2023 01:13</t>
         </is>
       </c>
       <c r="T132" t="n">
-        <v>2.05</v>
+        <v>2.68</v>
       </c>
       <c r="U132" t="inlineStr">
         <is>
-          <t>11/11/2023 11:07</t>
+          <t>11/11/2023 11:50</t>
         </is>
       </c>
       <c r="V132" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/gedania-gdansk-zawisza/WWvQxD31/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/luzino-stolem-gniewino/nuNC0Ge8/</t>
         </is>
       </c>
     </row>
@@ -13269,22 +13269,22 @@
       </c>
       <c r="F140" t="inlineStr">
         <is>
-          <t>Cartusia Kartuzy</t>
+          <t>Vineta W.</t>
         </is>
       </c>
       <c r="G140" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="H140" t="inlineStr">
         <is>
-          <t>Kleczew</t>
+          <t>Gedania Gdansk</t>
         </is>
       </c>
       <c r="I140" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J140" t="n">
-        <v>1.73</v>
+        <v>2.04</v>
       </c>
       <c r="K140" t="inlineStr">
         <is>
@@ -13292,15 +13292,15 @@
         </is>
       </c>
       <c r="L140" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="M140" t="inlineStr">
         <is>
-          <t>18/11/2023 11:51</t>
+          <t>18/11/2023 11:52</t>
         </is>
       </c>
       <c r="N140" t="n">
-        <v>3.76</v>
+        <v>3.66</v>
       </c>
       <c r="O140" t="inlineStr">
         <is>
@@ -13308,15 +13308,15 @@
         </is>
       </c>
       <c r="P140" t="n">
-        <v>3.71</v>
+        <v>4.09</v>
       </c>
       <c r="Q140" t="inlineStr">
         <is>
-          <t>18/11/2023 11:51</t>
+          <t>18/11/2023 11:52</t>
         </is>
       </c>
       <c r="R140" t="n">
-        <v>3.58</v>
+        <v>2.79</v>
       </c>
       <c r="S140" t="inlineStr">
         <is>
@@ -13324,16 +13324,16 @@
         </is>
       </c>
       <c r="T140" t="n">
-        <v>3.46</v>
+        <v>3.32</v>
       </c>
       <c r="U140" t="inlineStr">
         <is>
-          <t>18/11/2023 11:51</t>
+          <t>18/11/2023 11:52</t>
         </is>
       </c>
       <c r="V140" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-kleczew/Cvddu6Pa/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-gedania-gdansk/E7IRfoPn/</t>
         </is>
       </c>
     </row>
@@ -13453,22 +13453,22 @@
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Vineta W.</t>
+          <t>Cartusia Kartuzy</t>
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H142" t="inlineStr">
         <is>
-          <t>Gedania Gdansk</t>
+          <t>Kleczew</t>
         </is>
       </c>
       <c r="I142" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J142" t="n">
-        <v>2.04</v>
+        <v>1.73</v>
       </c>
       <c r="K142" t="inlineStr">
         <is>
@@ -13476,15 +13476,15 @@
         </is>
       </c>
       <c r="L142" t="n">
-        <v>1.79</v>
+        <v>1.83</v>
       </c>
       <c r="M142" t="inlineStr">
         <is>
-          <t>18/11/2023 11:52</t>
+          <t>18/11/2023 11:51</t>
         </is>
       </c>
       <c r="N142" t="n">
-        <v>3.66</v>
+        <v>3.76</v>
       </c>
       <c r="O142" t="inlineStr">
         <is>
@@ -13492,15 +13492,15 @@
         </is>
       </c>
       <c r="P142" t="n">
-        <v>4.09</v>
+        <v>3.71</v>
       </c>
       <c r="Q142" t="inlineStr">
         <is>
-          <t>18/11/2023 11:52</t>
+          <t>18/11/2023 11:51</t>
         </is>
       </c>
       <c r="R142" t="n">
-        <v>2.79</v>
+        <v>3.58</v>
       </c>
       <c r="S142" t="inlineStr">
         <is>
@@ -13508,16 +13508,16 @@
         </is>
       </c>
       <c r="T142" t="n">
-        <v>3.32</v>
+        <v>3.46</v>
       </c>
       <c r="U142" t="inlineStr">
         <is>
-          <t>18/11/2023 11:52</t>
+          <t>18/11/2023 11:51</t>
         </is>
       </c>
       <c r="V142" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/vineta-wolin-gedania-gdansk/E7IRfoPn/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/cartusia-kartuzy-kleczew/Cvddu6Pa/</t>
         </is>
       </c>
     </row>
@@ -13545,7 +13545,7 @@
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Zawisza</t>
+          <t>Elana Torun</t>
         </is>
       </c>
       <c r="G143" t="n">
@@ -13553,14 +13553,14 @@
       </c>
       <c r="H143" t="inlineStr">
         <is>
-          <t>Notec Czarnkow</t>
+          <t>Stolem Gniewino</t>
         </is>
       </c>
       <c r="I143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J143" t="n">
-        <v>1.92</v>
+        <v>1.23</v>
       </c>
       <c r="K143" t="inlineStr">
         <is>
@@ -13568,15 +13568,15 @@
         </is>
       </c>
       <c r="L143" t="n">
-        <v>1.96</v>
+        <v>1.37</v>
       </c>
       <c r="M143" t="inlineStr">
         <is>
-          <t>18/11/2023 12:58</t>
+          <t>18/11/2023 12:27</t>
         </is>
       </c>
       <c r="N143" t="n">
-        <v>3.69</v>
+        <v>5.52</v>
       </c>
       <c r="O143" t="inlineStr">
         <is>
@@ -13584,15 +13584,15 @@
         </is>
       </c>
       <c r="P143" t="n">
-        <v>3.84</v>
+        <v>4.86</v>
       </c>
       <c r="Q143" t="inlineStr">
         <is>
-          <t>18/11/2023 12:58</t>
+          <t>18/11/2023 12:27</t>
         </is>
       </c>
       <c r="R143" t="n">
-        <v>3.03</v>
+        <v>7.83</v>
       </c>
       <c r="S143" t="inlineStr">
         <is>
@@ -13600,16 +13600,16 @@
         </is>
       </c>
       <c r="T143" t="n">
-        <v>2.98</v>
+        <v>5.81</v>
       </c>
       <c r="U143" t="inlineStr">
         <is>
-          <t>18/11/2023 12:58</t>
+          <t>18/11/2023 12:27</t>
         </is>
       </c>
       <c r="V143" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-notec-czarnkow/WrTMeR9t/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-stolem-gniewino/tKmDyOOO/</t>
         </is>
       </c>
     </row>
@@ -13729,22 +13729,22 @@
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Elana Torun</t>
+          <t>Sroda</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H145" t="inlineStr">
         <is>
-          <t>Stolem Gniewino</t>
+          <t>Swit Skolwin</t>
         </is>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
       <c r="J145" t="n">
-        <v>1.23</v>
+        <v>5.31</v>
       </c>
       <c r="K145" t="inlineStr">
         <is>
@@ -13752,15 +13752,15 @@
         </is>
       </c>
       <c r="L145" t="n">
-        <v>1.37</v>
+        <v>5.16</v>
       </c>
       <c r="M145" t="inlineStr">
         <is>
-          <t>18/11/2023 12:27</t>
+          <t>18/11/2023 12:52</t>
         </is>
       </c>
       <c r="N145" t="n">
-        <v>5.52</v>
+        <v>4.29</v>
       </c>
       <c r="O145" t="inlineStr">
         <is>
@@ -13768,15 +13768,15 @@
         </is>
       </c>
       <c r="P145" t="n">
-        <v>4.86</v>
+        <v>4.14</v>
       </c>
       <c r="Q145" t="inlineStr">
         <is>
-          <t>18/11/2023 12:27</t>
+          <t>18/11/2023 12:52</t>
         </is>
       </c>
       <c r="R145" t="n">
-        <v>7.83</v>
+        <v>1.43</v>
       </c>
       <c r="S145" t="inlineStr">
         <is>
@@ -13784,16 +13784,16 @@
         </is>
       </c>
       <c r="T145" t="n">
-        <v>5.81</v>
+        <v>1.49</v>
       </c>
       <c r="U145" t="inlineStr">
         <is>
-          <t>18/11/2023 12:27</t>
+          <t>18/11/2023 12:52</t>
         </is>
       </c>
       <c r="V145" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/elana-torun-stolem-gniewino/tKmDyOOO/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-swit-skolwin/hbHVg5vg/</t>
         </is>
       </c>
     </row>
@@ -13821,7 +13821,7 @@
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Sroda</t>
+          <t>Starogard Gdanski</t>
         </is>
       </c>
       <c r="G146" t="n">
@@ -13829,14 +13829,14 @@
       </c>
       <c r="H146" t="inlineStr">
         <is>
-          <t>Swit Skolwin</t>
+          <t>Swinoujscie</t>
         </is>
       </c>
       <c r="I146" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J146" t="n">
-        <v>5.31</v>
+        <v>2.5</v>
       </c>
       <c r="K146" t="inlineStr">
         <is>
@@ -13844,15 +13844,15 @@
         </is>
       </c>
       <c r="L146" t="n">
-        <v>5.16</v>
+        <v>2.95</v>
       </c>
       <c r="M146" t="inlineStr">
         <is>
-          <t>18/11/2023 12:52</t>
+          <t>18/11/2023 12:55</t>
         </is>
       </c>
       <c r="N146" t="n">
-        <v>4.29</v>
+        <v>3.42</v>
       </c>
       <c r="O146" t="inlineStr">
         <is>
@@ -13860,15 +13860,15 @@
         </is>
       </c>
       <c r="P146" t="n">
-        <v>4.14</v>
+        <v>3.37</v>
       </c>
       <c r="Q146" t="inlineStr">
         <is>
-          <t>18/11/2023 12:52</t>
+          <t>18/11/2023 12:55</t>
         </is>
       </c>
       <c r="R146" t="n">
-        <v>1.43</v>
+        <v>2.33</v>
       </c>
       <c r="S146" t="inlineStr">
         <is>
@@ -13876,16 +13876,16 @@
         </is>
       </c>
       <c r="T146" t="n">
-        <v>1.49</v>
+        <v>2.13</v>
       </c>
       <c r="U146" t="inlineStr">
         <is>
-          <t>18/11/2023 12:52</t>
+          <t>18/11/2023 12:55</t>
         </is>
       </c>
       <c r="V146" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-swit-skolwin/hbHVg5vg/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swinoujscie/phf4wpfC/</t>
         </is>
       </c>
     </row>
@@ -13913,22 +13913,22 @@
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Starogard Gdanski</t>
+          <t>Zawisza</t>
         </is>
       </c>
       <c r="G147" t="n">
+        <v>3</v>
+      </c>
+      <c r="H147" t="inlineStr">
+        <is>
+          <t>Notec Czarnkow</t>
+        </is>
+      </c>
+      <c r="I147" t="n">
         <v>1</v>
       </c>
-      <c r="H147" t="inlineStr">
-        <is>
-          <t>Swinoujscie</t>
-        </is>
-      </c>
-      <c r="I147" t="n">
-        <v>3</v>
-      </c>
       <c r="J147" t="n">
-        <v>2.5</v>
+        <v>1.92</v>
       </c>
       <c r="K147" t="inlineStr">
         <is>
@@ -13936,15 +13936,15 @@
         </is>
       </c>
       <c r="L147" t="n">
-        <v>2.95</v>
+        <v>1.96</v>
       </c>
       <c r="M147" t="inlineStr">
         <is>
-          <t>18/11/2023 12:55</t>
+          <t>18/11/2023 12:58</t>
         </is>
       </c>
       <c r="N147" t="n">
-        <v>3.42</v>
+        <v>3.69</v>
       </c>
       <c r="O147" t="inlineStr">
         <is>
@@ -13952,15 +13952,15 @@
         </is>
       </c>
       <c r="P147" t="n">
-        <v>3.37</v>
+        <v>3.84</v>
       </c>
       <c r="Q147" t="inlineStr">
         <is>
-          <t>18/11/2023 12:55</t>
+          <t>18/11/2023 12:58</t>
         </is>
       </c>
       <c r="R147" t="n">
-        <v>2.33</v>
+        <v>3.03</v>
       </c>
       <c r="S147" t="inlineStr">
         <is>
@@ -13968,16 +13968,16 @@
         </is>
       </c>
       <c r="T147" t="n">
-        <v>2.13</v>
+        <v>2.98</v>
       </c>
       <c r="U147" t="inlineStr">
         <is>
-          <t>18/11/2023 12:55</t>
+          <t>18/11/2023 12:58</t>
         </is>
       </c>
       <c r="V147" t="inlineStr">
         <is>
-          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-swinoujscie/phf4wpfC/</t>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-notec-czarnkow/WrTMeR9t/</t>
         </is>
       </c>
     </row>
@@ -14070,6 +14070,558 @@
       <c r="V148" t="inlineStr">
         <is>
           <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-unia-swarzedz/61e0vQv6/</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D149" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E149" s="2" t="n">
+        <v>45255.5</v>
+      </c>
+      <c r="F149" t="inlineStr">
+        <is>
+          <t>Sroda</t>
+        </is>
+      </c>
+      <c r="G149" t="n">
+        <v>2</v>
+      </c>
+      <c r="H149" t="inlineStr">
+        <is>
+          <t>Gedania Gdansk</t>
+        </is>
+      </c>
+      <c r="I149" t="n">
+        <v>1</v>
+      </c>
+      <c r="J149" t="n">
+        <v>2</v>
+      </c>
+      <c r="K149" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="L149" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M149" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N149" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="O149" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="P149" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q149" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R149" t="n">
+        <v>2.83</v>
+      </c>
+      <c r="S149" t="inlineStr">
+        <is>
+          <t>25/11/2023 01:13</t>
+        </is>
+      </c>
+      <c r="T149" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="U149" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V149" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/polonia-sroda-wielkopol-gedania-gdansk/vFFwhq95/</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D150" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E150" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F150" t="inlineStr">
+        <is>
+          <t>Starogard Gdanski</t>
+        </is>
+      </c>
+      <c r="G150" t="n">
+        <v>3</v>
+      </c>
+      <c r="H150" t="inlineStr">
+        <is>
+          <t>Unia Swarzedz</t>
+        </is>
+      </c>
+      <c r="I150" t="n">
+        <v>4</v>
+      </c>
+      <c r="J150" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="K150" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L150" t="n">
+        <v>4.57</v>
+      </c>
+      <c r="M150" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="N150" t="n">
+        <v>3.69</v>
+      </c>
+      <c r="O150" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P150" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="Q150" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="R150" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S150" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T150" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="U150" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:58</t>
+        </is>
+      </c>
+      <c r="V150" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/starogard-gdanski-unia-swarzedz/nLx584gn/</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D151" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E151" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F151" t="inlineStr">
+        <is>
+          <t>Blekitni Stargard</t>
+        </is>
+      </c>
+      <c r="G151" t="n">
+        <v>3</v>
+      </c>
+      <c r="H151" t="inlineStr">
+        <is>
+          <t>Elana Torun</t>
+        </is>
+      </c>
+      <c r="I151" t="n">
+        <v>3</v>
+      </c>
+      <c r="J151" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="K151" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L151" t="n">
+        <v>4.19</v>
+      </c>
+      <c r="M151" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:27</t>
+        </is>
+      </c>
+      <c r="N151" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="O151" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P151" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="Q151" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:27</t>
+        </is>
+      </c>
+      <c r="R151" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S151" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="U151" t="inlineStr">
+        <is>
+          <t>25/11/2023 11:27</t>
+        </is>
+      </c>
+      <c r="V151" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/blekitni-stargard-elana-torun/U38jksgO/</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D152" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E152" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F152" t="inlineStr">
+        <is>
+          <t>Kleczew</t>
+        </is>
+      </c>
+      <c r="G152" t="n">
+        <v>2</v>
+      </c>
+      <c r="H152" t="inlineStr">
+        <is>
+          <t>Swit Skolwin</t>
+        </is>
+      </c>
+      <c r="I152" t="n">
+        <v>2</v>
+      </c>
+      <c r="J152" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="K152" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L152" t="n">
+        <v>4.27</v>
+      </c>
+      <c r="M152" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:09</t>
+        </is>
+      </c>
+      <c r="N152" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="O152" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P152" t="n">
+        <v>4.01</v>
+      </c>
+      <c r="Q152" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:09</t>
+        </is>
+      </c>
+      <c r="R152" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S152" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T152" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="U152" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:09</t>
+        </is>
+      </c>
+      <c r="V152" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/kleczew-swit-skolwin/0OGZhPga/</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D153" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E153" s="2" t="n">
+        <v>45255.54166666666</v>
+      </c>
+      <c r="F153" t="inlineStr">
+        <is>
+          <t>Zawisza</t>
+        </is>
+      </c>
+      <c r="G153" t="n">
+        <v>4</v>
+      </c>
+      <c r="H153" t="inlineStr">
+        <is>
+          <t>Luzino</t>
+        </is>
+      </c>
+      <c r="I153" t="n">
+        <v>1</v>
+      </c>
+      <c r="J153" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="K153" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="L153" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="M153" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="N153" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="O153" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="P153" t="n">
+        <v>5.16</v>
+      </c>
+      <c r="Q153" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="R153" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="S153" t="inlineStr">
+        <is>
+          <t>25/11/2023 02:12</t>
+        </is>
+      </c>
+      <c r="T153" t="n">
+        <v>5.62</v>
+      </c>
+      <c r="U153" t="inlineStr">
+        <is>
+          <t>25/11/2023 12:59</t>
+        </is>
+      </c>
+      <c r="V153" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/zawisza-luzino/zs9njNwI/</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>poland</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>iii-liga-group-ii</t>
+        </is>
+      </c>
+      <c r="D154" t="inlineStr">
+        <is>
+          <t>2023-2024</t>
+        </is>
+      </c>
+      <c r="E154" s="2" t="n">
+        <v>45256.5</v>
+      </c>
+      <c r="F154" t="inlineStr">
+        <is>
+          <t>Pogon Szczecin II</t>
+        </is>
+      </c>
+      <c r="G154" t="n">
+        <v>2</v>
+      </c>
+      <c r="H154" t="inlineStr">
+        <is>
+          <t>Cartusia Kartuzy</t>
+        </is>
+      </c>
+      <c r="I154" t="n">
+        <v>4</v>
+      </c>
+      <c r="J154" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="K154" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="L154" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="M154" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="N154" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="O154" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="P154" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="Q154" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="R154" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="S154" t="inlineStr">
+        <is>
+          <t>26/11/2023 02:13</t>
+        </is>
+      </c>
+      <c r="T154" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="U154" t="inlineStr">
+        <is>
+          <t>26/11/2023 11:55</t>
+        </is>
+      </c>
+      <c r="V154" t="inlineStr">
+        <is>
+          <t>https://www.betexplorer.com/football/poland/iii-liga-group-ii/pogon-szczecin-cartusia-kartuzy/trx97O8h/</t>
         </is>
       </c>
     </row>
